--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -15,199 +15,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>@markleemellor @mmason00 also if salah is at the olympics.</t>
-  </si>
-  <si>
-    <t>#اسلام_کی_شہزادياں 
-minhal sohail the 21-year-old became pakistan’s first female shooter to compete at olympics 2016. although, she couldn’t win gold and secured 28th position in the 10m air rifle event, minhal has made us proud by qualifying for the rio games.</t>
-  </si>
-  <si>
-    <t>rt @goyatneeraj: congratulations @bfi_official, @media_sai and all indian boxers as this is first time in indian history that in first olym…</t>
+    <t>rt @saitomri: i wrote about baseball. really. https://t.co/kpirnosnpa</t>
+  </si>
+  <si>
+    <t>rt @ndidi_amakaa: @solaadio olu leave your mother police is coming soon=olympics 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>@wintersdancer they don’t want to lose the olympics is what most people are saying.</t>
+  </si>
+  <si>
+    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/udcfbsnywq https://t.co/zmub83pz7y</t>
+  </si>
+  <si>
+    <t>the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner of the globe, much like the spreading virus that now imperils the opening ceremony on july 24. https://t.co/uqxwdzpazm</t>
+  </si>
+  <si>
+    <t>"it is the olympic year and we as a team have put in a lot of effort to qualify for the games. we look forward to a winning haul and make our country proud in tokyo."
+#tokyoolympics 
+https://t.co/itduutd7gs</t>
+  </si>
+  <si>
+    <t>@josephajao4 i'm in work now.! if those olympics were any were else other than london aj would not of got a medal. as for world title charles martin won his by default an sold it in 1st defense. he's a fraud .😁</t>
+  </si>
+  <si>
+    <t>@standardnews jesus thank god for that. i am now thinking of identifying as a women and enter the olympics. nearest chance i would get to have a medal 🏅</t>
+  </si>
+  <si>
+    <t>@tlc27 just to clarify, i could see if the schools had confirmed cases but it was because one girl had it in special olympics and went to a basketball game. instead of even just making those people quarantine. they shut down three schools.</t>
+  </si>
+  <si>
+    <t>rt @imrahultrehan: from practicing muay thai in her village in baro mukhia in assam to qualifying for tokyo olympics in the 69 kg category,…</t>
+  </si>
+  <si>
+    <t>athletes aiming for gold medals or sports businesses after the pot of gold, @lboroffs is for you! #olympics #tokyo2020 #businessperformance #sport https://t.co/gr5xtkewvw</t>
+  </si>
+  <si>
+    <t>@gerardhimself @thastock @timbontemps @stevekoonin also, it would kill all the nba summer programs for kids, people on vacation....baseball has 1000 games so no one cares if they miss a few in the summer..olympics....world cup....mist remember its a. international game</t>
+  </si>
+  <si>
+    <t>rt @alexolayacastro: in preparation for the 2020 olympics, japan imports ebola and other high-risk viruses so that their country is ready i…</t>
+  </si>
+  <si>
+    <t>world champion nesthy petecio apologized tuesday for failing to meet the expectations of an entire nation hoping to see her qualify to the 2020 tokyo olympics. https://t.co/ndrle3na9r</t>
+  </si>
+  <si>
+    <t>@worldrowing cancels world cups 1 &amp;amp; 2 due to be held in italy ahead of the olympics because of the virus outbreak</t>
+  </si>
+  <si>
+    <t>rt @cqrcmp: great weekend at the vancouver polar plunge in support of @sobcsociety!  our safety bear (2nd from left) is so happy when he ge…</t>
+  </si>
+  <si>
+    <t>rt @marktaffetmedia: make sure to watch 2x gold medal winner ⁦@claressashields⁩ as a broadcaster today 4:30pmet on the ⁦@olympicchannel⁩ #o…</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help - sports - the jakarta post https://t.co/dubhsxwg3r</t>
+  </si>
+  <si>
+    <t>@pecko178 @loudminorityjp there is no coronavirus infected person  in tokyo. positive 0. we can hold tokyo olympics. greatest city in the world.</t>
+  </si>
+  <si>
+    <t>@tatendermusic if we ever went to the olympics for song association, i would win everytime.. https://t.co/ijxkadn51f</t>
+  </si>
+  <si>
+    <t>former #boa and #worldsailing chief executive #andyhunt to lead new sport safety group https://t.co/dgtv0e0xvn @teamgb @worldsailing @andy_hunt #olympics #sailing #formula1</t>
+  </si>
+  <si>
+    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/amivuxtkfa https://t.co/bzzw5ce7nk</t>
+  </si>
+  <si>
+    <t>rt @blaccsunflower: the government refuses to acknowledge how dangerous this is because of the olympics and it is hilariously terrifying</t>
+  </si>
+  <si>
+    <t>rt @cbcolympics: our #christmas present to you all: relive all 41 @teamcanada gold-medal moments of the past decade... just 'cause 🥇🇨🇦 http…</t>
+  </si>
+  <si>
+    <t>olympics torch lighting ceremony will be closed to the public because of coronavirus https://t.co/4m6hgqy9ox https://t.co/yf8sezka6v</t>
   </si>
   <si>
     <t>rt @coach_okeefe9: congrats to the student for pulling out a win vs the staff tonight in our inaugural house olympics.  lots of fun!  it’s…</t>
   </si>
   <si>
-    <t>rt @longballtonoone: "great for racing"
-legend yutaka take will be a torch runner for the 2020 tokyo olympics https://t.co/jul5xm5yjc</t>
-  </si>
-  <si>
-    <t>rt @mb_mollissima: @samizstat @alessandrostru4 the govt believes they can avoid olympics cancellation by neglecting tests (and keeping the…</t>
-  </si>
-  <si>
-    <t>filipina boxer nesthy petecio won't be securing a spot in the 2020 tokyo olympics, after the reigning women's featherweight... https://t.co/2scefoauct</t>
-  </si>
-  <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/w4ivkawoqq</t>
-  </si>
-  <si>
-    <t>@voiceoffranky prediction: japan *will* cancel the olympics. the nhl *will* cancel the rest of the season. etc., etc.</t>
-  </si>
-  <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help - sports - the jakarta post https://t.co/dubhsxwg3r</t>
-  </si>
-  <si>
-    <t>rt @olympics: #16 top olympic video of 2019 - when you lose, experience is the reward. https://t.co/mlawm82yow</t>
-  </si>
-  <si>
-    <t>rt @el_migiurtini: the reer miyi high-jump olympics. the winner gets 55 head of camel. https://t.co/pipirj92mz</t>
+    <t>@cquilty52 just wait and see how high its testosterone levels are permitted to be when it competes as a woman in the olympics.</t>
+  </si>
+  <si>
+    <t>times square or speakers corner -mobility s restricted for anaerobic, aerobic alike - prioritise communication (alliance media group clear channel ratp (stif-minus355mlds, sncf grande paris profits 2.9mlds€?) france jeux l'olympics!</t>
+  </si>
+  <si>
+    <t>rt @sportstarweb: 🌟#internationalwomensday | she might just bring 🇮🇳 its first olympic 🥇 in weightlifting. such is the legacy of
+@mirabai_c…</t>
+  </si>
+  <si>
+    <t>rt @jkylebass: sun yang, the chinese communist party’s national hero, found guilty. the cultural differentials between the west and the chi…</t>
+  </si>
+  <si>
+    <t>@kacyburdette one that involved asia travel already. and i have a bad feeling about the olympics this summer...</t>
+  </si>
+  <si>
+    <t>@7newsmelbourne do you want this neutralise the coronavirus, i’ll tell you this everyone entire population of australia and tasmania, should go under lockdown for 15 days, don’t worry about the economy, this is people’s lives including myself, for the olympics don’t go.</t>
+  </si>
+  <si>
+    <t>@kadavulnaan americans made obama as president, and 90 of the sports team is black and reason why they are great in olympics...
+whereas in india incompetent பாப்பான் ruining everything ....</t>
+  </si>
+  <si>
+    <t>the allen special olympics delegation (delegation)  22nd annual ‘special angels among us’ auction and dinner, held on feb. 15, raised $60k for its athletes. https://t.co/pwgcc1pddj</t>
+  </si>
+  <si>
+    <t>i read somewhere that prefectures are offering daily wages to freelancers who are affected by the coronavirus but that should be the government’s responsibility. cancel the olympics right now and we’d have way more money to spend on dealing with this</t>
+  </si>
+  <si>
+    <t>rt @sarahsmendez: hatch reading olympics 2020! so proud of our readers!#hatchtigers #weared97 https://t.co/ohgnyjucuz</t>
+  </si>
+  <si>
+    <t>makes you wonder what they are they gonna do with the olympics. #athletes #virus</t>
+  </si>
+  <si>
+    <t>'you just don’t postpone something on the size and scale of the olympics' https://t.co/pjimuzknoi</t>
+  </si>
+  <si>
+    <t>q89:    mislaid details about head of olympics being quarantined (8)</t>
+  </si>
+  <si>
+    <t>rt @onthegocbc: we open the show today with nl's big curling win. we'll hear from the skipper himself and then i'll talk with the second mo…</t>
+  </si>
+  <si>
+    <t>rt @media_sai: vikas in final, to fight for gold!
+#topsathlete @officialvkyadav beats #2 seed ablaikhan zhussopov to reach the final in men…</t>
+  </si>
+  <si>
+    <t>rt @skatingpooh: i looked through all the sports events in this article (updated 4 hours ago), ~65 postponed, ~71 cancelled, ~64 special ar…</t>
+  </si>
+  <si>
+    <t>rt @jakpost: indonesia considers 2032 olympics bid for new capital city with softbank's help #jakpost https://t.co/p9x3k4ryga</t>
+  </si>
+  <si>
+    <t>rt @tokyo2020: 5️⃣ minutes 5️⃣5️⃣kinetic sport pictograms
+#rt and let us know which one is your favourite in the comments below! 👇
+anothe…</t>
+  </si>
+  <si>
+    <t>rt @sportsgriduk: tentacles of olympic cancellation due to coronavirus would reach around globe https://t.co/5uxiirfbka https://t.co/zkrwkm…</t>
+  </si>
+  <si>
+    <t>indian #hockey team striker mandeep singh says they are looking forward to winning a medal at the upcoming tokyo olympic games https://t.co/pqlh2vyfpc</t>
+  </si>
+  <si>
+    <t>@samsbabyx it's all gonna go.. euros, olympics.. 2020 is done</t>
+  </si>
+  <si>
+    <t>rt @greenpeace: since the 2011 tsunami that triggered the #fukushima nuclear accident, japan has carried out decontamination operations and…</t>
+  </si>
+  <si>
+    <t>much praise from @mairigougeon for @scottishchefs &amp;amp; its culinary team’s success at the recent culinary olympics in stuttgart #cogclovehospitality https://t.co/w4fib0b8o1</t>
+  </si>
+  <si>
+    <t>cancellation of tokyo olympics will affect every corner of the globe much like the coronavirus https://t.co/pg6ysnlzsd</t>
+  </si>
+  <si>
+    <t>it has never not been an issue olympics, be damned.
+the pacific ocean is dead.
+i've just returned from the philippines, where i refused to swim in it, or eat seafood from it. https://t.co/k8b50bopcc</t>
+  </si>
+  <si>
+    <t>@morg007 wait until the olympics when we all become experts in race walk and skateboarding</t>
+  </si>
+  <si>
+    <t>great olympics captain gladson awako tips club to beat relegation https://t.co/klobdjatfj https://t.co/filunmsnl4</t>
+  </si>
+  <si>
+    <t>with the @tokyo2020 olympics just around the corner, lingerie brand @themissap has enlisted four international athletes for its ss20 campaign, #weplaytowin.
+ https://t.co/8r0tyc4joy</t>
+  </si>
+  <si>
+    <t>rt @tokyo2020: for the first time in games history, #tokyo2020 has created kinetic sport pictograms!  
+#tokyo2020 has created the first an…</t>
+  </si>
+  <si>
+    <t>signing up for the winter olympics! https://t.co/grxxfdmujk</t>
+  </si>
+  <si>
+    <t>rt @theeconomist: the olympic village would be a petri dish for the disease https://t.co/co1aumrppd</t>
+  </si>
+  <si>
+    <t>the olympics about to be cancelled. nutsssss.</t>
+  </si>
+  <si>
+    <t>five jordanian boxers qualify for tokyo 2020 olympics
+https://t.co/mmmg5vrgtp https://t.co/8ihx5accrp</t>
+  </si>
+  <si>
+    <t>i wonder when year of the sex olympics will have a special edition dvd or blu ray with remastered, colour recovered and vidfired picture?</t>
+  </si>
+  <si>
+    <t>jordan: mary kom and world no. 1 amit panghal were among three indian boxers who secured olympic berths after winning the asia/oceania olympic qualifiers on monday in amman, jordan.
+#olympics #tokyoolympics #marykom #amitpanghal #jordan #mangonews https://t.co/tn3xgercb6</t>
+  </si>
+  <si>
+    <t>leading up to #tokyo2020, here is a wonderful historical journey through the summer olympics with @ap_images. so worth a browse, amazing pictures and incredible moments.
+#olympics #sportsphotos
+https://t.co/vjchfab2vn</t>
+  </si>
+  <si>
+    <t>rt @greenpeace: “chances of adverse health effects are very, very low, but you cannot deny the risk…you shouldn't just say there's no probl…</t>
+  </si>
+  <si>
+    <t>@mellychaps u make a good point.
+never my favourite commentator - it was always much too much about him - but he had his moments, not least at 2000 olympics and redgrave's 5th gold
+media rubbish at handling these 'time to retire' moments though.  useless, inadequate editors and managers</t>
+  </si>
+  <si>
+    <t>rt @whopottervian: another show?
+at this rate, rylan clark-neal will even be hosting the olympics come the summer... https://t.co/che0vlyb…</t>
+  </si>
+  <si>
+    <t>@washtimes i think it would be a huge tragedy is the tokyo games were canceled. the olympics is a time when all countries come together and show the pride of their own countries. america especially needs this now…</t>
   </si>
   <si>
     <t>rt @bfi_official: mission accomplished!💪🏻
 miles to go as focus  shifts to  strategising the #olympic journey for @boxerpanghal  as he goes…</t>
   </si>
   <si>
-    <t>rt @cyanparade: look you are privileged af and no one is going to punch you to death for being a cis straight male you can stop your oppres…</t>
-  </si>
-  <si>
-    <t>rt @yurikageyama: the losers if the olympics get canceled ~ a good @ap story by my tokyo colleague and sports writer @stephenwadeap 
-https:…</t>
-  </si>
-  <si>
-    <t>lcpl ritchie godden from @4_rifles has represented the army as part of the combined services culinary arts team at the culinary olympics. the team came away with 🥈 and 🥉 medals, a fantastic result proving that our soldiers can compete with the best in the world! https://t.co/ax9d5sxohf</t>
-  </si>
-  <si>
-    <t>going to be really interesting to see how they restructure after this. also, if the olympics were to be rescheduled (more likely to be cancelled) they’d probably take place in october, which is where they moved the g1. https://t.co/bf8bk8akci</t>
-  </si>
-  <si>
-    <t>olympics qualifier: carlo paalam, irish magno relegated to boxoffs | @nickspeaks 
-https://t.co/u2f3zztzuo</t>
-  </si>
-  <si>
-    <t>a. 2020 olympics pictograms (nice?) b. this video to launch them (wut?) 
-https://t.co/ze5rj6jus2</t>
-  </si>
-  <si>
-    <t>tokyo 2020 has been dealt its first significant blow
-https://t.co/tjtoj5h0m7</t>
-  </si>
-  <si>
-    <t>rt @bwfmedia: .@momota_kento 🇯🇵 addressed media for the first time since his accident earlier this year. find out what he had to say 👇
-#ro…</t>
-  </si>
-  <si>
-    <t>@andywigmore @lisanandy @uklabour @piersmorgan @gmb spot on
-and then she had the temerity to as piers to apologise 
-deluded....
-try asking her to condemn muslim grooming gangs 
-she is in denial over that as well.
-cant wait for usain bolt to win womens 100mtrs at the olympics</t>
-  </si>
-  <si>
-    <t>tuesday at cheltenham rite up there with anything in sport!! the equine olympics begins and @itvracing the opening show has just gave me goosebumps 🐎🐎🐎 few winners on day 1 would be lovely</t>
-  </si>
-  <si>
-    <t>@morg007 wait until the olympics when we all become experts in race walk and skateboarding</t>
-  </si>
-  <si>
-    <t>with the @tokyo2020 olympics just around the corner, lingerie brand @themissap has enlisted four international athletes for its ss20 campaign, #weplaytowin.
- https://t.co/8r0tyc4joy</t>
-  </si>
-  <si>
-    <t>the olympics are a colossal waste of time and resources, they should be cancelled. https://t.co/i4mtihklmm</t>
-  </si>
-  <si>
-    <t>can't wait!! https://t.co/iv3u5torlu</t>
-  </si>
-  <si>
-    <t>indonesia's public works minister comments on our story to say he is optimistic indonesia can host the olympics.  "god willing, by 2032, the new capital will be 15 years old" https://t.co/oltd6zhyk1 https://t.co/6gqsq63izh</t>
-  </si>
-  <si>
-    <t>rt @cinnaminsonhs: chs physics olympics team finished in third place overall for the year in southeastern pennsylvania physics olympics lea…</t>
-  </si>
-  <si>
-    <t>rt @bbcsportwales: 🚣‍♀️ @vickythornleygb is aiming to make her third olympics this year. 
-after a silver in the double sculls at rio she's…</t>
-  </si>
-  <si>
-    <t>@kellyring @cecsimpson @libselfowns @raheemkassam i’m not frail in any way. i coach a special olympics program. one of the goals of special olympics is educating people about the harm of using of the “r” word as an insult. anyone who in 2020 chooses to use is not someone i need to interact with on twitter.</t>
-  </si>
-  <si>
-    <t>in 2002 i very nearly got a film with the bbc about mary kom - india’s greatest boxer - off the ground. she has just qualified for another olympics. this woman is a marvel.</t>
-  </si>
-  <si>
-    <t>jordan: mary kom and world no. 1 amit panghal were among three indian boxers who secured olympic berths after winning the asia/oceania olympic qualifiers on monday in amman, jordan.
-#olympics #tokyoolympics #marykom #amitpanghal #jordan #mangonews https://t.co/tn3xgercb6</t>
-  </si>
-  <si>
-    <t>having sealed tokyo olympics berths, amit panghal and lovlina borgohain finished the asian qualifiers with bronze medals | #boxing #tokyo2020 https://t.co/8enijayv8w</t>
-  </si>
-  <si>
-    <t>#india hails #marykom as boxer makes #olympics cut again #boxing #tokyo2020 @gulf_news
-https://t.co/rgnrxbq8jj</t>
-  </si>
-  <si>
-    <t>@g3rtm yeah, but imo, he should have retired as soon as he got that citizenship. his insistence on surviving  for the olympics erodes his reputation considerably.</t>
-  </si>
-  <si>
-    <t>@asmonacoenglish inorder to build a team that would be the future it is to send scouts to the olympics to scout good players and also do not overlook african player they are good and less money to buy them</t>
-  </si>
-  <si>
-    <t>greece’s olympic committee announced monday that no spectators will be allowed at the tokyo 2020 olympics torch lighting ceremony in ancient olympia on thursday due to the coronavirus outbreak.
-#coronavirus</t>
-  </si>
-  <si>
-    <t>@redbullgaming redbull olympics simulator 2069</t>
-  </si>
-  <si>
-    <t>rt @kevin10tv: fans barred from tokyo 2020 torch ceremony - via @espn app https://t.co/8yjt5q75wl</t>
-  </si>
-  <si>
-    <t>rt @tokyo2020: for the first time in games history, #tokyo2020 has created kinetic sport pictograms!  
-#tokyo2020 has created the first an…</t>
-  </si>
-  <si>
-    <t>rt @washwizards: an amazing night at our eighth annual special olympics unified game!
-📸 | https://t.co/6svpdnwa44 https://t.co/jrp7tsvbvc</t>
-  </si>
-  <si>
-    <t>despite recent travails, softbank isn't finished with sport https://t.co/ge6dpfx4mj mega-events, new cities, digital technology, links to gulf region - this is right in the middle of masayoshi son's territory. suspect saudi arabia may also be involved (see reference to abu dhabi)</t>
+    <t>rt @cbcnl: delayed gratification: brad gushue went to the brier 13 times, and didn't win. #teamgushue is on a roll, winning 3 of the last 4…</t>
+  </si>
+  <si>
+    <t>@obynofranc sufferhead olympics for trash medal 😭 https://t.co/bsuacc6nxo</t>
+  </si>
+  <si>
+    <t>rt @philipptionary: team philippines update: three filipinos have qualified to the olympics. 
+• caloy yulo (gymnastics)
+• ej obiena (pole…</t>
+  </si>
+  <si>
+    <t>7 years ago before @wep_uk existed i was on the royal festival hall stage with @sanditoksvig &amp;amp; @2012drummers &amp;amp; @helenpankhurst olympic suffragettes celebrating the achievements of women in sport following the success of the london 2012 olympics. https://t.co/ske1yeb5cj</t>
+  </si>
+  <si>
+    <t>rt @thatcarr: @dotkohlhaas i am waiting for the picture that comes from these puzzle pieces: john lee + dwp union campaign support + ratepa…</t>
+  </si>
+  <si>
+    <t>rt @hanguangjunes: was just looking through weibo and realised wyb and xz are both spokespersons for the 2022 winter olympics??!? https://t…</t>
+  </si>
+  <si>
+    <t>rt @creepingsharia: california: grandson of islamic terrorist wins democratic primary election
+#democrat ammar campa-najjar referred to hi…</t>
+  </si>
+  <si>
+    <t>fukushima dreams: a baseball star, a father and their shattered town | article [amp] | reuters https://t.co/rlmh1gpn9k</t>
+  </si>
+  <si>
+    <t>2. 
+i remember about 25 years ago the president of the @nsenigeria, late mko abiola chaired the fund raising event for the @olympics games. the #nsf2020 is an important event and as such nigerian organisations should lend their support to its success. https://t.co/eers6ecosz</t>
+  </si>
+  <si>
+    <t>i ran into this dark room and he followed me he said if i didnt sing olympics he was gonna fuck me raw. i started screaming hes gonna give me hiv then i woke up to a dream within the dream.  my mom was there talking about “you have hiv??” and the. i woke up for real</t>
+  </si>
+  <si>
+    <t>@kirenrijiju @vikrantgupta73 @boxerpanghal @tokyo2020 but where are the olympics? i dont think they will happen this year</t>
+  </si>
+  <si>
+    <t>rt @mb_mollissima: @samizstat @alessandrostru4 the govt believes they can avoid olympics cancellation by neglecting tests (and keeping the…</t>
+  </si>
+  <si>
+    <t>@sim_heard1 i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
+  </si>
+  <si>
+    <t>rt @ceo_sogb: so delighted to see @specialolympics ceo @marydavisso in the top 10 most influential women in sport 2020. thank you @isportco…</t>
+  </si>
+  <si>
+    <t>rt @ptushaofficial: quality conversation and discussion with hon. sports minister @kirenrijiju ji at his office today. discussed about the…</t>
+  </si>
+  <si>
+    <t>the only way to see it in the olympics year! the monument to tennis comics is back in 47 years! quotes that hit the hearts of hiromi oka, mrs. butterfly and coach munekata are “aiming for ace! ] a total of three volumes will be pu… https://t.co/nhf5elmq4k https://t.co/9hr6fqmczi</t>
   </si>
   <si>
     <t>people on here trying to make it the struggle olympics claiming their group have had it harder when in fact both of these groups have been through a similar amount of shit and both deserve a win. orbits and universe wasting their energy fighting each other on here</t>
   </si>
   <si>
-    <t>rt @shikokusue: fukushima dreams: a baseball star, a father and their shattered town https://t.co/rmpwjdzhi7</t>
-  </si>
-  <si>
-    <t>the corona virus on the verge of totally messing up the activities on the 2020 calendar, many of the pre-olympic tournaments are being cancelled or postponed but the ioc are hellbent on going ahead with the olympics.</t>
-  </si>
-  <si>
-    <t>rt @realleoglover32: @mykaylaskinner @mykaylaskinner "the blue canary" is going to dominate the 2020 olympics!🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥 https:…</t>
-  </si>
-  <si>
-    <t>hope for the olympics yet? https://t.co/bsw4u1zhlq</t>
-  </si>
-  <si>
-    <t>only one more week until the cook olympics. only one more week to suffer through these posts my friends. 🔥@5garrettl doing his thing! 
-exercise today; somehow, someway. 
-#cp2020olympics https://t.co/vkftxex22c</t>
-  </si>
-  <si>
-    <t>rt @mrdanwalker: remember the wonderful maria from copacobana during the rio olympics?  
-she came on @bbcsport on her hen night, we got a w…</t>
-  </si>
-  <si>
-    <t>rt @newday: japan’s infection rate is under scrutiny as coronavirus casts a shadow over the upcoming summer olympics.
-“japanese epidemiolog…</t>
-  </si>
-  <si>
-    <t>rt @india_allsports: breaking news: 
-pooja rani becomes 1st indian boxer to qualify for tokyo olympics; enter semis of asia/oceania qualifi…</t>
-  </si>
-  <si>
-    <t>rt @inquirersports: world champion nesthy petecio apologized tuesday for failing to meet the expectations of an entire nation hoping to see…</t>
-  </si>
-  <si>
-    <t>just watched lisa nandy on gmb this morning &amp;amp; i have to agree with piers morgan, anyone that thinks allowing someone like usain bolt to declare as female and compete in the women’s races at the olympics is right is quite simply a raving lunatic not fit to be an mp.</t>
-  </si>
-  <si>
-    <t>this is a fascinating development. private investment from outside the country in an olympics bid. what's the end goal for softbank? https://t.co/ottgmxilkm</t>
+    <t>11-year-old syrian table tennis player hend zaza qualifies for olympics https://t.co/wlzi0qnukd https://t.co/kdj9zij35t</t>
+  </si>
+  <si>
+    <t>sensible, nice, caring me: i hope everyone is well prepared in case corona virus gets worse and has everything they need. i'd better keep check on grandma.
+selfish, honest me: please don't let them cancel the olympics! i love the olympics, i'll cry if they cancel the olympics!</t>
+  </si>
+  <si>
+    <t>rt @insidethegames: former #boa and #worldsailing chief executive #andyhunt to lead new sport safety group https://t.co/dgtv0e0xvn @teamgb…</t>
   </si>
   <si>
     <t>indonesia plans 2032 olympics bid for new capital with softbank's backing
@@ -216,41 +311,181 @@
 https://t.co/lojj8vh1e8</t>
   </si>
   <si>
-    <t>rt @reuters: australian swimming great ian thorpe said athletes should not put their olympic dreams before their health in deciding whether…</t>
-  </si>
-  <si>
-    <t>rt @apoloohno: 2 the queen of the ice @michellewkwan - i’ve known you 4 such a long time-we’ve always loved u! you inspire millions!❤️🙏💪🙌🏽…</t>
+    <t>‘that’s why i hang out with white people, so i’m the least privileged there. i lose the privilege olympics every time’</t>
+  </si>
+  <si>
+    <t>rt @nbc4sports: the #mystics and #wizards teamed up with special olympics of d.c. and virginia for a unified basketball game at dunbar high…</t>
+  </si>
+  <si>
+    <t>wider image-olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/n7vme66v9o</t>
+  </si>
+  <si>
+    <t>rt @themainichi: boxing: tsukimi namiki, sena irie become 1st japanese women to qualify for olympics 
+ https://t.co/aflhtd4dkz</t>
+  </si>
+  <si>
+    <t>rt @gablooie: @mattbakerfans @bbccountryfile @bbcone @olympics @nestle @rspca_official @missalexjones @cbbc can you help?!??</t>
+  </si>
+  <si>
+    <t>and my cereal tbh. i can make coco pops for olympics 👨‍🍳</t>
+  </si>
+  <si>
+    <t>@bagtrick @bbc5live @emmabarnett i turned the victoria derbyshire programme off as yet again it was a woman centric show as usual. the feminists like the lefties are competing in the oppression olympics.</t>
+  </si>
+  <si>
+    <t>rt @ossianshine: exclusive: as #tokyo2020 scrabbles to keep its #coronavirus hit games on track, indonesia's president weighs a 2032 #olymp…</t>
+  </si>
+  <si>
+    <t>rt @africancurators: greece’s olympic committee announced monday that no spectators will be allowed at the tokyo 2020 olympics torch lighti…</t>
+  </si>
+  <si>
+    <t>rt @pompeyhistory: #otd in 1956 a e (arthur) knight, #pompey's former left back and captain, died at his home in southsea, aged 68.
+arthur…</t>
+  </si>
+  <si>
+    <t>@miedemastuff i also read it. this is do sad 😢 i really want her to be playing at the olympics. especially for herself bc she wants it so badly. and for us, ofc, but even more for her ❤️</t>
+  </si>
+  <si>
+    <t>rt @reuters: from the tokyo 2020 olympics torch lighting ceremony to the bahrain formula one grand prix, a range of global sporting events…</t>
+  </si>
+  <si>
+    <t>@legion10142 @fcbarcelona @championsleague well. if the concern is about corona virus and human life, postponing a game is the right way to do it. ucl is not bigger than olympics</t>
+  </si>
+  <si>
+    <t>in 1950, a group of scientists proposed a sort of "science olympics" in which nations of the world would embark on ambitious experiments and share results openly and in the spirit of friendship.
+https://t.co/fzfvqrepbj</t>
+  </si>
+  <si>
+    <t>@clairlemon @adelaidemoore they’re not canceling the olympics</t>
+  </si>
+  <si>
+    <t>rt @bopinion: the zika virus scared the 2016 olympic games in rio, while sars rattled athens in 2004. now coronavirus might cancel the 2020…</t>
   </si>
   <si>
     <t>learn more about #azerbaijan #country #codes #iso codes #internet #calling codes #currency #olympics #vehicle
 https://t.co/xroa2ixshf</t>
   </si>
   <si>
-    <t>rt @rover829: tokyo, march 3 (reuters) - tokyo's contract with the international olympic committee (ioc) allows it to postpone the games un…</t>
-  </si>
-  <si>
-    <t>rt @megschuster: brian phillips, everyone https://t.co/3h5mg8ncvl</t>
-  </si>
-  <si>
-    <t>@picardybreezer couldn’t give two about the olympics to be fair but hope they don’t touch the euros, just want get on holiday in april then it can do what it wants 😂</t>
+    <t>#india hails #marykom as boxer makes #olympics cut again #boxing #tokyo2020 @gulf_news
+https://t.co/rgnrxbq8jj</t>
+  </si>
+  <si>
+    <t>latest news from our live coverage of olympics confirms protests. more updates to follow.</t>
+  </si>
+  <si>
+    <t>look you are privileged af and no one is going to punch you to death for being a cis straight male you can stop your oppression  olympics now thanks</t>
+  </si>
+  <si>
+    <t>@brexithead @davidjobrexit trying to save and not postpone the olympics</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/5trrkghwsj via @satankmkr</t>
+  </si>
+  <si>
+    <t>rt @folarinis: a monarch was just deposed for being too outspoken and how do we react? oba olympics. fantastic</t>
+  </si>
+  <si>
+    <t>rt @newsy: london says it could host the 2020 #olympics if coronavirus forces a move. london mayoral candidate shaun bailey said the city a…</t>
+  </si>
+  <si>
+    <t>@newscomauhq us aussies love to get on the scoreboard of anything "big" like this. we can't have china beating us at #coronavirus ? we want to win the road toll , the cricket , the world cup , the olympics . we got this 👍</t>
+  </si>
+  <si>
+    <t>2d - new super mario bros wii
+3d - galaxy/odyssey
+rpg – ttyd
+kart – 7
+sports - 2012 olympics lmao
+party – never played
+other – what https://t.co/bw9u0m5cp9</t>
+  </si>
+  <si>
+    <t>they didn’t cancel the last olympics for zinca or whatever it was and that was a pandemic as well apparently. they didn’t do the same for sars or ebola. why would they do it now. it’s beyond hysteria now it’s  ridiculous</t>
+  </si>
+  <si>
+    <t>rt @vulture: organizers of the olympics are insisting the tokyo games will go on as planned this summer https://t.co/1kipitiffn</t>
+  </si>
+  <si>
+    <t>guide to tokyo 2020 olympics and paralympics
+#nagano2020
+#marathon
+#liveonline https://t.co/7n9pbuqiso</t>
+  </si>
+  <si>
+    <t>#japan has decided on an army of robots to improve accessibility at the #tokyoolympics? quelle surprise!
+https://t.co/nau62phd47 
+#techforgood https://t.co/xrocz1mme1</t>
+  </si>
+  <si>
+    <t>proceeds will go to the special olympics pennsylvania. https://t.co/depzl1hydn</t>
+  </si>
+  <si>
+    <t>rt @rijijuoffice: mary makes her mark, as  @mangtec qualifies for #tokyo2020 following a 5-0 win over irish magno in the quarterfinal of th…</t>
+  </si>
+  <si>
+    <t>rt @rexchapman: homeboy created his very own olympics and i’m dead...🤣😭💀 https://t.co/jzrncpsp4w</t>
+  </si>
+  <si>
+    <t>rt @bfi_official: simran "jeet"
+hear the emotional @simranjitboxer talk about her win and dedications. 
+#punchmeinhaidum
+#boxing
+#olympics…</t>
+  </si>
+  <si>
+    <t>a lot of people stand to lose if olympics are canceled by coronavirus https://t.co/krdinaa82l https://t.co/utbxp8mhea</t>
+  </si>
+  <si>
+    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics https://t.co/hrc4hv4ix7</t>
+  </si>
+  <si>
+    <t>rt @andymadaki: had to warn my boxing coach today, that i’m not the one going to olympics. as they want to kill somebody. biko i have work…</t>
+  </si>
+  <si>
+    <t>rt @robertalanward: eyewatering downgrade to japan q4 gdp: from -6.3% to -7.1%. brace for grim q1 too on coronavirus impact. full-yr 2020 j…</t>
+  </si>
+  <si>
+    <t>new indonesian borneo-based capital to be a bidding city for 2032 olympics backed by softbank? 
+https://t.co/ixccwpesf4</t>
+  </si>
+  <si>
+    <t>rt @zimmorningpost_: #coronavirus  olympics torch lighting ceremony will be closed to the public because of coronavirus
+https://t.co/pvv4l…</t>
+  </si>
+  <si>
+    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/1yyfc3otna https://t.co/yzi9atjrp3</t>
   </si>
   <si>
     <t>rt @olympics: amazing wrestling moves. 😱 🤼‍♀️🤼‍♂️ @wrestling https://t.co/ejlha0h6ky</t>
   </si>
   <si>
-    <t>@7newsmelbourne do you want this neutralise the coronavirus, i’ll tell you this everyone entire population of australia and tasmania, should go under lockdown for 15 days, don’t worry about the economy, this is people’s lives including myself, for the olympics don’t go.</t>
-  </si>
-  <si>
-    <t>@kacyburdette one that involved asia travel already. and i have a bad feeling about the olympics this summer...</t>
-  </si>
-  <si>
-    <t>rt @kirenrijiju: i'm extremely delighted to inform that our top seed boxer @boxerpanghal has qualified for the #tokyo2020 #olympics! he is…</t>
-  </si>
-  <si>
-    <t>satwik-chirag among favourites at tokyo olympics: doubles coach https://t.co/rwozgeea2b via @timesofindia</t>
-  </si>
-  <si>
-    <t>@fifaworldcup @fifacom @setoo9 @fecafootofficie so lame  fifa😒 one of africa’s all time greats and yet you talk about an oh “african olympics record” change your ways of acknowledging due credit. the man is one of the world’s all time greats.</t>
+    <t>thomas bach
+sport is good for health but it is not yoga. is there any con-dition to know olympics as super-imunes? many looks und-</t>
+  </si>
+  <si>
+    <t>rt @auschwitzmuseum: eva szekely dies at 92; survived #holocaust to win olympic gold | szekely, a hungarian jewish woman, became an olympic…</t>
+  </si>
+  <si>
+    <t>lovlina borgohain loses by 5-0 ud  to 2018 world silver medalist gong hu of china in the women's 69 kg sf of the asia-oceania olympic qualifiers.both boxers had already qualified for the olympics though.</t>
+  </si>
+  <si>
+    <t>rt @kazerjoshuaa: #nspc2017-pagadian, zamboanga del sur
+#nspc2018-dumaguete, negros oriental
+#nspc2019-lingayen, pangasinan
+#nspc2020-tugue…</t>
+  </si>
+  <si>
+    <t>@toyotasa @pieterb_sa this is awesome! congrats. not sure about the olympics though... 🙈 #covid2019 #coronamustfall</t>
+  </si>
+  <si>
+    <t>rt @fitbharat: incredible &amp;amp; super talented !
+this boy did 30 somersaults in one go💪🤗there is abundance of natural talent in our country.we…</t>
+  </si>
+  <si>
+    <t>nike lebron 17 readies for olympics with "red/white/blue" colorway https://t.co/o36wg8xsl9 https://t.co/u8pha6g9zc</t>
+  </si>
+  <si>
+    <t>2019/20 ghana premier league: week 14 match preview- hearts of oak vs great olympics https://t.co/ijkrgung6v https://t.co/xthjddyyw5</t>
   </si>
   <si>
     <t>mission accomplished!💪🏻
@@ -260,375 +495,51 @@
 #roadtotokyo2020 https://t.co/mkl2dopc02</t>
   </si>
   <si>
-    <t>the allen special olympics delegation (delegation)  22nd annual ‘special angels among us’ auction and dinner, held on feb. 15, raised $60k for its athletes. https://t.co/ebyux43xgz</t>
-  </si>
-  <si>
-    <t>@serafinavitia @kingcozi @benjaminpdixon are people trying to pretend dime store hillary
-is "blacker than the clintons"?
-joe would lose the handful of states hillary barely won.
-she " was the most blah blah candidate in the history of"
-&amp;amp; moderates are propping up joe like it's the olympics .</t>
-  </si>
-  <si>
-    <t>rt @rouut: indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/1yyfc3otna https:/…</t>
-  </si>
-  <si>
-    <t>7 years ago before @wep_uk existed i was on the royal festival hall stage with @sanditoksvig &amp;amp; @2012drummers &amp;amp; @helenpankhurst olympic suffragettes celebrating the achievements of women in sport following the success of the london 2012 olympics. https://t.co/ske1yeb5cj</t>
-  </si>
-  <si>
-    <t>just in: 
-lovlina borgohain, who had already qualified for tokyo olympics, goes down to reigning asian champion by unanimous verdict 0:5 in semis (69kg) of asia/oceania qualifier. 
-ps: its going to be maiden olympics for the 22 yr old. https://t.co/2cwilhb3x1</t>
-  </si>
-  <si>
-    <t>rt @reuters: #tokyo2020 baseball and softball games will be held in fukushima, which suffered nuclear meltdowns in 2011. organizers hope th…</t>
-  </si>
-  <si>
-    <t>rt @kirenrijiju: a great day for india as #ashishkumar becomes the fourth indian boxer to qualify for the #tokyo2020 #olympics. what a prou…</t>
-  </si>
-  <si>
-    <t>rt @washwizards: halftime at special olympics turned into a dance party feat. @johnwall 😂🕺
-#respect | #wizcares https://t.co/mws5g5avqh</t>
-  </si>
-  <si>
-    <t>the international olympic committee and local organizers say the games are on, but the clock is ticking!
-#tokyoolympics 
-#tokyo2020
-#coronavirus
-https://t.co/ophzzqf6ng</t>
-  </si>
-  <si>
-    <t>@mellychaps u make a good point.
-never my favourite commentator - it was always much too much about him - but he had his moments, not least at 2000 olympics and redgrave's 5th gold
-media rubbish at handling these 'time to retire' moments though.  useless, inadequate editors and managers</t>
-  </si>
-  <si>
-    <t>rt @sinow: the usa's men's olympic qualifying squad is out.
-here's who is tasked with trying to send the u.s. u-23s to the olympics for th…</t>
-  </si>
-  <si>
-    <t>now playing, the olympics — i'll do a little bit more from dr. boogie presents wasa wasa- fabulous rhythm 'n' blues shakers on the dancefloor! 195 #music #</t>
-  </si>
-  <si>
-    <t>he fought the 2018 commonwealth bronze medallist up first (fiji-also fight above) and dominated. second fight was a not so easy win but a convincing one. he only had one more fight in his way to get himself to tokyo olympics, but fell short.</t>
-  </si>
-  <si>
-    <t>a lot of people stand to lose if olympics are canceled by coronavirus https://t.co/krdinaa82l https://t.co/utbxp8mhea</t>
-  </si>
-  <si>
-    <t>"olympics or not, japan wheelchair dancer has message: diversity is cool" by reuters via nyt https://t.co/cpmrvklnth #disabilityinthenews</t>
-  </si>
-  <si>
-    <t>@brexithead @davidjobrexit trying to save and not postpone the olympics</t>
-  </si>
-  <si>
-    <t>rt @stewieeskridge2: fuck the olympics i wanna see crackheads vs. mailmen race</t>
-  </si>
-  <si>
-    <t>rt @ibrahim_id: how do you propose an olympic host city that doesn't even exist yet??? |
-indonesia considers 2032 olympics bid for new capi…</t>
-  </si>
-  <si>
-    <t>rt @bigbrainsimpson: malvin greston whitfield was an athlete, goodwill ambassador, and airman. nicknamed "marvelous mal", he was the olympi…</t>
-  </si>
-  <si>
-    <t>the tokyo 2020 olympic torch lighting ceremony at the site of ancient olympia will be staged without spectators on thursday in order to prevent the spread of the coronavirus, greece's olympic committee says. https://t.co/rwjzrgkliz</t>
-  </si>
-  <si>
-    <t>thomas bach, president of the international olympic committee, said last week that plans were continuing for the @olympics to go on as scheduled. #covid19 
-https://t.co/aygqkbd7f2</t>
+    <t>curling considers 'radical' new rules to preserve tradition and speed up games https://t.co/eju0zg2eok</t>
+  </si>
+  <si>
+    <t>@stevie2012sm crying out loud, tyson fury will not fight again after his bout with anthony joshua. i wished you could have been at the olympics boxing tournament for you to be given a gold medal for fun. get a job and get a life.</t>
   </si>
   <si>
     <t>new post (tokyo olympics | we look forward to winning a medal, says mandeep singh) has been published on apzweb - https://t.co/0dfiv0bmzw</t>
   </si>
   <si>
-    <t>rt @creepingsharia: california: grandson of islamic terrorist wins democratic primary election
-#democrat ammar campa-najjar referred to hi…</t>
-  </si>
-  <si>
-    <t>@mitchellvii retry bedroom olympics.</t>
-  </si>
-  <si>
-    <t>@gerardhimself @thastock @timbontemps @stevekoonin also, it would kill all the nba summer programs for kids, people on vacation....baseball has 1000 games so no one cares if they miss a few in the summer..olympics....world cup....mist remember its a. international game</t>
-  </si>
-  <si>
-    <t>rt @rapplersports: chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athle…</t>
-  </si>
-  <si>
-    <t>@giltron2 @politico personally, i think this was because of the fact we have an olympics every 2 years.</t>
-  </si>
-  <si>
-    <t>@rachelinla_ @huaweimobile @huaweimobileksa @huaweiarabia they are saying that this virus can't survive in heat and during summer or still be over. so let's hope for the best... i heard they ate planning to change the dates of olympics and move out to around september</t>
-  </si>
-  <si>
-    <t>japan's 2011 fukushima nuclear disaster marked a turning point for this father and son: for one it was the end of the life he knew, for the other it was a beginning https://t.co/w0yj8zvnh0 by @saitomri #tokyo2020 https://t.co/sezygppwog</t>
-  </si>
-  <si>
-    <t>rt @jonrest: this is a fascinating development. private investment from outside the country in an olympics bid. what's the end goal for sof…</t>
-  </si>
-  <si>
-    <t>rt @india_allsports: asia/oceania boxing qualifier: indian boxers' status: 
-4 out of 8 male boxers have qualified for tokyo olympics (amit…</t>
-  </si>
-  <si>
-    <t>the allen special olympics delegation (delegation)  22nd annual ‘special angels among us’ auction and dinner, held on feb. 15, raised $60k for its athletes. https://t.co/pwgcc1pddj</t>
-  </si>
-  <si>
-    <t>@starlingbank, which is based in britain, has been announced as the official banking partner of @teamgb for the tokyo 2020 @olympics games.
-read more here: https://t.co/gl6c62jnht
-#fintech #olympics #starlingbank #neobank #digitalbank #challengerbank #banking #bankingindustry https://t.co/igpgz1zzol</t>
-  </si>
-  <si>
-    <t>chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athletes to their olympic qualifiers. #coronavirus #ncov https://t.co/li7i4ymnc6</t>
-  </si>
-  <si>
-    <t>rt @ddnewslive: eight indian boxers including london olympics bronze medalist mc #marykom qualify for upcoming #tokyoolympics, with this in…</t>
-  </si>
-  <si>
-    <t>rt @justsportstweet: olympic flame lighting ceremony to be held without spectators https://t.co/mqzbdcyedc via @nbcolympictalk</t>
-  </si>
-  <si>
-    <t>rt @theeconomist: the olympic village would be a petri dish for the disease https://t.co/co1aumrppd</t>
-  </si>
-  <si>
-    <t>rt @ani: mc mary kom defeats philippines boxer irish magno 5-0 to secure tokyo olympics berth by entering semifinals of asian qualifiers in…</t>
-  </si>
-  <si>
-    <t>rt @iain_mk2: @millsdonnamarie @jasonvanschoor do you know what the current death rate is in japan? no, neither do i. you'd need to know th…</t>
-  </si>
-  <si>
-    <t>great olympics taunts hearts of oak ahead of 'accra derby' https://t.co/75zndiw3ks</t>
-  </si>
-  <si>
-    <t>#boxing 
-first up, lovlina borgohain will take on china's hong gu in her 69kg bout in the olympic qualifiers. she has already qualified for the olympics.</t>
-  </si>
-  <si>
-    <t>@worldrowing cancels world cups 1 &amp;amp; 2 due to be held in italy ahead of the olympics because of the virus outbreak</t>
-  </si>
-  <si>
-    <t>rt @ossianshine: exclusive: as #tokyo2020 scrabbles to keep its #coronavirus hit games on track, indonesia's president weighs a 2032 #olymp…</t>
-  </si>
-  <si>
-    <t>rt @fredkatz: john wall and gary payton ii among wizards helping out at a scrimmage between the dc special olympics team and the virginia o…</t>
-  </si>
-  <si>
-    <t>rt @vulture: organizers of the olympics are insisting the tokyo games will go on as planned this summer https://t.co/1kipitiffn</t>
-  </si>
-  <si>
-    <t>@markjhandley @alanpeery hardly any testing and suspicion of false numbers to try and keep the olympics in play.</t>
-  </si>
-  <si>
-    <t>olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/e2oqelrfxb https://t.co/qnxkd0dqfe</t>
-  </si>
-  <si>
-    <t>rt @xiaoqi101: rumor for super nova games 2020:
-japanese artist and popular olympics athletes will join.
-the champion team will go to tokyo…</t>
-  </si>
-  <si>
-    <t>shit go both ways and i’m committed to not participating in one sided events at this years dating olympics</t>
-  </si>
-  <si>
-    <t>rt @tokyo2020: relive the moment the #tokyo2020 g-satellite was launched into space! 🚀
-carrying mobile suite #gundam and char’s zaku, they…</t>
-  </si>
-  <si>
-    <t>#boxing 
-sunday: five olympic quotas
-monday: three olympic quotas 
-indian boxers have been in fine form in amman in the #tokyo2020 asia/oceania qualifiers. 
-read here: https://t.co/svhxcatov0</t>
-  </si>
-  <si>
-    <t>man, october is gonna pop off: #coachella, the #olympics, the euros, every city marathon, all the big global conferences, a stock market rebound, italian vacations. who needs grandparents when you're having that much fun?! #coronavirus</t>
+    <t>filipina boxer nesthy petecio won't be securing a spot in the 2020 tokyo olympics, after the reigning women's featherweight... https://t.co/2scefoauct</t>
   </si>
   <si>
     <t>rt @wsj: japan is trying to move past criticism of how it handled the diamond princess quarantine as it looks ahead to the tokyo 2020 olymp…</t>
   </si>
   <si>
-    <t>rt @reuters: exclusive: indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country’s not-yet-buil…</t>
-  </si>
-  <si>
-    <t>do you think the tokyo olympics can be held?
-#tokyo2020 #covid_19</t>
-  </si>
-  <si>
-    <t>@josephajao4 i'm in work now.! if those olympics were any were else other than london aj would not of got a medal. as for world title charles martin won his by default an sold it in 1st defense. he's a fraud .😁</t>
-  </si>
-  <si>
-    <t>quest for gold: olympics planning continues despite coronavirus concerns
- https://t.co/lefd6pzcho</t>
-  </si>
-  <si>
-    <t>tentacles of olympic cancellation due to coronavirus would reach around globe https://t.co/5uxiirfbka https://t.co/zkrwkmotuo</t>
-  </si>
-  <si>
-    <t>olympics torch lighting ceremony will be closed to the public because of coronavirus https://t.co/mhnachsafb https://t.co/bvtecnrbgo</t>
-  </si>
-  <si>
-    <t>rt @bfi_official: simran "jeet"
-hear the emotional @simranjitboxer talk about her win and dedications. 
-#punchmeinhaidum
-#boxing
-#olympics…</t>
-  </si>
-  <si>
-    <t>the #olympicgames may be moved or cancelled all together this year. that would be the first time in my lifetime i believe. i always look forward to the #olympics. it's so sad that it may not happen this time.
-#covid19 #coronavirus #olympicgames2020  
-#helios_44_2 #analogvibes https://t.co/qfdawsy3or</t>
-  </si>
-  <si>
-    <t>@_nigel___ happy birthday i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
-  </si>
-  <si>
-    <t>seems boxer justis huni has progressed to the final at the asian/oceania qualifiers (having already made the olympics). his semi-final opponent kunkabayev kamshybek is showing as disqualified. 
-any one know why?</t>
-  </si>
-  <si>
-    <t>rt @mr_mrschristmas: @piersmorgan @gmb i agree with piers, i’m not against transgenders, each to there own. we have female team, male teams…</t>
-  </si>
-  <si>
-    <t>@mrdanwalker @mariadecezar one of the stand-out moments from the rio olympics!</t>
-  </si>
-  <si>
-    <t>rt @reuters: before the fukushima disaster, iitate was recognized as one of the 'most beautiful villages in japan,' a designation that rema…</t>
-  </si>
-  <si>
-    <t>wider image-olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/n7vme66v9o</t>
-  </si>
-  <si>
-    <t>@crazynairobian bedminton olympics 🤔</t>
-  </si>
-  <si>
-    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics https://t.co/iw0gj6ikog</t>
-  </si>
-  <si>
-    <t>@bosnerdley @fiveohindahouse is she trying to do for the olympics what ""taking a knee" is doing for the nfl?</t>
-  </si>
-  <si>
-    <t>rt @nihonidolkassei: daily delivery, day 70🔥
-advertise aichi prefecture today✌️
-a project to support the tokyo olympics
-①tokyo olympic venu…</t>
-  </si>
-  <si>
-    <t>@djoats02 racist olympics</t>
-  </si>
-  <si>
-    <t>rt @gailwalden6: i would like to apply to be in the olympics</t>
-  </si>
-  <si>
-    <t>rt @sizwedhlomo: wave goodbye to the olympics boys &amp;amp; girls.</t>
-  </si>
-  <si>
-    <t>people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #coronavirus outbreak. an nhk opinion poll provides a look at the growing anxieties stemming from the epidemic. #covid19 #tokyo2020
-https://t.co/i6wkpxhark</t>
-  </si>
-  <si>
-    <t>rt @india_allsports: just in: 
-top seed amit panghal, who had already qualified for tokyo olympics, goes down to reigning olympic medalist…</t>
-  </si>
-  <si>
-    <t>rt @skift: olympics cancellation would spell heavy losses for many in tourism sector https://t.co/r955epn5cs</t>
-  </si>
-  <si>
-    <t>rt @bfi_official: time for a full throttle🚀
-a short while from now no 2 seed, @mangtec will be taking the ring for her quarterfinal match…</t>
-  </si>
-  <si>
-    <t>playing behind closed doors will deprive sports of future fans and kill the business in the long-term. it's time for being flexible and innovative to confront this crisis.
-#innovation #sports #olympics #coronavirus #covid19
-https://t.co/fe4g7ezl97</t>
-  </si>
-  <si>
-    <t>"it is the olympic year and we as a team have put in a lot of effort to qualify for the games. we look forward to a winning haul and make our country proud in tokyo."
-#tokyoolympics 
-https://t.co/itduutd7gs</t>
-  </si>
-  <si>
-    <t>just stop it, #indonesia. this place doesn’t even exist yet. just stop. https://t.co/nqhyf5za6a</t>
-  </si>
-  <si>
-    <t>rt @lisamacrichards: the ioc won't make decision about transgender athletes before tokyo because it would be "ethically and legally unfair"…</t>
-  </si>
-  <si>
-    <t>@skynews this is a world war.
-olympics have been cancelled due to wars. tokyo olympics should be cancelled. july is sooner than you think.
-the stage of the outbreak varies for each country. some countries will be at the peak at the time.
-&amp;amp; viewers from the world go back home w/ covid19.</t>
-  </si>
-  <si>
-    <t>@newscomauhq us aussies love to get on the scoreboard of anything "big" like this. we can't have china beating us at #coronavirus ? we want to win the road toll , the cricket , the world cup , the olympics . we got this 👍</t>
-  </si>
-  <si>
-    <t>former #boa and #worldsailing chief executive #andyhunt to lead new sport safety group https://t.co/dgtv0e0xvn @teamgb @worldsailing @andy_hunt #olympics #sailing #formula1</t>
-  </si>
-  <si>
-    <t>six-time world champion #marykom , #amitpanghal, #simranjjit qualify for tokyo olympics
-read more about the sports news on the paperboy app download now. 
-#paperboy #paperboyapp  #tokyo #olympics #tokoyoolympics  #india #wordlchampions #awarenessredefined #tuesdaymotivation https://t.co/92epmw6plb</t>
-  </si>
-  <si>
-    <t>rt @greenpeace: “chances of adverse health effects are very, very low, but you cannot deny the risk…you shouldn't just say there's no probl…</t>
-  </si>
-  <si>
-    <t>rt @reuters: from the tokyo 2020 olympics torch lighting ceremony to the bahrain formula one grand prix, a range of global sporting events…</t>
-  </si>
-  <si>
-    <t>@larmas8 @therealbo55 icons like lupita nyongo olympics we're number one music the goat rapper from africa comes from kenya tv stars are a lot...and fyi do your geography and learn about kilimanjaro😂😂😂😂</t>
-  </si>
-  <si>
-    <t>will coronavirus cancel the tokyo 2020 olympics? https://t.co/7btzjto4pe</t>
-  </si>
-  <si>
-    <t>coronavirus latest: italy shuts down sporting events across the country
-read the full story 👉 https://t.co/oigdzc4brl
-#italy #coronavirus #sport #womenssport #seriea #sixnations #olympics https://t.co/gnr9yjuepz</t>
-  </si>
-  <si>
-    <t>rt @7olympics: “kim brennan! take it home, girl. take it home!”
-remembering @kimmyjcrow's 2016 rio #olympics rowing gold 🥇 https://t.co/1t…</t>
-  </si>
-  <si>
-    <t>rt @12news: it won't just be the thousands of athletes who will miss what may be a once-in-a-lifetime opportunity. https://t.co/4g1wdo6qnn</t>
-  </si>
-  <si>
-    <t>rt @kolyisrael14: jeremy is a proud zionist and  he's going to represent team israel in baseball at the tokyo 2020 olympics! 
-if we want th…</t>
-  </si>
-  <si>
-    <t>@sumofollower @g3rtm and it seems more likely than not that the olympics will be cancelled</t>
-  </si>
-  <si>
-    <t>read more at https://t.co/q4u4o28d4n #olympics #pierredecoubertin https://t.co/zvlgnjg8yf</t>
-  </si>
-  <si>
-    <t>rt @blaccsunflower: the government refuses to acknowledge how dangerous this is because of the olympics and it is hilariously terrifying</t>
-  </si>
-  <si>
-    <t>rt @martcrossy: @worldrowing cancels world cups 1 &amp;amp; 2 due to be held in italy ahead of the olympics because of the virus outbreak</t>
-  </si>
-  <si>
-    <t>rt @asomputra: from a small village in #assam's golaghat district to #tokyo2020, the amazing journey of boxer @lovlinaborgohai 
-https://t.…</t>
-  </si>
-  <si>
-    <t>@yana_yz people are not being tested and being told to just wait at home. that’s it. if no one is tested, numbers don’t go up, olympics go on.</t>
-  </si>
-  <si>
-    <t>@summer_of_love4 if given the chance, will i be expected to do both at the same time...i need to train up for the sex olympics</t>
-  </si>
-  <si>
-    <t>first india will need to escape pool a which includes defending champions #argentina and world number one #australia.
-@thehockeyindia #hockey #tokyo2020 #tokyoolympics @tokyo2020 
-https://t.co/q6xhzswqm4</t>
-  </si>
-  <si>
-    <t>olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/9ofwrjqbzw https://t.co/2jy0aoyv1a</t>
-  </si>
-  <si>
-    <t>rt @cmillsnbcs: members of @washwizards @washmystics taking part in the annual special olympics “spread the word to end the word” unified b…</t>
+    <t>rt @rover829: tokyo, march 3 (reuters) - tokyo's contract with the international olympic committee (ioc) allows it to postpone the games un…</t>
+  </si>
+  <si>
+    <t>the olympics are irreplaceable. 😬#olympics #media https://t.co/ptqwjjvczi</t>
+  </si>
+  <si>
+    <t>rt @valaafshar: “what is investment?
+usain bolt won 8 gold medals in 3 olympics, and he only ran for less than 115 seconds on the track, e…</t>
+  </si>
+  <si>
+    <t>breaking news: 
+vikas krishan, who had already qualified for tokyo olympics, upsets 2 time world championships medalist &amp;amp; 2nd seed kazakh pugilist 3:2 to storm into final (69kg) of asia/oceania boxing qualifier. https://t.co/29bmuul86r</t>
+  </si>
+  <si>
+    <t>des jennings presenting on pre &amp;amp; post olympics welfare for support staff, coaches &amp;amp; athletes. @sinicouk @sportninet #mentalhealthawareness #knowledgeispower https://t.co/jbkmqv5eom</t>
+  </si>
+  <si>
+    <t>rt @galleryjade: @yumi_asada this article has wrong information. why did you delete your tweet posting it? many japanese people were disapp…</t>
+  </si>
+  <si>
+    <t>rt @olympics: andy murray on the important role of the @olympics in promoting gender equality. https://t.co/8sqdsurfle  @andy_murray #women…</t>
+  </si>
+  <si>
+    <t>rt @ohnoletsgocrazy: i'm going for gold in the biggest psycho olympics, but i won't pass the piss test, got any spare.</t>
+  </si>
+  <si>
+    <t>rt @olympics: #16 top olympic video of 2019 - when you lose, experience is the reward. https://t.co/mlawm82yow</t>
+  </si>
+  <si>
+    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia if this keeps spreading here like it did in china i see everything being cancelled. there needs to be a cure to stop it. i have been planning to go to tokyo in summer as i have never been before. it's also the olympics.</t>
   </si>
   <si>
     <t>@985thesportshub @tmobile your a sports show
@@ -643,319 +554,313 @@
 @massago</t>
   </si>
   <si>
-    <t>rt @ceo_sogb: so delighted to see @specialolympics ceo @marydavisso in the top 10 most influential women in sport 2020. thank you @isportco…</t>
-  </si>
-  <si>
-    <t>they didn’t cancel the last olympics for zinca or whatever it was and that was a pandemic as well apparently. they didn’t do the same for sars or ebola. why would they do it now. it’s beyond hysteria now it’s  ridiculous</t>
-  </si>
-  <si>
-    <t>i ran into this dark room and he followed me he said if i didnt sing olympics he was gonna fuck me raw. i started screaming hes gonna give me hiv then i woke up to a dream within the dream.  my mom was there talking about “you have hiv??” and the. i woke up for real</t>
-  </si>
-  <si>
-    <t>rt @hk_london: listen to our md of @hksports jamie corr speak on @prweekuknews latest podcast about how brands can score gold at the olympi…</t>
-  </si>
-  <si>
-    <t>@wretchardthecat the olympics are stupid.  if they never happened again i wouldn't miss it.</t>
-  </si>
-  <si>
-    <t>des jennings presenting on pre &amp;amp; post olympics welfare for support staff, coaches &amp;amp; athletes. @sinicouk @sportninet #mentalhealthawareness #knowledgeispower https://t.co/jbkmqv5eom</t>
-  </si>
-  <si>
-    <t>rt @cmopb: chief minister @capt_amarinder singh congratulates @simranjitboxer  from chakar village, ludhiana on qualifying for tokyo olympi…</t>
-  </si>
-  <si>
-    <t>new indonesian borneo-based capital to be a bidding city for 2032 olympics backed by softbank? 
-https://t.co/ixccwpesf4</t>
-  </si>
-  <si>
-    <t>#breaking: people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #coronavirus outbreak https://t.co/2acp2lqhj9 https://t.co/1wmxy5feri</t>
-  </si>
-  <si>
-    <t>cbt is a great meme because it mixes the meta of the now with the shock value of the past. whenever it's brought up, i think of things like pain olympics, but i like that it never needs to go that far.</t>
-  </si>
-  <si>
-    <t>v
-fukushima dreams: a baseball star, a father and their shattered town
-======
-https://t.co/e19p3hxsek https://t.co/ljvrpgfxqi</t>
-  </si>
-  <si>
-    <t>@kadavulnaan americans made obama as president, and 90 of the sports team is black and reason why they are great in olympics...
-whereas in india incompetent பாப்பான் ruining everything ....</t>
-  </si>
-  <si>
-    <t>rt @onthegocbc: we open the show today with nl's big curling win. we'll hear from the skipper himself and then i'll talk with the second mo…</t>
+    <t>@emmaadorgan it disappeared just like women’s olympics this year😚</t>
+  </si>
+  <si>
+    <t>it's not about whose doctors are better. this is not the olympics. it's that italy has a far better heath care system than the uk and they can barely cope. https://t.co/f5umlxflln</t>
+  </si>
+  <si>
+    <t>@nhkworld_news they have to happen. i bought tickets and booked a flight and a hotel. and that hotel is very overpriced because of the olympics.</t>
+  </si>
+  <si>
+    <t>proud moment for india and sikhs 🇮🇳❤️
+simranjit kaur pugilist from village chakkar has qualified for tokyo olympics. 
+she is 8th boxer the country and first punjabi female boxer to qualify for tokyo olympics. she defeated 2nd seed mongolian pugilist by unanimour verdict win 5.0 https://t.co/eemyvrr3ql</t>
+  </si>
+  <si>
+    <t>@giltron2 @politico personally, i think this was because of the fact we have an olympics every 2 years.</t>
+  </si>
+  <si>
+    <t>mckinnon who now has changed his name to veronica ivy believes that height anomalies makes him a woman. uh, just no dude.  with lock like that all females have micro-peni. : olympics 2020: are the rules for trans athletes fair? | the economist https://t.co/b0ly4yfgif</t>
+  </si>
+  <si>
+    <t>@justinscotsnead @mccache33 i think fear of flooding hospitals is one reason. the government has said that they (the central government) can administer 3,000 tests per day. the cynic in me thinks that they want to keep the reported number low to protect the olympics.</t>
   </si>
   <si>
     <t>the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner of the globe, much like the spreading virus that now imperils the opening ceremony on july 24. https://t.co/vvn20sk7qu</t>
   </si>
   <si>
+    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/r955epn5cs</t>
+  </si>
+  <si>
+    <t>rt @nytimeslearning: the paris 2024 summer olympics will hold the surfing event ... 10,000 miles away! in this lesson, students will learn…</t>
+  </si>
+  <si>
+    <t>rt @olympics: an olympic question to #chanyeol @weareoneexo. #lausanne2020 #gangwon2024 @youtholympics https://t.co/udrbo8fppy</t>
+  </si>
+  <si>
+    <t>aerin is destined for the olympics, but she's quit winning. it costs too much. her dad left and her mom's in jail. where was she? underwater. https://t.co/hj6zoqg5uc #ya #cleanteenreads https://t.co/dlkyfy5fxq</t>
+  </si>
+  <si>
+    <t>rt @mrdanwalker: remember the wonderful maria from copacobana during the rio olympics?  
+she came on @bbcsport on her hen night, we got a w…</t>
+  </si>
+  <si>
+    <t>@voiceoffranky prediction: japan *will* cancel the olympics. the nhl *will* cancel the rest of the season. etc., etc.</t>
+  </si>
+  <si>
+    <t>@gbadamosiadeku6 @olushola_shola first, i thought it was haram to own hotels? secondly is fasting a competitive sport? thirdly what is the point of taking first in the fasting olympics and them resuming your sinful ways right afterwards? bro make we dey sharp abeg.</t>
+  </si>
+  <si>
+    <t>rt @kirenrijiju: i'm too excited now! @simranjitboxer becomes the 8th indian boxer to qualify for #tokyo2020 #olympics 🥊🥊 she joins @mangte…</t>
+  </si>
+  <si>
+    <t>two more taiwanese boxers have qualified for the tokyo olympics this summer.</t>
+  </si>
+  <si>
+    <t>rt @johnscrazysocks: giving back is at the heart of all we do. from the day we opened, we have pledged to donate 5% of our earnings to the…</t>
+  </si>
+  <si>
     <t>11-year-old syrian table tennis player hend zaza qualifies for olympics https://t.co/h9nw3neyxk</t>
   </si>
   <si>
-    <t>rt @kensleyanne: morning musings: i would love to see a true world championships, maybe the year after olympics where literally every gymna…</t>
-  </si>
-  <si>
-    <t>organizers of the olympics are insisting the tokyo games will go on as planned this summer https://t.co/1kipitiffn</t>
-  </si>
-  <si>
-    <t>@jamiec1979 @pe_mme @lisanandy also trans people have been allowed to compete in the olympics since 2004, none have ever won a gold medal. in fact not one has even made it to the the olympics. you are making an issue of something that hardly exists .</t>
-  </si>
-  <si>
-    <t>curling considers 'radical' new rules to preserve tradition and speed up games | cbc sports https://t.co/kyva2ygoue</t>
-  </si>
-  <si>
-    <t>@markjhandley or is one of these countries just like the rest, but hosting the olympics and desperately trying to under-test and under-report results.</t>
-  </si>
-  <si>
-    <t>@mattbakerfans @bbccountryfile @bbcone @olympics @nestle @rspca_official @missalexjones @cbbc can you help?!??</t>
-  </si>
-  <si>
-    <t>rt @staronline: indonesia considers 2032 olympics bid for new capital city with softbank's help
-https://t.co/he1r7dpqnx  https://t.co/he1r7…</t>
-  </si>
-  <si>
-    <t>rt @meromero_ponti: @newday @willripleycnn the tokyo olympics should be canceled. in japan, the coronavirus is rarely tested. it is true th…</t>
-  </si>
-  <si>
-    <t>rt @ptushaofficial: quality conversation and discussion with hon. sports minister @kirenrijiju ji at his office today. discussed about the…</t>
-  </si>
-  <si>
-    <t>rt @wretchardthecat: will the olympics be postponed? back in the day wars were postponed for the olympics. during the second greco-persian…</t>
-  </si>
-  <si>
-    <t>rt @pompeyhistory: #otd in 1956 a e (arthur) knight, #pompey's former left back and captain, died at his home in southsea, aged 68.
-arthur…</t>
-  </si>
-  <si>
-    <t>rt @jon_selvaraj: lovlina borgohain loses by 5-0 ud  to 2018 world silver medalist gong hu of china in the women's 69 kg sf of the asia-oce…</t>
-  </si>
-  <si>
-    <t>rt @nhkworld_news: people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #c…</t>
-  </si>
-  <si>
-    <t>rt @outlookindia: first india will need to escape pool a which includes defending champions #argentina and world number one #australia.
-@t…</t>
-  </si>
-  <si>
-    <t>rt @mcclenaghanrhys: to have the support of jimmy nesbitt and g&amp;amp;h film, a northern ireland based company is fantastic. to know they believe…</t>
-  </si>
-  <si>
-    <t>rt @robertalanward: eyewatering downgrade to japan q4 gdp: from -6.3% to -7.1%. brace for grim q1 too on coronavirus impact. full-yr 2020 j…</t>
-  </si>
-  <si>
-    <t>@deedeelea @saveleamarshes yup. would appreciate pics for our records? 
-you can still see boggy areas from lorry compaction. wrecked the clay path at white house bridge, just built so people could walk/cycle to the olympics. the hedge on homerton rd ripped out &amp;amp; never replaced. promises made &amp;amp; forgotten.</t>
-  </si>
-  <si>
-    <t>rt @crawling_nyarly: if the tokyo 2020 olympics gets cancelled due to coronavirus, we’ll have a mario &amp;amp; sonic game based on olympics that n…</t>
-  </si>
-  <si>
-    <t>@iam_erhnehst @violettepromo it means he has stamina 😂😂😂
-he should be competing in olympics 😂😂</t>
+    <t>@pinkhedonist 4. women will always “win” a male vs female oppression olympics if your standards are base and biological because men are physically more power and own more resources, rape and violence are real, women are vulnerable. it’s a losing argument.</t>
+  </si>
+  <si>
+    <t>rt @governorobaseki: 2. 
+i remember about 25 years ago the president of the @nsenigeria, late mko abiola chaired the fund raising event for…</t>
+  </si>
+  <si>
+    <t>rt @jgarciarn_: i feel like i’m in a real life game of plague inc.☣️
+news headlines reading things like: ▪️“japan considering cancelling o…</t>
+  </si>
+  <si>
+    <t>rt @goyatneeraj: congratulations @bfi_official, @media_sai and all indian boxers as this is first time in indian history that in first olym…</t>
+  </si>
+  <si>
+    <t>i really hope the olympics won’t be canceled  😔 @olympics @tokyo2020</t>
+  </si>
+  <si>
+    <t>@_nigel___ happy birthday i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
+  </si>
+  <si>
+    <t>@msrena18 @flotus did you see trump mock the disabled reporter on national tv? at least president obama call the head of special olympics and apologized immediately. still waiting for trumps apology... https://t.co/tsa2zsbybx</t>
+  </si>
+  <si>
+    <t>rt @uncletimmensgym: dear @latimes - 
+y’all need to fact check this article. several american gymnasts won medals at the world championshi…</t>
+  </si>
+  <si>
+    <t>rt @fionarichmond8: much praise from @mairigougeon for @scottishchefs &amp;amp; its culinary team’s success at the recent culinary olympics in stut…</t>
+  </si>
+  <si>
+    <t>rt @xiaoqi101: rumor for super nova games 2020:
+japanese artist and popular olympics athletes will join.
+the champion team will go to tokyo…</t>
+  </si>
+  <si>
+    <t>rt @megschuster: brian phillips, everyone https://t.co/3h5mg8ncvl</t>
+  </si>
+  <si>
+    <t>@iocmedia expert meeting on corona-virus of japan announced on march 9, that novel corona-virus will not automatically disappear in summer and outbreak could happen again anytime if the comers from overseas bring the virus.
+in this situation, tokyo 2020 olympics should be canceled.</t>
+  </si>
+  <si>
+    <t>even top athletes love carbs! @johnsonthompson tells @stylistmagazine that she dreams of the #bernerstavern mac and cheese - we don't blame her!
+https://t.co/rnaelagbiv https://t.co/xxcafogfgy</t>
+  </si>
+  <si>
+    <t>rt @ctvnews: fate of olympics may have impacts around the globe https://t.co/tqsk67unbw https://t.co/yxk9j0bzog</t>
+  </si>
+  <si>
+    <t>rt @coreyjwallace: overall not a bad poll for pm abe. most pessimism on the economic fallout, whether olympics can be held on time.</t>
+  </si>
+  <si>
+    <t>rt @ritflynn: i participated with lakeville in the polar plunge for the special olympics. we raised 19,000 dollars! totally worth jumping i…</t>
+  </si>
+  <si>
+    <t>miko shozoku, shinto shrine maiden wear!
+let's all come to the tokyo 2020 olympics wearing miko shozoku!
+https://t.co/imsxgdlrme</t>
+  </si>
+  <si>
+    <t>rt @zumber: @mitsyarty @tshep42 @acgrayling it's the olympics this year. maybe they need him for a twatathon.</t>
+  </si>
+  <si>
+    <t>rt @martcrossy: @worldrowing cancels world cups 1 &amp;amp; 2 due to be held in italy ahead of the olympics because of the virus outbreak</t>
+  </si>
+  <si>
+    <t>@diraclikesmath @hcactual @2doesnotequal5 @cleokitty @fjbserrano @kyunglahcnn @jamilsmith hypocrisy olympics https://t.co/v5ajsuwizz</t>
+  </si>
+  <si>
+    <t>rt @lionheart_trust: kevin seaward, assistant principal at @martinhighsch, has qualified for the 2020 olympics after running the second fas…</t>
+  </si>
+  <si>
+    <t>rt @ani: mc mary kom defeats philippines boxer irish magno 5-0 to secure tokyo olympics berth by entering semifinals of asian qualifiers in…</t>
+  </si>
+  <si>
+    <t>rt @rrexpress: it's #womenshistorymonth and we're tipping our cap to @catosterman! she is our next bobblehead, and first female, in the tex…</t>
+  </si>
+  <si>
+    <t>this title needs to be in the united states. it’s like usa not winning basketball in the olympics. it’s just not right https://t.co/ccsibu1mw8</t>
+  </si>
+  <si>
+    <t>rt @cjsmonline: great interview with usoc and @theamssm physician @finnoffjonathan  an olympic doctor discusses the effect of the coronavir…</t>
   </si>
   <si>
     <t>rt @indiasportshub: boxing - india at the olympics
 with simranjit grabbing the 8th quota we have equalled our best tally here is the previ…</t>
   </si>
   <si>
-    <t>rt @glennconsor: we had a blast! such a pleasure to see the smiles today at the 8th annual dc special olympics @washwizards @washmystics ht…</t>
-  </si>
-  <si>
-    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/r955epn5cs</t>
-  </si>
-  <si>
-    <t>they say "women cant do sports"
-meet habiba ghribi the tunisian long-distance runner won the gold medal at the 2012 summer olympics, scoring tunisia its first olympic medal by woman.
-#ٌrewriteherstory https://t.co/ta7lbr9zfh</t>
-  </si>
-  <si>
-    <t>rt @philipptionary: team philippines update: three filipinos have qualified to the olympics. 
-• caloy yulo (gymnastics)
-• ej obiena (pole…</t>
-  </si>
-  <si>
-    <t>rt @ajitnandal: i'm extremely delighted to inform that my younger brother and world no1 boxer @boxerpanghal has qualified for the #tokyo202…</t>
-  </si>
-  <si>
-    <t>rt @arunac_official: heartiest congratulations to simranjit kaur qualifies for tokyo olympics who upset 2nd seed mongolian pugilist by unan…</t>
-  </si>
-  <si>
-    <t>rt @kirenrijiju: i'm too excited now! @simranjitboxer becomes the 8th indian boxer to qualify for #tokyo2020 #olympics 🥊🥊 she joins @mangte…</t>
-  </si>
-  <si>
-    <t>with all the sickness fears, will tokyo run the olympics this year? https://t.co/11kcuqttqs https://t.co/4kabgsgcte</t>
-  </si>
-  <si>
-    <t>rt @ausolympicteam: could this be the next @tiatoomey in the making?
-congratulations to february's #givethatagold winner - you've won a $2…</t>
-  </si>
-  <si>
-    <t>it will happen during the tokyo olympics. 
-happened with aflw in 2018 during the winter olympics.
-happens with australian open all the time.
-what’s the big deal? https://t.co/qrl2fyo9tt</t>
-  </si>
-  <si>
-    <t>rt @media_sai: what a superb performance by @simranjitboxer as she beats 2nd seeded namuun monkhor 5-0 in the women’s 60 kg quarterfinals a…</t>
-  </si>
-  <si>
-    <t>@grogsgamut if we're going to celebrate genocidal colonial overlords, i should probably start speaking dutch or french. they both got here before the poms. third place is for the olympics and participation trophies, right?</t>
-  </si>
-  <si>
-    <t>rt @sportsgriduk: tentacles of olympic cancellation due to coronavirus would reach around globe https://t.co/5uxiirfbka https://t.co/zkrwkm…</t>
-  </si>
-  <si>
-    <t>rt @shamindermahi16: heartiest congratulations to simranjit kaur who qualified for tokyo olympics in boxing. she hails from chakkar village…</t>
-  </si>
-  <si>
-    <t>rt @fionarichmond8: much praise from @mairigougeon for @scottishchefs &amp;amp; its culinary team’s success at the recent culinary olympics in stut…</t>
-  </si>
-  <si>
-    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/vefqypj0ul via @skift #olympics #travel</t>
-  </si>
-  <si>
-    <t>rt @andymadaki: had to warn my boxing coach today, that i’m not the one going to olympics. as they want to kill somebody. biko i have work…</t>
-  </si>
-  <si>
-    <t>talha says he can win medal at 2024 olympics with govt support https://t.co/vdbwnkjooz</t>
-  </si>
-  <si>
-    <t>@nfmusic tokyo olympics had transferred to the beach, too</t>
-  </si>
-  <si>
-    <t>rt @reuters: fukushima dreams: a baseball star, a father and their shattered town https://t.co/tdlvdvbzpn by @saitomri #tokyo2020 https://t…</t>
-  </si>
-  <si>
-    <t>rt @nbcswizards: "get light real quick"
-@johnwall crushed the special olympics halftime dance party https://t.co/e0qlyaolcx</t>
-  </si>
-  <si>
-    <t>i participated with lakeville in the polar plunge for the special olympics. we raised 19,000 dollars! totally worth jumping in cold water!#teamo https://t.co/lneuhaisa0</t>
-  </si>
-  <si>
-    <t>@markventurelli @kashjackson2018 @berniesanders wow.  is brazil good at ‘basic stuff’? https://t.co/qywwug2dlv</t>
-  </si>
-  <si>
-    <t>coronavirus diaries: i’m trying to make the olympics that might not happen. https://t.co/f2yelnoyzs</t>
-  </si>
-  <si>
-    <t>tokyo olympics | we look forward to winning a medal, says mandeep singh https://t.co/0dfiv0bmzw</t>
-  </si>
-  <si>
-    <t>this country is made up of a population primarily over the age of 50. they need to be doing what korea has been doing but i don’t even think their weak ass government can !!
-so many people are going to die here. 
-they need to be catching asymptomatic people. 
-fuck the olympics.</t>
-  </si>
-  <si>
-    <t>q89:    mislaid details about head of olympics being quarantined (8)</t>
-  </si>
-  <si>
-    <t>@lisanandy what a wet fish you were on tv this morning. no leadership credentials for you. men running in emailing olympics needs a committee to decide if it's right? not common sensecprevailing your side</t>
-  </si>
-  <si>
-    <t>rt @toisports: #breaking #olympicqualifiers #tokyo2020
-@lovlinaborgohai loses 0-5 to hong gu of china in women's 69kg semifinals
-she had…</t>
-  </si>
-  <si>
-    <t>@cquilty52 just wait and see how high its testosterone levels are permitted to be when it competes as a woman in the olympics.</t>
-  </si>
-  <si>
-    <t>look you are privileged af and no one is going to punch you to death for being a cis straight male you can stop your oppression  olympics now thanks</t>
-  </si>
-  <si>
-    <t>the tentacles of canceling the tokyo olympics would reach into every corner of the globe. https://t.co/9v2gnb4bjy https://t.co/jgqbuh23lo</t>
-  </si>
-  <si>
-    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/amivuxtkfa https://t.co/bzzw5ce7nk</t>
-  </si>
-  <si>
-    <t>rt @isaifpatel: one would think he returned after winning a medal at olympics but he is being warmly welcomed by the society because he had…</t>
+    <t>exclusive: indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country’s not-yet-built new capital and is in early talks with softbank's masayoshi son and other investors for support https://t.co/ibisy1nobk via @f_potkin @uda_maikel https://t.co/xj85ao6qra</t>
+  </si>
+  <si>
+    <t>coronavirus latest: italy shuts down sporting events across the country
+read the full story 👉 https://t.co/oigdzc4brl
+#italy #coronavirus #sport #womenssport #seriea #sixnations #olympics https://t.co/gnr9yjuepz</t>
+  </si>
+  <si>
+    <t>rt @bigdaddybunce: in 2002 i very nearly got a film with the bbc about mary kom - india’s greatest boxer - off the ground. she has just qua…</t>
+  </si>
+  <si>
+    <t>rt @suleen194: exol we have enough time to get to 100m views before 4/8 horror fandom we achieve many things &amp;amp; we skipped the difficulties…</t>
+  </si>
+  <si>
+    <t>rt @shirai_iii: the last time a filipino gymnast competed in the olympics was in 1968. 
+what carlos yulo has done for philippine sport - a…</t>
+  </si>
+  <si>
+    <t>"the world’s fourth-most-populous country unveiled in august plans to build a $34 billion 'smart and green' new capital on the forested island of borneo to replace the crowded, polluted megacity of jakarta". yeah, what could possibly go wrong here? https://t.co/qoscaw39rk</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help | the star online https://t.co/7zkijx0idr https://t.co/cikbxrsvum</t>
+  </si>
+  <si>
+    <t>@morg007 and don't forget curling at the winter olympics</t>
+  </si>
+  <si>
+    <t>rt @ghanasoccernet: 2019/20 ghana premier league: week 14 match preview- hearts of oak vs great olympics https://t.co/ijkrgung6v https://t.…</t>
+  </si>
+  <si>
+    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia that makes sense. that must be why flu season is typically in the winter. tokyo should be hot by june. summer olympics in september should be interesting. that means they may change the apple event since all eyes will be on the olympics.</t>
+  </si>
+  <si>
+    <t>rt @gaa__joe: "he doesn't strike me as a guy that's going to win the 100mts in the olympics... 💨
+"but he's got a really interesting way of…</t>
+  </si>
+  <si>
+    <t>@paymentsnet @teamgb @olympics hi there 👋 thanks a lot for sharing the news 👍</t>
+  </si>
+  <si>
+    <t>new post (sky olympics- gymnastics) has been published on make money online - https://t.co/bv9rbs7lg3 https://t.co/jry3gvlygf</t>
+  </si>
+  <si>
+    <t>#اسلام_کی_شہزادياں 
+minhal sohail the 21-year-old became pakistan’s first female shooter to compete at olympics 2016. although, she couldn’t win gold and secured 28th position in the 10m air rifle event, minhal has made us proud by qualifying for the rio games.</t>
+  </si>
+  <si>
+    <t>wheelchair dancer sets sights on tokyo olympics https://t.co/qhgybumldn  via @skinnergj</t>
+  </si>
+  <si>
+    <t>@tuckergirl i’ve been asking the same question. i think global news wanted a coronovirus panic story to they went to a wal mart with toilet paper on sale and the story took off. i remember when the world watched calgary’s olympics now they are watching calgarians panic buying toilet paper.</t>
+  </si>
+  <si>
+    <t>rt @india_allsports: just in: 
+lovlina borgohain, who had already qualified for tokyo olympics, goes down to reigning asian champion by una…</t>
+  </si>
+  <si>
+    <t>rt @kirenrijiju: a great day for india as #ashishkumar becomes the fourth indian boxer to qualify for the #tokyo2020 #olympics. what a prou…</t>
+  </si>
+  <si>
+    <t>@greg_jenner @bbcsounds @bbcradio4 just got 10/10 on the olympics quiz, so now raiding the herb cupboard for crown material. #champion</t>
+  </si>
+  <si>
+    <t>how am hoping that @rudishadavid competes in his third olympics. it would be fantastic if he is in tokyo https://t.co/kovbbq1the</t>
   </si>
   <si>
     <t>rt @itsmrsdietz: special olympics practice tonight at 5pm in the @louisburghsfcs gym! see you there!!</t>
   </si>
   <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help | the star online https://t.co/7zkijx0idr https://t.co/cikbxrsvum</t>
-  </si>
-  <si>
-    <t>rt @onesportsphl: philippine sports officials said they expect around 18 to 20 filipino athletes to make it to the 2020 tokyo olympics.
-📝…</t>
-  </si>
-  <si>
-    <t>@kapil857 @kapil857 any link to know how points are given and how seeding will be done at the olympics?</t>
-  </si>
-  <si>
-    <t>kill the olympics. https://t.co/pjwoqeqxxc</t>
-  </si>
-  <si>
-    <t>rt @galleryjade: @yumi_asada this article has wrong information. why did you delete your tweet posting it? many japanese people were disapp…</t>
-  </si>
-  <si>
-    <t>great olympics proclaim "true landlords" over 'lotto kiosk' hearts of oak ahead of accra derby read full: https://t.co/wuszmyuoqs https://t.co/ouybtipw6e</t>
-  </si>
-  <si>
-    <t>fate of olympics may have impacts around the globe | ctv news https://t.co/nca8uqvoxa via @skinnergj</t>
-  </si>
-  <si>
-    <t>rt @lubelluledotcom: mckinnon who now has changed his name to veronica ivy believes that height anomalies makes him a woman. uh, just no du…</t>
-  </si>
-  <si>
-    <t>dwarfs coach quartey slams “pathetic” referee akubiem for loss to olympics
-more&amp;gt;&amp;gt;https://t.co/f8xyyhkumx
-#atlfm #atlfmonline https://t.co/qcku6nly1s</t>
-  </si>
-  <si>
-    <t>@bagtrick @bbc5live @emmabarnett i turned the victoria derbyshire programme off as yet again it was a woman centric show as usual. the feminists like the lefties are competing in the oppression olympics.</t>
-  </si>
-  <si>
-    <t>it has never not been an issue olympics, be damned.
-the pacific ocean is dead.
-i've just returned from the philippines, where i refused to swim in it, or eat seafood from it. https://t.co/k8b50bopcc</t>
+    <t>think my boy @smiffjo is going to love school this week. tag rugby today and year 5 olympics tomorrow 💪 #schoolsports #tagrugby #plymouth #plymouthalbion</t>
+  </si>
+  <si>
+    <t>@thesquaredcirc3 i was shit hot on kelly from the olympics but his been a little disappointed, really struggled against ray robinson. buatsi is my tip now and will reach world title level</t>
+  </si>
+  <si>
+    <t>rt @itsjiayis: it is said that the champions will go to tokyo olympics... unine you all can do this!! https://t.co/x4t58gnuej https://t.co/…</t>
+  </si>
+  <si>
+    <t>indonesian president joko widodo is plotting an audacious bid for the 2032 olympics centred on the country's not-yet-built new capital city.  https://t.co/qizdxynldo https://t.co/cfribqfv28</t>
+  </si>
+  <si>
+    <t>rt @olympics: inspiring generations of female athletes and the rest of the world. #womensday #iwd2020  #generationequality @simone_biles @n…</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump the tokyo olympics are unlikely to be the second.</t>
+  </si>
+  <si>
+    <t>rt @meromero_ponti: @newday @willripleycnn the tokyo olympics should be canceled. in japan, the coronavirus is rarely tested. it is true th…</t>
+  </si>
+  <si>
+    <t>rt @hakoconneman: the japanese government avoids stopping the tokyo olympics, dwarfing coronavirus pcr test targets, testing in densely pop…</t>
+  </si>
+  <si>
+    <t>@taylan_gul but that can be said about wilshere and pepe. one broke through the academy at 16 and the other is a representation of the minorities. but do you support them??? that's because football is football. i'm a panafricanist during the world cup and olympics.</t>
   </si>
   <si>
     <t>rt @pgtitour: bengal open returns for 2nd edition, tournament to tee-off at #tollygungeclub on march 11; impressive field to feature @tokyo…</t>
   </si>
   <si>
-    <t>rt @ittfworld: she's just 1️⃣1️⃣ years old‼️ 😱😱😱 
-meet the youngest athlete to qualify for #tokyo2020 and the youngest ever #tabletennis p…</t>
-  </si>
-  <si>
-    <t>rt @ritflynn: i participated with lakeville in the polar plunge for the special olympics. we raised 19,000 dollars! totally worth jumping i…</t>
-  </si>
-  <si>
-    <t>tokyo olympics 2020 torch lighting ceremony to be held in absence of spectators amid coronavirus threat
-https://t.co/5msbfsfwgh
-#tokyo2020 #olympics #olympictorch #coronavirus #covid19</t>
-  </si>
-  <si>
-    <t>rt @newsy: london says it could host the 2020 #olympics if coronavirus forces a move. london mayoral candidate shaun bailey said the city a…</t>
-  </si>
-  <si>
-    <t>rt @kirenrijiju: another historic moment for india! legendary indian boxer mary kom has qualified for #tokyo2020 #olympics with a great vic…</t>
-  </si>
-  <si>
-    <t>rt @dimplezbee: i have 4 tickets for todays women olympics 2020 qualifier football match..our copper queens are playing cameroon!! lets go…</t>
-  </si>
-  <si>
-    <t>andy murray’s thoughts on a topic i often ponder... https://t.co/ewtpdxpipe @andy_murray</t>
-  </si>
-  <si>
-    <t>rt @ghanasoccernet: 2019/20 ghana premier league: week 14 match preview- hearts of oak vs great olympics https://t.co/ijkrgung6v https://t.…</t>
-  </si>
-  <si>
-    <t>@legion10142 @fcbarcelona @championsleague well. if the concern is about corona virus and human life, postponing a game is the right way to do it. ucl is not bigger than olympics</t>
-  </si>
-  <si>
-    <t>ambitious! #indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country's not-yet-built new capital and is in early talks with #softbank and other investors for support(reuters) https://t.co/zhgmdia3gn</t>
-  </si>
-  <si>
-    <t>introducing hend zaza: syria’s 11-year-old star, bound for tokyo 2020 https://t.co/e79eqrsonb https://t.co/n8r5ciyof0</t>
-  </si>
-  <si>
-    <t>rt @cdennett: @bagtrick @bbc5live @emmabarnett i turned the victoria derbyshire programme off as yet again it was a woman centric show as u…</t>
+    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/iu3cca60cj https://t.co/ooaa0srm1x</t>
+  </si>
+  <si>
+    <t>rt @media_sai: mary back in olympics!
+#topsathlete @mangtec has qualified for #tokyo2020 following a 5-0 win over irish magno in the quarte…</t>
+  </si>
+  <si>
+    <t>world figure skating championships in montreal face cancellation over virus concerns #covid19 https://t.co/eiopnnq9kg</t>
+  </si>
+  <si>
+    <t>despite recent travails, softbank isn't finished with sport https://t.co/ge6dpfx4mj mega-events, new cities, digital technology, links to gulf region - this is right in the middle of masayoshi son's territory. suspect saudi arabia may also be involved (see reference to abu dhabi)</t>
+  </si>
+  <si>
+    <t>@crazynairobian bedminton olympics 🤔</t>
+  </si>
+  <si>
+    <t>rt @katyperry: the olympics may be over but dad hats will never die 😎 : https://t.co/8mwcypzab7 https://t.co/oemc7cmdba</t>
+  </si>
+  <si>
+    <t>@asmonacoenglish inorder to build a team that would be the future it is to send scouts to the olympics to scout good players and also do not overlook african player they are good and less money to buy them</t>
+  </si>
+  <si>
+    <t>just in: 
+top seed amit panghal, who had already qualified for tokyo olympics, goes down to reigning olympic medalist 2-3 in semis (52kg) of asia/oceania boxing qualifier. 
+ps: amit had defeated the same boxer last year on his way to gold medal in asian championships https://t.co/qxd0d1q68z</t>
+  </si>
+  <si>
+    <t>special olympics practice tonight at 5pm in the @louisburghsfcs gym! see you there!!</t>
+  </si>
+  <si>
+    <t>vikas in final, to fight for gold!
+#topsathlete @officialvkyadav beats #2 seed ablaikhan zhussopov to reach the final in men’s 69 kg at the asia-oceania olympic boxing qualifier. he has already secured a place in the olympics.
+@kirenrijiju @dgsai @rijijuoffice @bfi_official https://t.co/0r3wzrvoqi</t>
+  </si>
+  <si>
+    <t>rt @bigbrainsimpson: malvin greston whitfield was an athlete, goodwill ambassador, and airman. nicknamed "marvelous mal", he was the olympi…</t>
+  </si>
+  <si>
+    <t>@heartsofoakgh @accragtolympics agyare should be bench against olympics,i don't see the reason why u should play him ahead of sowah,who does dah ,pls hearts of oak isn't a divisional one team https://t.co/iehfz3qyor mohammed alhasan and sowah as 4&amp;amp;5</t>
+  </si>
+  <si>
+    <t>rt @bfi_official: time for a full throttle🚀
+a short while from now no 2 seed, @mangtec will be taking the ring for her quarterfinal match…</t>
+  </si>
+  <si>
+    <t>@abscbnnewssport cancelled na daw po olympics</t>
+  </si>
+  <si>
+    <t>rt @ringer: the coronavirus has already caused more havoc to sports organizers than possibly any medical crisis in history
+https://t.co/bkk…</t>
+  </si>
+  <si>
+    <t>rt @itsjiayis: super nova games 2020 collaborating with tokyo olympics 2020 will also invite japanese artists and professional athletes to…</t>
+  </si>
+  <si>
+    <t>2020 tokyo olympics-bound amit panghal, lovlina borgohain settle for bronze at asian boxing qualifiers https://t.co/71qe1njghl https://t.co/uo6lzryoeg</t>
+  </si>
+  <si>
+    <t>restrictions of one thank-you to sponsors eased by @teamgb, following legal complaint by athletes. but will less famous athletes suffer from a more relaxed approach to sponsor messages around the #olympicgames? @martynziegler 
+https://t.co/nvxfw3vbxb</t>
   </si>
   <si>
     <t>rt @cmr_lionesses: game day ⚽
@@ -967,78 +872,882 @@
 the girls are 90 min…</t>
   </si>
   <si>
-    <t>rt @theeconomist: japan may have to cancel the olympics https://t.co/agonjcpwcm</t>
-  </si>
-  <si>
-    <t>exo at the winter olympics -  full performance - pyeongchang 2018 closin... https://t.co/xstxh6kkbj ข้อมูลจาก @youtube</t>
-  </si>
-  <si>
-    <t>coverage at the olympics https://t.co/vvzpczjpnt feed - morning edition</t>
-  </si>
-  <si>
-    <t>rt @atfield_sport: 🏅how are new sports included in the olympics (and does esports fit the mould)?
-👉 new article by @avtyghem on the sports…</t>
-  </si>
-  <si>
-    <t>restrictions of one thank-you to sponsors eased by @teamgb, following legal complaint by athletes. but will less famous athletes suffer from a more relaxed approach to sponsor messages around the #olympicgames? @martynziegler 
-https://t.co/nvxfw3vbxb</t>
-  </si>
-  <si>
-    <t>rt @hanguangjunes: was just looking through weibo and realised wyb and xz are both spokespersons for the 2022 winter olympics??!? https://t…</t>
+    <t>rt @traffictechmag: exclusive: uk could benefit from olympics-style momentum if itswc bid accepted
+.
+cc @transportgovuk |@its_uk_org |@tran…</t>
+  </si>
+  <si>
+    <t>man, october is gonna pop off: #coachella, the #olympics, the euros, every city marathon, all the big global conferences, a stock market rebound, italian vacations. who needs grandparents when you're having that much fun?! #coronavirus</t>
+  </si>
+  <si>
+    <t>@shawdo3 i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
+  </si>
+  <si>
+    <t>rt @claudieeyes: can't wait!!</t>
+  </si>
+  <si>
+    <t>do you think the tokyo olympics can be held?
+#tokyo2020 #covid_19</t>
+  </si>
+  <si>
+    <t>great deep dive from @gdunbarap and @stephenwadeap on what it would mean to cancel the olympics for the first time since ww2 - sports, finance, politics, epidemiology
+ https://t.co/nmugk0hkqd</t>
+  </si>
+  <si>
+    <t>rt @kirenrijiju: another historic moment for india! legendary indian boxer mary kom has qualified for #tokyo2020 #olympics with a great vic…</t>
+  </si>
+  <si>
+    <t>@_wermi cant tell if this shit is generic or sports oriented
+stuff that would be given away at mario &amp;amp; sonic olympics sales n shit</t>
+  </si>
+  <si>
+    <t>olympics qualifier: carlo paalam, irish magno relegated to boxoffs | @nickspeaks 
+https://t.co/u2f3zztzuo</t>
+  </si>
+  <si>
+    <t>rt @justsportstweet: olympic flame lighting ceremony to be held without spectators https://t.co/mqzbdcyedc via @nbcolympictalk</t>
+  </si>
+  <si>
+    <t>@markjhandley @alanpeery hardly any testing and suspicion of false numbers to try and keep the olympics in play.</t>
+  </si>
+  <si>
+    <t>rt @ibrahim_id: how do you propose an olympic host city that doesn't even exist yet??? |
+indonesia considers 2032 olympics bid for new capi…</t>
+  </si>
+  <si>
+    <t>@larmas8 @therealbo55 icons like lupita nyongo olympics we're number one music the goat rapper from africa comes from kenya tv stars are a lot...and fyi do your geography and learn about kilimanjaro😂😂😂😂</t>
+  </si>
+  <si>
+    <t>rt @rockerskating: lights will guide you home https://t.co/4dwoqp88ta</t>
+  </si>
+  <si>
+    <t>rt @itsjiayis: it is said that the champions will go to tokyo olympics... unine you all can do this!! https://t.co/laqmz37jr5</t>
+  </si>
+  <si>
+    <t>@deligracy "awfully distracting isn't it?" i whipped my head around and this man turned redder than a tomato.  he designed a quarter dollar coin for the canadian mint during the 2010 olympics.  i was so embarrassed i was shaking.  people accused me of being promiscuous after that.</t>
+  </si>
+  <si>
+    <t>andy murray’s thoughts on a topic i often ponder... https://t.co/ewtpdxpipe @andy_murray</t>
+  </si>
+  <si>
+    <t>god i'm so sad about the tokyo olympics. i think we all know what's gonna happen :(</t>
+  </si>
+  <si>
+    <t>@yahoonewstopics the event is not good, but the olympics are ok😷</t>
+  </si>
+  <si>
+    <t>rt @yurikageyama: the losers if the olympics get canceled ~ a good @ap story by my tokyo colleague and sports writer @stephenwadeap 
+https:…</t>
+  </si>
+  <si>
+    <t>#breaking #olympicqualifiers #tokyo2020
+@lovlinaborgohai loses 0-5 to hong gu of china in women's 69kg semifinals
+she had already booked her berth for tokyo olympics https://t.co/heqc5zs4v3</t>
+  </si>
+  <si>
+    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia my friend in dubai and europe were going to come here for 4 events and cancelled for 3 of them. samaung, coachella, and nab event in vegas. if this can get under control before the olympics that would be great. my hands are so dry from washing them so much in fear i'll be next.</t>
+  </si>
+  <si>
+    <t>rt @counterolympics: the #olympics circus pays no attention, it just 'moves on'</t>
+  </si>
+  <si>
+    <t>for now, the international olympic committee says the games are on, but  that could change. https://t.co/rfcsw8nluq</t>
+  </si>
+  <si>
+    <t>@skynews this is a world war.
+olympics have been cancelled due to wars. tokyo olympics should be cancelled. july is sooner than you think.
+the stage of the outbreak varies for each country. some countries will be at the peak at the time.
+&amp;amp; viewers from the world go back home w/ covid19.</t>
+  </si>
+  <si>
+    <t>only one more week until the cook olympics. only one more week to suffer through these posts my friends. 🔥@5garrettl doing his thing! 
+exercise today; somehow, someway. 
+#cp2020olympics https://t.co/vkftxex22c</t>
+  </si>
+  <si>
+    <t>what happens if the olympics get cancelled? https://t.co/fbuqkqq0eu</t>
+  </si>
+  <si>
+    <t>just in: 
+lovlina borgohain, who had already qualified for tokyo olympics, goes down to reigning asian champion by unanimous verdict 0:5 in semis (69kg) of asia/oceania qualifier. 
+ps: its going to be maiden olympics for the 22 yr old. https://t.co/2cwilhb3x1</t>
+  </si>
+  <si>
+    <t>rt @onesportsphl: eumir marcial has punched his way to tokyo! 🥊 
+he becomes the third pinoy athlete to qualify for the 2020 olympics, join…</t>
   </si>
   <si>
     <t>mustangs rock funky 🧦’s &amp;amp; celebrate world down syndrome day, 3/19! prizes awarded &amp;amp; sponsored pals! need socks? c a pal 2 purchase a ticket 2 win a 🧺 of 🧦’s! all profit donated 2 special olympics! @bmhspalsclub @bmstangsports @brickmemorialhs @brick_k12 @bmkeyclub @bricksupt</t>
   </si>
   <si>
-    <t>i wonder when year of the sex olympics will have a special edition dvd or blu ray with remastered, colour recovered and vidfired picture?</t>
-  </si>
-  <si>
-    <t>rt @suleen194: exol we have enough time to get to 100m views before 4/8 horror fandom we achieve many things &amp;amp; we skipped the difficulties…</t>
+    <t>@starlingbank, which is based in britain, has been announced as the official banking partner of @teamgb for the tokyo 2020 @olympics games.
+read more here: https://t.co/gl6c62jnht
+#fintech #olympics #starlingbank #neobank #digitalbank #challengerbank #banking #bankingindustry https://t.co/igpgz1zzol</t>
+  </si>
+  <si>
+    <t>boxing: tsukimi namiki, sena irie become 1st japanese women to qualify for olympics 
+ https://t.co/aflhtd4dkz</t>
+  </si>
+  <si>
+    <t>@goalscorerc can see the euros and olympics both not taking place as planned. the format of the euros being in several countries is also a factor in its likely cancellation.</t>
+  </si>
+  <si>
+    <t>@ukreloaded this shits just got real ......... no crisis to write about in the papers. 
+brexit done, harry gone, olympics cancelled.
+no stories
+they will be devoid of print
+even better to wipe our arses on</t>
+  </si>
+  <si>
+    <t>can you imagine an empty-stadium olympics? it could be coming.</t>
+  </si>
+  <si>
+    <t>@mrdanwalker @mariadecezar one of the stand-out moments from the rio olympics!</t>
+  </si>
+  <si>
+    <t>rt @miedemastuff: 🗞️ tokyo olympics schedule 'could still be moved as a last resort.' (metro)
+this summer tokyo olympics could feasibly be…</t>
+  </si>
+  <si>
+    <t>rt @abscbnnewssport: olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/cfs4kffabr</t>
+  </si>
+  <si>
+    <t>outstanding. completely stuck the landing. send him to the olympics. https://t.co/rjofell2u4</t>
+  </si>
+  <si>
+    <t>rt @jon_selvaraj: lovlina borgohain loses by 5-0 ud  to 2018 world silver medalist gong hu of china in the women's 69 kg sf of the asia-oce…</t>
+  </si>
+  <si>
+    <t>rt @sizwedhlomo: wave goodbye to the olympics boys &amp;amp; girls.</t>
+  </si>
+  <si>
+    <t>rt @archiveofkai: this history made by nation's idol kai! so proud of him!
+#kaisongofpassion2year
+#카이_평창독무_2주년
+ https://t.co/pldlkygmou</t>
+  </si>
+  <si>
+    <t>the allen special olympics delegation (delegation)  22nd annual ‘special angels among us’ auction and dinner, held on feb. 15, raised $60k for its athletes. https://t.co/ebyux43xgz</t>
+  </si>
+  <si>
+    <t>[#iwd2020] meet michèle hyron, chief integrator of #tokyo2020 #olympics &amp;amp; #paralympics for #atos! after the #london2012 &amp;amp; #rio2016 games, #tokyo2020 will be the third edition where michèle will be leading the #atosteam! #womenwhosucceed #womenintech https://t.co/fm8b15wmaj</t>
+  </si>
+  <si>
+    <t>olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/vvnhkomvqs #news</t>
+  </si>
+  <si>
+    <t>rt @tomthunkitsmind: if the #coronavirus cancels the 2020 olympics in japan, athletes can do this:
+homeboy created his very own olympics an…</t>
+  </si>
+  <si>
+    <t>rt @sentoddyoung: #icymi: on @foxbusiness, i discussed the human rights violations occurring in china and why that should bar them from hos…</t>
+  </si>
+  <si>
+    <t>@summer_of_love4 if given the chance, will i be expected to do both at the same time...i need to train up for the sex olympics</t>
+  </si>
+  <si>
+    <t>@realjameswoods i was told i had the russian flu in hs...right before the 80’ winter olympics started and the miracle on ice!</t>
+  </si>
+  <si>
+    <t>and the gold medal at the twitter olympics goes to: https://t.co/dohkok60uc</t>
+  </si>
+  <si>
+    <t>@fifaworldcup @fifacom @setoo9 @fecafootofficie so lame  fifa😒 one of africa’s all time greats and yet you talk about an oh “african olympics record” change your ways of acknowledging due credit. the man is one of the world’s all time greats.</t>
+  </si>
+  <si>
+    <t>rt @arunac_official: heartiest congratulations to simranjit kaur qualifies for tokyo olympics who upset 2nd seed mongolian pugilist by unan…</t>
+  </si>
+  <si>
+    <t>rt @preshorner: let's thank these students and coaches for their service to our community! we appreciate your volunteering at the special o…</t>
+  </si>
+  <si>
+    <t>#135daystogo 
+the countdown to the tokyo 2020 olympics is underway. 
+how well do you know the history surrounding the multi-sport event?
+#olympics #olympics2020 #tokyoインパール2020 #tokyo2020 https://t.co/ryeetlrxwm</t>
+  </si>
+  <si>
+    <t>rt @heroesuniform: fauji's rock! congrats and good luck for the olympics 🍀</t>
+  </si>
+  <si>
+    <t>rt @hypebae: with the @tokyo2020 olympics just around the corner, lingerie brand @themissap has enlisted four international athletes for it…</t>
+  </si>
+  <si>
+    <t>he fought the 2018 commonwealth bronze medallist up first (fiji-also fight above) and dominated. second fight was a not so easy win but a convincing one. he only had one more fight in his way to get himself to tokyo olympics, but fell short.</t>
+  </si>
+  <si>
+    <t>rt @washwizards: halftime at special olympics turned into a dance party feat. @johnwall 😂🕺
+#respect | #wizcares https://t.co/mws5g5avqh</t>
+  </si>
+  <si>
+    <t>rt @tokyo2020: relive the moment the #tokyo2020 g-satellite was launched into space! 🚀
+carrying mobile suite #gundam and char’s zaku, they…</t>
+  </si>
+  <si>
+    <t>rt @bbcpankajp: breaking news: six-time world champion mc mary kom (51kg) secures tokyo olympics berth.</t>
+  </si>
+  <si>
+    <t>@andywigmore @lisanandy @uklabour @piersmorgan @gmb spot on
+and then she had the temerity to as piers to apologise 
+deluded....
+try asking her to condemn muslim grooming gangs 
+she is in denial over that as well.
+cant wait for usain bolt to win womens 100mtrs at the olympics</t>
+  </si>
+  <si>
+    <t>indonesia's public works minister comments on our story to say he is optimistic indonesia can host the olympics.  "god willing, by 2032, the new capital will be 15 years old" https://t.co/oltd6zhyk1 https://t.co/6gqsq63izh</t>
+  </si>
+  <si>
+    <t>filming for #itvcentral preparations for the #badminton championship . players looking toward the olympics and perhaps selection for #tokyo @yonex_badminton @badmintonenglnd @badmintonindia https://t.co/xtw7uuytwr</t>
+  </si>
+  <si>
+    <t>rt @khalistanisajo1: proud moment for india and sikhs 🇮🇳❤️
+simranjit kaur pugilist from village chakkar has qualified for tokyo olympics.…</t>
+  </si>
+  <si>
+    <t>rt @rouut: indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/1yyfc3otna https:/…</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/w4ivkawoqq</t>
+  </si>
+  <si>
+    <t>@nbcnews we should have separate transgender league. kind of like the special olympics or wnba.</t>
+  </si>
+  <si>
+    <t>italy cancelled their olympic trials! any solution already to chose their team for the #olympics (this considering the olympics do take place)? #swimming</t>
+  </si>
+  <si>
+    <t>rt @glennconsor: we had a blast! such a pleasure to see the smiles today at the 8th annual dc special olympics @washwizards @washmystics ht…</t>
+  </si>
+  <si>
+    <t>fans barred from tokyo 2020 torch ceremony - via @espn app https://t.co/8yjt5q75wl</t>
+  </si>
+  <si>
+    <t>@picardybreezer couldn’t give two about the olympics to be fair but hope they don’t touch the euros, just want get on holiday in april then it can do what it wants 😂</t>
+  </si>
+  <si>
+    <t>@nikkei the event is not good, but the olympics are ok😷</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/v0wqtxgebb via @satankmkr</t>
   </si>
   <si>
     <t>amit panghal and lovlina borgohain lost their respective semi-finals at the asian boxing olympics qualifiers https://t.co/ifphfrax3o</t>
+  </si>
+  <si>
+    <t>rt @jojjeols: "the world’s fourth-most-populous country unveiled in august plans to build a $34 billion 'smart and green' new capital on th…</t>
+  </si>
+  <si>
+    <t>rt @dmurdoch17: 10yrs on from vancouver 2010 olympics with @evemuirhead in @vancurling 
+bringing back some good memories in this arena, alb…</t>
+  </si>
+  <si>
+    <t>six-time world champion #marykom , #amitpanghal, #simranjjit qualify for tokyo olympics
+read more about the sports news on the paperboy app download now. 
+#paperboy #paperboyapp  #tokyo #olympics #tokoyoolympics  #india #wordlchampions #awarenessredefined #tuesdaymotivation https://t.co/92epmw6plb</t>
+  </si>
+  <si>
+    <t>rt @benjaminbland: perhaps they should focus on building the new capital city first before they try to host the olympics there? sounds like…</t>
+  </si>
+  <si>
+    <t>can’t wait for the wbc i love this shit...and baseball is back in the olympics this summer... 2ninternational tournaments in back to back years !!! https://t.co/jchc9keq4k</t>
+  </si>
+  <si>
+    <t>@sumofollower @g3rtm and it seems more likely than not that the olympics will be cancelled</t>
+  </si>
+  <si>
+    <t>rt @gymcastic: arizona gymnast jade carey, swimmer ryan hoffer among sullivan award semifinalists https://t.co/eomockqjn1</t>
+  </si>
+  <si>
+    <t>nfa unified made a big splash sunday at the shoreline penguin plunge, raising $4,610 to help special olympics and earning the rockin’ school house award as the top high school fundraising team and the emperor club award as the top fundraising team overall! great job, nfa unified! https://t.co/yfroooozsr</t>
+  </si>
+  <si>
+    <t>rt @minspier1: @xklvsive00 i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough…</t>
+  </si>
+  <si>
+    <t>lcpl ritchie godden from @4_rifles has represented the army as part of the combined services culinary arts team at the culinary olympics. the team came away with 🥈 and 🥉 medals, a fantastic result proving that our soldiers can compete with the best in the world! https://t.co/ax9d5sxohf</t>
+  </si>
+  <si>
+    <t>@jayeatman @martcrossy @worldrowing there’s got to be a big question mark over that and the foqr. then the question will be if covid19 isn’t seems to be “under control” by the end of may, what will happen with the olympics??</t>
+  </si>
+  <si>
+    <t>rt @johnbranchnyt: “he’s got a plan. and his plan is basically to be the greatest climber of all time.” among the cool things about reporti…</t>
+  </si>
+  <si>
+    <t>rt @asomputra: from a small village in #assam's golaghat district to #tokyo2020, the amazing journey of boxer @lovlinaborgohai 
+https://t.…</t>
+  </si>
+  <si>
+    <t>rt @powerbreatheuk: study finds evidence of performance enhancements in competitive cyclists after #powerbreathe inspiratory muscle trainin…</t>
+  </si>
+  <si>
+    <t>rt @theeconomist: abe shinzo's problems seem to have begun with the diamond princess cruise ship https://t.co/gn1ca2bcij</t>
+  </si>
+  <si>
+    <t>@dvaugha49207961 and @lisanandy would be happy for mr usain bolt to compete in the womens 100m at the olympics if he decided to recognise as a woman under her leadership of woke @uklabour 
+god help us all.
+fair womens sport is suffering &amp;amp; being undermined by equal rights balony.</t>
+  </si>
+  <si>
+    <t>tokyo olympics | we look forward to winning a medal, says mandeep singh https://t.co/0dfiv0bmzw</t>
+  </si>
+  <si>
+    <t>rt @mescottdouglas: worlds collide: @mollyhuddle in slate. https://t.co/qv8ub1bglb</t>
+  </si>
+  <si>
+    <t>rt @fat___thin: exclusive: indonesia considers 2032 olympics bid for new capital... https://t.co/fqaiuecb0r</t>
+  </si>
+  <si>
+    <t>@pamchenkova @dutchgymnerd @moominwhisky i need miyachi and gonzalez or we might as well just cancel the whole olympics what’s the point</t>
+  </si>
+  <si>
+    <t>@sumofollower it would be really sad for hakuho if the olympics would be cancelled since he wanted this to mark the end of his career :(</t>
+  </si>
+  <si>
+    <t>kevin durant-stephen a. smith feud reignited by olympics rant. https://t.co/sk3gmtw4sf</t>
+  </si>
+  <si>
+    <t>signing up for the winter olympics! https://t.co/ymn4rd2x1v</t>
+  </si>
+  <si>
+    <t>@fancypirate8 what olympics? 🤷🏻‍♂️</t>
+  </si>
+  <si>
+    <t>rt @oldfootball11: indian footballers training barefoot at the olympic training centre at uxbridge, middlesex, during the london olympics (…</t>
+  </si>
+  <si>
+    <t>tokyo olympics 2020 torch lighting ceremony to be held in absence of spectators amid coronavirus threat
+https://t.co/5msbfsfwgh
+#tokyo2020 #olympics #olympictorch #coronavirus #covid19</t>
+  </si>
+  <si>
+    <t>rt @realleoglover32: @mykaylaskinner @mykaylaskinner "the blue canary" is going to dominate the 2020 olympics!🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥🔥 https:…</t>
+  </si>
+  <si>
+    <t>rt @reuters: exclusive: indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country’s not-yet-buil…</t>
+  </si>
+  <si>
+    <t>will coronavirus cancel the tokyo 2020 olympics? https://t.co/7btzjto4pe</t>
+  </si>
+  <si>
+    <t>@g3rtm yeah, but imo, he should have retired as soon as he got that citizenship. his insistence on surviving  for the olympics erodes his reputation considerably.</t>
+  </si>
+  <si>
+    <t>mustangs rock funky 🧦’s &amp;amp; celebrate world down syndrome day, 3/19! prizes awarded &amp;amp; sponsored pals! need socks? c a pal 2 purchase a ticket 2 win a 🧺 of 🧦’s! all profit donated 2 special olympics! @bmhswrestling @brickmemcheer @memorialsga @brickmemnhs @bmhsguidance1</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump @vp ha ... jacksss ... olympics gonna be cancelled? china's gonna hire pence to handle the virus there too?</t>
+  </si>
+  <si>
+    <t>rt @washmystics: it was an epic eighth annual special olympics unified game tonight 💯
+📸 &amp;gt;&amp;gt; https://t.co/jn2pnxfsuz https://t.co/zas3lxixjt</t>
+  </si>
+  <si>
+    <t>rt @afp: nine years after a devastating tsunami sparked disaster at japan's fukushima nuclear plant, the clean-up continues.
+@afp was gran…</t>
+  </si>
+  <si>
+    <t>rt @johnbranchnyt: "who's the guy with the long neck?" 
+thanks to everyone around the world for making this the most-read @nytsports story…</t>
+  </si>
+  <si>
+    <t>sports fans, check your knowledge quotient!!
+#sports #sportsinap #saap #awards #athlete #squash #boxing #tabletennis  #chess #archery #quiz #olympics #olympics2020 #testyourknowledge https://t.co/ho4k4zhyyj</t>
+  </si>
+  <si>
+    <t>rt @inquirersports: world champion nesthy petecio apologized tuesday for failing to meet the expectations of an entire nation hoping to see…</t>
+  </si>
+  <si>
+    <t>@lateroundcorner @realjakevogel limited route runner, already have a field stretcher in hollywood. weak against press coverage. average to below average yac guy. does he have ability yes with alot of potential absolutely. not going to shoot him up the board because he did well in the underwear olympics.</t>
+  </si>
+  <si>
+    <t>rt @counterolympics: the #olympics circus pays no attention, it just 'moves on' https://t.co/gedzozh5sb</t>
+  </si>
+  <si>
+    <t>@drivevolleys 2016 rio olympics delpo v murray.... the sheer level and sustained intensity of it all over like 5 hrs</t>
+  </si>
+  <si>
+    <t>i have 4 tickets for todays women olympics 2020 qualifier football match..our copper queens are playing cameroon!! lets go show them support! dm if you want a ticket😘</t>
+  </si>
+  <si>
+    <t>with coronavirus spreading as fast as it is and officials calling for even small gatherings to be canceled, i just don't see any hope that the olympics can go on this year.
+i hope that instead of canceling it outright, it will just be postponed a year. https://t.co/aedmvbsh8v</t>
+  </si>
+  <si>
+    <t>a. 2020 olympics pictograms (nice?) b. this video to launch them (wut?) 
+https://t.co/ze5rj6jus2</t>
+  </si>
+  <si>
+    <t>rt @jt_sports: tsukimi namiki, sena irie become first japanese female boxers to qualify for olympics https://t.co/vp3etxeii5</t>
+  </si>
+  <si>
+    <t>@mitchellvii retry bedroom olympics.</t>
+  </si>
+  <si>
+    <t>@ngamlahrockster and i wonder why these masais can not compete in the olympics to bring medals for our country</t>
+  </si>
+  <si>
+    <t>@merlinface agreed, tell people who think they have it to quarantine. no test = no case. all about the olympics imo.</t>
+  </si>
+  <si>
+    <t>@iam_erhnehst @violettepromo it means he has stamina 😂😂😂
+he should be competing in olympics 😂😂</t>
+  </si>
+  <si>
+    <t>tentacles of olympic cancellation due to coronavirus would reach around globe https://t.co/5uxiirfbka https://t.co/zkrwkmotuo</t>
+  </si>
+  <si>
+    <t>this is one for the adidas olympic 90s collection collectors: https://t.co/2kex8xizg7 🇦🇺
+#97thvintage #adidas #vintageadidas #90s #sustainablefashion https://t.co/bvtcjhydcv</t>
+  </si>
+  <si>
+    <t>rt @pdchinabusiness: the high-speed railway line connecting beijing and zhangjiakou, the co-host city of the #beijing2022 winter olympics,…</t>
+  </si>
+  <si>
+    <t>rt @isaifpatel: one would think he returned after winning a medal at olympics but he is being warmly welcomed by the society because he had…</t>
+  </si>
+  <si>
+    <t>rt @cmillsnbcs: members of @washwizards @washmystics taking part in the annual special olympics “spread the word to end the word” unified b…</t>
+  </si>
+  <si>
+    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics https://t.co/iw0gj6ikog</t>
+  </si>
+  <si>
+    <t>bryan phillips, always excellent, on cancelling sporting events for the virus.
+https://t.co/2k68xqx8jj https://t.co/ca5deuj0ox</t>
+  </si>
+  <si>
+    <t>mary kom qualified for tokyo olympics after reaching the semi-final at asian boxing
+#marykom #maryamthebravewoman #tokyoolympics #tokyo2020 
+https://t.co/bvw0pny1pf</t>
+  </si>
+  <si>
+    <t>rt @shikokusue: fukushima dreams: a baseball star, a father and their shattered town https://t.co/rmpwjdzhi7</t>
+  </si>
+  <si>
+    <t>seems boxer justis huni has progressed to the final at the asian/oceania qualifiers (having already made the olympics). his semi-final opponent kunkabayev kamshybek is showing as disqualified. 
+any one know why?</t>
+  </si>
+  <si>
+    <t>rt @cnnsport: tokyo 2020 has been dealt its first significant blow
+https://t.co/d2zkqkmg2x</t>
+  </si>
+  <si>
+    <t>rt @mr_mrschristmas: @piersmorgan @gmb i agree with piers, i’m not against transgenders, each to there own. we have female team, male teams…</t>
+  </si>
+  <si>
+    <t>#boxing 
+first up, lovlina borgohain will take on china's hong gu in her 69kg bout in the olympic qualifiers. she has already qualified for the olympics.</t>
+  </si>
+  <si>
+    <t>rt @itayingber: playing behind closed doors will deprive sports of future fans and kill the business in the long-term. it's time for being…</t>
+  </si>
+  <si>
+    <t>olympics japanese style: all 5000 medals will be made from 100% recycled metals, extracted from items donated by the public. by using personal items rather than industrial sources, every donation allows former owners to feel a sense of contribution to the medals and the event.</t>
+  </si>
+  <si>
+    <t>olympics:aren't the olympic games the terrorist activity itself any longer? https://t.co/p441pobvcr</t>
+  </si>
+  <si>
+    <t>the paris 2024 summer olympics will hold the surfing event ... 10,000 miles away! in this lesson, students will learn about teahupo’o, home to some of the world’s most dangerous waves, and explore ethical questions related to surfing.
+https://t.co/8tig9dfjun</t>
+  </si>
+  <si>
+    <t>in 1960 in rome, wilma rudolph became the first american woman to win 3️⃣ gold medals in track and field at a single olympics - gold medals🏅 and world records in the 🥇100, 🥇200 and 🥇4x100-meter relay.
+we honour her during this #womenshistorymonth #womenchampions  #inspiration https://t.co/si4agcemyu</t>
+  </si>
+  <si>
+    <t>shit go both ways and i’m committed to not participating in one sided events at this years dating olympics</t>
+  </si>
+  <si>
+    <t>great olympics taunts hearts of oak ahead of 'accra derby' https://t.co/bqoyx8ze7z</t>
+  </si>
+  <si>
+    <t>why am i not at the olympics? https://t.co/8qchq2keki ผ่าน @youtube</t>
+  </si>
+  <si>
+    <t>nesthy petecio rues failed first shot at tokyo olympics https://t.co/o43ydzdedm</t>
+  </si>
+  <si>
+    <t>rt @highspririt: massive videos by sm militants 🔥 
+@nattyleegh_
+olympics
+https://t.co/pfw3fus7ef
+believe 
+https://t.co/73pjlmthfg
+@capta…</t>
+  </si>
+  <si>
+    <t>rt @dimplezbee: i have 4 tickets for todays women olympics 2020 qualifier football match..our copper queens are playing cameroon!! lets go…</t>
+  </si>
+  <si>
+    <t>read more at https://t.co/q4u4o28d4n #olympics #pierredecoubertin https://t.co/zvlgnjg8yf</t>
+  </si>
+  <si>
+    <t>satwik-chirag among favourites at tokyo olympics: doubles coach https://t.co/rwozgeea2b via @timesofindia</t>
+  </si>
+  <si>
+    <t>mandeep singh was presented with the forward of the year 2019 award by hockey india in their annual ceremony.
+https://t.co/kwhya4vrry</t>
+  </si>
+  <si>
+    <t>@stkyleb1 @gnev2 well i read the olympics will wait until may before making their decision. 
+so i reckon it'll be similar for the euros. 
+i don't know if that helps, but its ridiculous that we are having games go ahead while the rest are stopping. 
+something isn't right.</t>
+  </si>
+  <si>
+    <t>olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/yxxnv4uesl</t>
+  </si>
+  <si>
+    <t>then he snapped on me and was hunting me down bc i didnt know the lyrics to the doja cat song “olympics” which doesnt exist. he was 6’3</t>
+  </si>
+  <si>
+    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help - reuters https://t.co/fmikm89fn4 via @skinnergj</t>
+  </si>
+  <si>
+    <t>organizers of the olympics are insisting the tokyo games will go on as planned this summer https://t.co/1kipitiffn</t>
+  </si>
+  <si>
+    <t>rt @7olympics: “kim brennan! take it home, girl. take it home!”
+remembering @kimmyjcrow's 2016 rio #olympics rowing gold 🥇 https://t.co/1t…</t>
+  </si>
+  <si>
+    <t>rt @himadas8: congratulations @lovlinaborgohai on qualifying for tokyo olympics. its a great moment for all of us. @cmofficeassam @sarbanan…</t>
+  </si>
+  <si>
+    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/vefqypj0ul via @skift #olympics #travel</t>
+  </si>
+  <si>
+    <t>rt @amymek: warning california
+terror-tied socialist, ammar campa-najjar, wins democrat primary election for ca’s 50th district 
+ammar is…</t>
+  </si>
+  <si>
+    <t>it will happen during the tokyo olympics. 
+happened with aflw in 2018 during the winter olympics.
+happens with australian open all the time.
+what’s the big deal? https://t.co/qrl2fyo9tt</t>
+  </si>
+  <si>
+    <t>rt @bfi_official: what a tribute!
+check out today's @htsportsnews as they document indian boxer #ashishkumar incredible story of inspirati…</t>
+  </si>
+  <si>
+    <t>rt @india_allsports: breaking news: 
+vikas krishan, who had already qualified for tokyo olympics, upsets 2 time world championships medalis…</t>
+  </si>
+  <si>
+    <t>rt @benedictrogers: i agree totally. #notobeijing2022
+no 2022 olympics in china, say us senators https://t.co/hdrsvz59mz</t>
+  </si>
+  <si>
+    <t>every single time i watch nbc commentary i'm shocked at how unnecessarily bad it is... there was literally 0 reason to "put into perspective" how difficult morgi's dismount is by bringing up how simone will likely compete it at the olympics bc fig rated it lower than they wanted</t>
+  </si>
+  <si>
+    <t>euros and olympics are most definitely off. the situation is nowhere near stable. https://t.co/7hjenm3h2a</t>
+  </si>
+  <si>
+    <t>tokyo olympics 2020: mandeep singh says indian hockey team wants to win medal at games - firstpost https://t.co/tf55qwnu2v via @skinnergj</t>
+  </si>
+  <si>
+    <t>rt @cbcolympics: figure skating worlds is the latest major sporting event to be hit with coronavirus concerns https://t.co/gf1mkq5ndb</t>
+  </si>
+  <si>
+    <t>olympic flame lighting ceremony closed to public due to covid-19 outbreak | the japan times https://t.co/r649lke3fv</t>
+  </si>
+  <si>
+    <t>rt @julesboykoff: olympic spectacle is a powerful drug. japan lets ppl trickle back into futaba (town hit by fukushima nuclear disaster). t…</t>
+  </si>
+  <si>
+    <t>making fun of someone’s height is still body shaming and it doesn’t matter which one is inherently “worst” because it isn’t “boohoo i have it the hardest :(” olympics. but some of you aren’t ready for that conversation https://t.co/y4tzveqruq</t>
+  </si>
+  <si>
+    <t>@bonaneh cancel the olympics forever tbh all they ever do is cause boatloads of problems for the people who live in and around the hosting area</t>
+  </si>
+  <si>
+    <t>dwarfs coach quartey slams “pathetic” referee akubiem for loss to olympics
+more&amp;gt;&amp;gt;https://t.co/f8xyyhkumx
+#atlfm #atlfmonline https://t.co/qcku6nly1s</t>
+  </si>
+  <si>
+    <t>rt @nytobits: “for some heavenly influence my father said, ‘don’t take her, she is the swimming champion of hungary and one day you will be…</t>
+  </si>
+  <si>
+    <t>rt @cmopb: chief minister @capt_amarinder singh congratulates @simranjitboxer  from chakar village, ludhiana on qualifying for tokyo olympi…</t>
+  </si>
+  <si>
+    <t>massive videos by sm militants 🔥 
+@nattyleegh_
+olympics
+https://t.co/pfw3fus7ef
+believe 
+https://t.co/73pjlmthfg
+@captangh 
+don't complain 
+https://t.co/yxepjdgdlq
+@addiselfgh 
+born bad 
+https://t.co/uc9sohqus6
+future picture 
+https://t.co/llco5i9esh
+#sm4lyf</t>
+  </si>
+  <si>
+    <t>@cyanparade oppression olympics is the perfect word yes</t>
+  </si>
+  <si>
+    <t>having sealed tokyo olympics berths, amit panghal and lovlina borgohain finished the asian qualifiers with bronze medals | #boxing #tokyo2020 https://t.co/8enijayv8w</t>
+  </si>
+  <si>
+    <t>rt @reuters: before the fukushima disaster, iitate was recognized as one of the 'most beautiful villages in japan,' a designation that rema…</t>
+  </si>
+  <si>
+    <t>@serafinavitia @kingcozi @benjaminpdixon are people trying to pretend dime store hillary
+is "blacker than the clintons"?
+joe would lose the handful of states hillary barely won.
+she " was the most blah blah candidate in the history of"
+&amp;amp; moderates are propping up joe like it's the olympics .</t>
+  </si>
+  <si>
+    <t>@yana_yz people are not being tested and being told to just wait at home. that’s it. if no one is tested, numbers don’t go up, olympics go on.</t>
+  </si>
+  <si>
+    <t>rt @nicolepannucci: mustangs rock funky 🧦’s &amp;amp; celebrate world down syndrome day, 3/19! prizes awarded &amp;amp; sponsored pals! need socks? c a pal…</t>
+  </si>
+  <si>
+    <t>assuming they cancel the olympics because of the corona virus, would that mean it’ll hold as soon as it’s convenient or there’ll be an 8yr gap between them? if it’s the former does that mean going forward it’ll hold 4yrs after that or the old dates will hold?</t>
+  </si>
+  <si>
+    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/p2rjynglrq https://t.co/xuzyyvcahc</t>
   </si>
   <si>
     <t>bengal open returns for 2nd edition, tournament to tee-off at #tollygungeclub on march 11; impressive field to feature @tokyo2020 @olympics hopefuls udayan mane @chikkarangappa 
 @naam5 as well as @gangjeer @virajmadappa #bengalopengolf2020 @tatasteelltd https://t.co/ottq23blbu https://t.co/6cuzf6exqw</t>
   </si>
   <si>
-    <t>the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner of the globe, much like the spreading virus that now imperils the opening ceremony on july 24. https://t.co/uqxwdzpazm</t>
-  </si>
-  <si>
-    <t>@thee_ubermensch he was even denied an opportunity to rep nigeria at the olympics. what more ground does he need to hate on nigeria. but nah. he was raised by good parents and it shows.</t>
-  </si>
-  <si>
-    <t>rt @jkylebass: sun yang, the chinese communist party’s national hero, found guilty. the cultural differentials between the west and the chi…</t>
-  </si>
-  <si>
-    <t>@niroshthambar it sure is! olympics here i come!</t>
-  </si>
-  <si>
-    <t>rt @alexrochonva: pictured: the barcelona summer olympics, 1992</t>
-  </si>
-  <si>
-    <t>nesthy petecio rues failed first shot at tokyo olympics https://t.co/wigcpim44q https://t.co/dgh1acsblt</t>
-  </si>
-  <si>
-    <t>rt @auschwitzmuseum: eva szekely dies at 92; survived #holocaust to win olympic gold | szekely, a hungarian jewish woman, became an olympic…</t>
-  </si>
-  <si>
-    <t>@capt_amarinder @simranjitboxer the tokyo olympics is india's best chance to bag some gold medals. with 15 shooters vying for the ultimate glory and prospects in other disciples appearing brighter...this can be india's best show in olympics thus far.</t>
-  </si>
-  <si>
-    <t>rt @pdchinabusiness: the high-speed railway line connecting beijing and zhangjiakou, the co-host city of the #beijing2022 winter olympics,…</t>
-  </si>
-  <si>
-    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia my friend in dubai and europe were going to come here for 4 events and cancelled for 3 of them. samaung, coachella, and nab event in vegas. if this can get under control before the olympics that would be great. my hands are so dry from washing them so much in fear i'll be next.</t>
-  </si>
-  <si>
-    <t>mckinnon who now has changed his name to veronica ivy believes that height anomalies makes him a woman. uh, just no dude.  with lock like that all females have micro-peni. : olympics 2020: are the rules for trans athletes fair? | the economist https://t.co/b0ly4yfgif</t>
-  </si>
-  <si>
-    <t>rt @harasige180: @ecoyuri prime minister abe is hiding the virus infection.
-japan is very dangerous!
-the olympics should be held in london!…</t>
+    <t>rt @nbcnews: the ioc will wait until after the tokyo olympics to publish new guidelines on transgender athletes that are meant to protect i…</t>
+  </si>
+  <si>
+    <t>a bipartisan resolution asks to move the games to another country, since #china has “committed crimes against humanity”
+https://t.co/aawxwjxrgk</t>
+  </si>
+  <si>
+    <t>rt @stopthatgirl7: no don’t do that no. 
+japan’s numbers are low because they’re not actively testing folks like they need to. japan is li…</t>
+  </si>
+  <si>
+    <t>rt @socialistonmain: @serafinavitia @kingcozi @benjaminpdixon are people trying to pretend dime store hillary
+is "blacker than the clintons…</t>
+  </si>
+  <si>
+    <t>cbt is a great meme because it mixes the meta of the now with the shock value of the past. whenever it's brought up, i think of things like pain olympics, but i like that it never needs to go that far.</t>
+  </si>
+  <si>
+    <t>rt @iain_mk2: @millsdonnamarie @jasonvanschoor do you know what the current death rate is in japan? no, neither do i. you'd need to know th…</t>
+  </si>
+  <si>
+    <t>@mitsyarty @tshep42 @acgrayling it's the olympics this year. maybe they need him for a twatathon.</t>
+  </si>
+  <si>
+    <t>rt @nhkworld_news: people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #c…</t>
+  </si>
+  <si>
+    <t>tuesday at cheltenham rite up there with anything in sport!! the equine olympics begins and @itvracing the opening show has just gave me goosebumps 🐎🐎🐎 few winners on day 1 would be lovely</t>
+  </si>
+  <si>
+    <t>vikas - the boss
+india's @officialvkyadav fought like a warrior to beat the seed 2 of the tournament to match into the finals of the asia /oceania olympics qualifiers 69kg.
+he faces the boxer from jordan 🇯🇴 tomorrow in finals
+congratulations 🎊 🎊
+📸 @olympicchannel https://t.co/h2407cztxv</t>
+  </si>
+  <si>
+    <t>#gameonx volleyball: uganda to take on egypt, mozambique and guinea in entebbe for that precious olympics 2020 slot. do we have a chance? join the conversation here: https://t.co/i9cebfgzvn https://t.co/y0sbjxjtgw</t>
+  </si>
+  <si>
+    <t>rt @jt_osaki: in an assessment that further bodes ill for the tokyo #olympics, a panel of experts predicts the #coronavirus saga could drag…</t>
+  </si>
+  <si>
+    <t>rt @ddnewslive: eight indian boxers including london olympics bronze medalist mc #marykom qualify for upcoming #tokyoolympics, with this in…</t>
+  </si>
+  <si>
+    <t>rt @imranirampal: congratulation @simranjitboxer on qualifying for the tokyo olympics . all the best for the semi final .</t>
+  </si>
+  <si>
+    <t>us presidential election, tokyo olympics cancelled? engineered pandemic ushers in world government
+march 9, 2020
+https://t.co/ngf5kidjuo</t>
+  </si>
+  <si>
+    <t>rt @bfi_official: ticket to #tokyo2020- 6⃣
+no 1 seed, @boxerpanghal is through to his first olympics games as he won his quarter-final bou…</t>
+  </si>
+  <si>
+    <t>indonesian president joko widodo is weighing an audacious 2032 olympics bid centered on the country’s not-yet-built new capital and is in early talks with softbank's masayoshi son and other investors for support.</t>
+  </si>
+  <si>
+    <t>rally 4 respect!
+we talked about inclusion within our classroom, school, and communities while learning more about special olympics. can’t wait to celebrate our school olympiads later this week!
+#rally4respect… https://t.co/fxrp2fpcyh</t>
+  </si>
+  <si>
+    <t>rt @f_potkin: what could beat softbank chief masayoshi son helping indonesia's building its new capital of the future? son possibly assisti…</t>
+  </si>
+  <si>
+    <t>japan's 2011 fukushima nuclear disaster marked a turning point for this father and son: for one it was the end of the life he knew, for the other it was a beginning https://t.co/w0yj8zvnh0 by @saitomri #tokyo2020 https://t.co/sezygppwog</t>
+  </si>
+  <si>
+    <t>first india will need to escape pool a which includes defending champions #argentina and world number one #australia.
+@thehockeyindia #hockey #tokyo2020 #tokyoolympics @tokyo2020 
+https://t.co/q6xhzswqm4</t>
+  </si>
+  <si>
+    <t>@kellyring @cecsimpson @libselfowns @raheemkassam i’m not frail in any way. i coach a special olympics program. one of the goals of special olympics is educating people about the harm of using of the “r” word as an insult. anyone who in 2020 chooses to use is not someone i need to interact with on twitter.</t>
+  </si>
+  <si>
+    <t>all hail the queen 🙌🏼
+some words of wisdom from the skipper @imranirampal herself as the indian women's hockey team begin their preparations for the olympics in full swing! 
+#indiakagame @media_sai @cmo_odisha @sports_odisha  @indiasports @abpnews
+https://t.co/eyz7ep4vzr</t>
+  </si>
+  <si>
+    <t>@roordedonk mine too.. this is so sad. i don’t want this for her 😢 and i really hope she can play at the olympics still. especially for her, for hs too ofc! but even more for daan ❤️</t>
+  </si>
+  <si>
+    <t>coronavirus diaries: i’m trying to make the olympics that might not happen. https://t.co/f2yelnoyzs</t>
+  </si>
+  <si>
+    <t>the tokyo 2020 olympic torch lighting ceremony at the site of ancient olympia will be staged without spectators on thursday in order to prevent the spread of the coronavirus, greece's olympic committee says. https://t.co/rwjzrgkliz</t>
+  </si>
+  <si>
+    <t>rt @kolyisrael14: jeremy is a proud zionist and  he's going to represent team israel in baseball at the tokyo 2020 olympics! 
+if we want th…</t>
+  </si>
+  <si>
+    <t>"olympics or not, japan wheelchair dancer has message: diversity is cool" by reuters via nyt https://t.co/cpmrvklnth #disabilityinthenews</t>
+  </si>
+  <si>
+    <t>rt @india_allsports: asia/oceania boxing qualifier: indian boxers' status: 
+4 out of 8 male boxers have qualified for tokyo olympics (amit…</t>
+  </si>
+  <si>
+    <t>@mike_vecchio @karen_vecchio way to represent @karen_vecchio, mike! however, i know you and you know you want to do this! enjoy! thanks for supporting the special olympics, captain canada! 🇨🇦😁</t>
+  </si>
+  <si>
+    <t>rt @outlookindia: first india will need to escape pool a which includes defending champions #argentina and world number one #australia.
+@t…</t>
+  </si>
+  <si>
+    <t>@redbull can't have @johanssoemil resting on his laurels can we? we need to see slopestyle in the @olympics!!</t>
+  </si>
+  <si>
+    <t>you watch: the olympics will be cancelled, lady gaga won't go on tour, but uk universities will invite thousands of applicants to recruitment events on campus, and will protest any order to stop.</t>
+  </si>
+  <si>
+    <t>rt @quicktake: meet sky brown, the world's youngest pro skateboarder set to compete at the #tokyo2020 olympics https://t.co/c099xdbgaw</t>
+  </si>
+  <si>
+    <t>@richardwellings but the bbc will continue to fly lots of staff on a tax payers jolly to watch the olympics and euro championships, staying in very nice expensive hotels and eating red meat! 😂</t>
+  </si>
+  <si>
+    <t>rt @onesportsphl: philippine sports officials said they expect around 18 to 20 filipino athletes to make it to the 2020 tokyo olympics.
+📝…</t>
+  </si>
+  <si>
+    <t>people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #coronavirus outbreak. an nhk opinion poll provides a look at the growing anxieties stemming from the epidemic. #covid19 #tokyo2020
+https://t.co/i6wkpxhark</t>
+  </si>
+  <si>
+    <t>@jocelynjohnsin @muqingmq govt has full control of internet.  the same chinese  govt lies to many people, not just its own.  anyone remember the scandals of the olympics of lying about women's gymnastics ages etc.  the chinese govt controls all info flow and and out, no freedom of speech/info. ...</t>
+  </si>
+  <si>
+    <t>it won't just be the thousands of athletes who will miss what may be a once-in-a-lifetime opportunity. https://t.co/hgm9ultxad</t>
+  </si>
+  <si>
+    <t>the boxing is back on! 🥊
+watch the qualifiers live from amman right here: 
+https://t.co/jierrhrksq
+#boxing #roadtotokyo2020 @olympics</t>
+  </si>
+  <si>
+    <t>@matthewjdonovan @faisalislam @delong the olympics can be run without spectators, with only athletes and technical officials!</t>
+  </si>
+  <si>
+    <t>coronavirus outbreak will scupper japan’s dream of hosting the tokyo olympics https://t.co/0pe8ippwr5</t>
+  </si>
+  <si>
+    <t>rt @cyanparade: look you are privileged af and no one is going to punch you to death for being a cis straight male you can stop your oppres…</t>
+  </si>
+  <si>
+    <t>rt @india_allsports: just in: 
+top seed amit panghal, who had already qualified for tokyo olympics, goes down to reigning olympic medalist…</t>
+  </si>
+  <si>
+    <t>rt @fifacom: @fifaworldcup @setoo9 @fecafootofficie and when cameroon won @olympics gold in 2000, no prizes for guessing who fired them to…</t>
+  </si>
+  <si>
+    <t>rt @skift: olympics cancellation would spell heavy losses for many in tourism sector https://t.co/r955epn5cs</t>
+  </si>
+  <si>
+    <t>rt @rdubenalvarez: @xhhlale6wwfvp3j @donnamariewil18 hi yoko, thank you very much, a big hug and have a great day. every day closer to the…</t>
+  </si>
+  <si>
+    <t>olympics torch lighting ceremony will be closed to the public because of coronavirus https://t.co/mhnachsafb https://t.co/bvtecnrbgo</t>
+  </si>
+  <si>
+    <t>introducing hend zaza: syria’s 11-year-old star, bound for tokyo 2020 https://t.co/e79eqrsonb https://t.co/n8r5ciyof0</t>
+  </si>
+  <si>
+    <t>thomas bach, president of the international olympic committee, said last week that plans were continuing for the @olympics to go on as scheduled. #covid19 
+https://t.co/aygqkbd7f2</t>
+  </si>
+  <si>
+    <t>exo at the winter olympics -  full performance - pyeongchang 2018 closin... https://t.co/xstxh6kkbj ข้อมูลจาก @youtube</t>
+  </si>
+  <si>
+    <t>rt @kawowosports: grace kathleen noble became the first ugandan ever to qualify for the 2020 tokyo olympics. she also participated in the w…</t>
+  </si>
+  <si>
+    <t>a lot of people stand to lose if olympics are canceled by coronavirus https://t.co/rah47hjybj</t>
+  </si>
+  <si>
+    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/6jo60hflws</t>
+  </si>
+  <si>
+    <t>tokyo 2020 has been dealt its first significant blow
+https://t.co/tjtoj5h0m7</t>
+  </si>
+  <si>
+    <t>rt @kensleyanne: morning musings: i would love to see a true world championships, maybe the year after olympics where literally every gymna…</t>
+  </si>
+  <si>
+    <t>rt @lubelluledotcom: mckinnon who now has changed his name to veronica ivy believes that height anomalies makes him a woman. uh, just no du…</t>
+  </si>
+  <si>
+    <t>@casperbryson @andywigmore @lisanandy @uklabour @piersmorgan @gmb tell that to the female weightlifters being beaten to the olympics by a man. or the cyclists losing world championships to a man. or the mma fighter who had their skull fractured by a man. or to women cricketers in kent who awarded their “cricketer of the year award” to a man.</t>
+  </si>
+  <si>
+    <t>rt @bfi_official: happy holi guys!
+with indian boxers showering punches in the ring in #jordan this is a very special holi for all of us.…</t>
+  </si>
+  <si>
+    <t>rt @doncorleann: when i was young i loved to cook. i grew up watching the food channel so i was always experimenting. then the patriarchy t…</t>
+  </si>
+  <si>
+    <t>@badclockwork @whosandredgiant he wasn't that bad looking back 1976 olympics it's when he starting fucking with his nose the descent to fuglyville began.</t>
+  </si>
+  <si>
+    <t>@heartsofoakgh @accragtolympics you guys have to win against great olympics or else, i will quit support @heartsofoakgh.</t>
+  </si>
+  <si>
+    <t>high-speed camera used by nazis to both accurately measure bomb damage and record jesse owen's victory at the 1936 olympics https://t.co/li04lugajz</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/dijgsvd2hm</t>
+  </si>
+  <si>
+    <t>rt @gailwalden6: i would like to apply to be in the olympics</t>
   </si>
   <si>
     <t>the year is 2024 🔮
@@ -1055,90 +1764,123 @@
 go! 👇</t>
   </si>
   <si>
-    <t>rt @bfi_official: happy holi guys!
-with indian boxers showering punches in the ring in #jordan this is a very special holi for all of us.…</t>
-  </si>
-  <si>
-    <t>sensible, nice, caring me: i hope everyone is well prepared in case corona virus gets worse and has everything they need. i'd better keep check on grandma.
-selfish, honest me: please don't let them cancel the olympics! i love the olympics, i'll cry if they cancel the olympics!</t>
-  </si>
-  <si>
-    <t>god i'm so sad about the tokyo olympics. i think we all know what's gonna happen :(</t>
-  </si>
-  <si>
-    <t>high-speed camera used by nazis to both accurately measure bomb damage and record jesse owen's victory at the 1936 olympics https://t.co/li04lugajz</t>
-  </si>
-  <si>
-    <t>rt @bfi_official: what a tribute!
-check out today's @htsportsnews as they document indian boxer #ashishkumar incredible story of inspirati…</t>
-  </si>
-  <si>
-    <t>rt @tokyo2020: the boxing is back on! 🥊
-watch the qualifiers live from amman right here: 
-https://t.co/jierrhrksq
-#boxing #roadtotokyo20…</t>
-  </si>
-  <si>
-    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics - https://t.co/okrg43wj6f https://t.co/uqevf8ulyv</t>
-  </si>
-  <si>
-    <t>rt @sherni02: #اسلام_کی_شہزادياں 
-minhal sohail the 21-year-old became pakistan’s first female shooter to compete at olympics 2016. althoug…</t>
-  </si>
-  <si>
-    <t>sa archer david barnes earns tokyo olympics selection ... 16 years on from games debut in athens!
-https://t.co/fi4d4wmqpu</t>
-  </si>
-  <si>
-    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help - reuters https://t.co/fmikm89fn4 via @skinnergj</t>
-  </si>
-  <si>
-    <t>@l_a_dunn @israelanderson @clairlemon word on the street is parliament is pushing through a bill that will allow abe to announce a national emergency (usually not in a pms power). ouch...they had a lot riding on the olympics</t>
-  </si>
-  <si>
-    <t>@_wermi cant tell if this shit is generic or sports oriented
-stuff that would be given away at mario &amp;amp; sonic olympics sales n shit</t>
+    <t>@kagutamuseveni this is a joke and total waste in history of olympics . this is damaging a “olympic”@berraf_mustapha amedal of killing and torture yes for him @kagutamuseveni .</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>fwit olympics https://t.co/72go6l7pkx</t>
+  </si>
+  <si>
+    <t>@jimodonnell2 it's certainly a supportable opinion. my guess is the olympics will soon die a natural death unless they're completely reinvented. i still like the idea of the olympics, but hate that they've been co-opted by capitalism.</t>
+  </si>
+  <si>
+    <t>@kapil857 @kapil857 any link to know how points are given and how seeding will be done at the olympics?</t>
+  </si>
+  <si>
+    <t>rt @media_sai: what a superb performance by @simranjitboxer as she beats 2nd seeded namuun monkhor 5-0 in the women’s 60 kg quarterfinals a…</t>
+  </si>
+  <si>
+    <t>rt @theeconomist: japan may have to cancel the olympics https://t.co/agonjcpwcm</t>
+  </si>
+  <si>
+    <t>rt @gitson_shiggles: sorry, can't. still training for a gold medal in the overthinking olympics.</t>
+  </si>
+  <si>
+    <t>@wgrz i am the mom of one of the wny athletes who is in the pool of candidates for this summer's olympics (emily is among the 20 athletes training in california for 14 coveted spots on the usa rugby team).  she took this entire year off from college to train.</t>
+  </si>
+  <si>
+    <t>rt @kevinoconnornba: how is brian phillips so freaking good with words? https://t.co/vrq4hopkch</t>
+  </si>
+  <si>
+    <t>rt @reuters: fukushima dreams: a baseball star, a father and their shattered town https://t.co/tdlvdvbzpn by @saitomri #tokyo2020 https://t…</t>
+  </si>
+  <si>
+    <t>rt @mbsportsonline: olympics qualifier: carlo paalam, irish magno relegated to boxoffs | @nickspeaks 
+https://t.co/u2f3zztzuo</t>
+  </si>
+  <si>
+    <t>rt @olaf_atos: [#iwd2020] meet michèle hyron, chief integrator of #tokyo2020 #olympics &amp;amp; #paralympics for #atos! after the #london2012 &amp;amp; #r…</t>
+  </si>
+  <si>
+    <t>#gameonx national sports federations discuss roadmap to tokyo olympics 2020. join the convo here: https://t.co/i9cebfgzvn https://t.co/qzc8jtd7or</t>
+  </si>
+  <si>
+    <t>newsdeck: indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/ldtswck8oo by reuters</t>
+  </si>
+  <si>
+    <t>rt @rijijuoffice: world #1 @boxerpanghal has qualified for #tokyo2020, which will be his 1st olympics, after a hard-fought 4-1 win over car…</t>
+  </si>
+  <si>
+    <t>rt @media_sai: amit in olympics!
+#topsathlete and world #1 @boxerpanghal advances to his 1st olympics after a hard-fought 4-1 win over carl…</t>
+  </si>
+  <si>
+    <t>olympic flame lighting ceremony closed to public due to covid-19 outbreak | the japan times https://t.co/hkhxbpebar</t>
+  </si>
+  <si>
+    <t>327 national gold medals &amp;amp; 47 medals in international competition. received tamgha-e-imtiaz at the age of 19. it was an honour and pleasure meeting olympics swimmer @kirankhanlive aka ‘golden girl’ that too on #internationalwomensday.  keep shining kiran!
+#hblpslv #hamarayheroes https://t.co/quqlc9vnxq</t>
+  </si>
+  <si>
+    <t>rt @nbcswizards: "get light real quick"
+@johnwall crushed the special olympics halftime dance party https://t.co/e0qlyaolcx</t>
+  </si>
+  <si>
+    <t>rt @shamindermahi16: heartiest congratulations to simranjit kaur who qualified for tokyo olympics in boxing. she hails from chakkar village…</t>
+  </si>
+  <si>
+    <t>rt @washwizards: an amazing night at our eighth annual special olympics unified game!
+📸 | https://t.co/6svpdnwa44 https://t.co/jrp7tsvbvc</t>
+  </si>
+  <si>
+    <t>osaka, japan
+newly created gold medals for the 2020 tokyo olympics and paralympics go on display at the japan mint
+photo: kyodo https://t.co/vgpy34mk1h</t>
+  </si>
+  <si>
+    <t>rt @marshallbburke: for change in mortality rate, i use excellent paper by he et al 2016, who used quasi-experimental variation in air poll…</t>
+  </si>
+  <si>
+    <t>rt @kirenrijiju: i'm extremely delighted to inform that our top seed boxer @boxerpanghal has qualified for the #tokyo2020 #olympics! he is…</t>
   </si>
   <si>
     <t>@stars_tyrant now i have to move up from branch champion to regional champion and then hopefully i can represent the uk at the marmite olympics</t>
   </si>
   <si>
-    <t>rt @cityofpomo: congratulations to reid and fiona who brought home a total of 7 medals from the 2020 special olympics canadian winter games…</t>
-  </si>
-  <si>
-    <t>rt @coreyjwallace: overall not a bad poll for pm abe. most pessimism on the economic fallout, whether olympics can be held on time.</t>
-  </si>
-  <si>
-    <t>rt @263chat: tokyo 2020 has been dealt its first significant blow
-https://t.co/tjtoj5h0m7</t>
-  </si>
-  <si>
-    <t>rt @nytobits: “for some heavenly influence my father said, ‘don’t take her, she is the swimming champion of hungary and one day you will be…</t>
-  </si>
-  <si>
-    <t>@solaadio i actually thought it was a dead man lying in a pool of blood,  until i watched my 1st olympics game, atlanta '96.</t>
-  </si>
-  <si>
-    <t>@emmaadorgan it disappeared just like women’s olympics this year😚</t>
-  </si>
-  <si>
-    <t>rt @sentoddyoung: #icymi: on @foxbusiness, i discussed the human rights violations occurring in china and why that should bar them from hos…</t>
-  </si>
-  <si>
-    <t>rt @clintoncity_ccs: check out wbir’s coverage of our blaze special olympics!   https://t.co/73psqjjjc9</t>
-  </si>
-  <si>
-    <t>tokyo 2020 has been dealt its first significant blow
-https://t.co/d2zkqkmg2x</t>
-  </si>
-  <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/dijgsvd2hm</t>
-  </si>
-  <si>
-    <t>signing up for the winter olympics! https://t.co/ymn4rd2x1v</t>
-  </si>
-  <si>
-    <t>making fun of someone’s height is still body shaming and it doesn’t matter which one is inherently “worst” because it isn’t “boohoo i have it the hardest :(” olympics. but some of you aren’t ready for that conversation https://t.co/y4tzveqruq</t>
+    <t>will the olympics be postponed? back in the day wars were postponed for the olympics. during the second greco-persian war in 480 bc xerxes invasion could not be met because of the olympic truce.</t>
+  </si>
+  <si>
+    <t>rt @donnantwich: daddy, i want to be in the olympics.
+then you'll have to be faster and stronger than men my daughter.
+but daddy, that's…</t>
+  </si>
+  <si>
+    <t>playing behind closed doors will deprive sports of future fans and kill the business in the long-term. it's time for being flexible and innovative to confront this crisis.
+#innovation #sports #olympics #coronavirus #covid19
+https://t.co/fe4g7ezl97</t>
+  </si>
+  <si>
+    <t>rt @cdennett: @bagtrick @bbc5live @emmabarnett i turned the victoria derbyshire programme off as yet again it was a woman centric show as u…</t>
+  </si>
+  <si>
+    <t>rt @fredkatz: john wall and gary payton ii among wizards helping out at a scrimmage between the dc special olympics team and the virginia o…</t>
+  </si>
+  <si>
+    <t>prof gerry thomas remarks in @japantimes on the risk posed by radiation hot spots near fukushima's olympic sites "is this a significant health concern? absolutely not... you would be mad to turn down the chance of representing your country at the olympics” https://t.co/74fhj1abpr https://t.co/wyfks5ybzt</t>
+  </si>
+  <si>
+    <t>@realdonaldtrump @stevenpalazzo the olympics have been once every two years. i want you to return to once every four years.</t>
+  </si>
+  <si>
+    <t>@andrewgosling16 exactly. they should close the tube but a leisure event, such as cheltenham, indian wells, even the olympics should definitely be shut down. transport is essential but in italy even this is shut.</t>
+  </si>
+  <si>
+    <t>rt @bright_klenam: @heartsofoakgh @accragtolympics you guys have to win against great olympics or else, i will quit support @heartsofoakgh.</t>
+  </si>
+  <si>
+    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/muyhvccmef by @skift #travel https://t.co/z3aenu3jsg</t>
   </si>
   <si>
     <t>#coronavirusimpact: the tokyo 2020 olympics torch-lighting ceremony in ancient olympia will be the first in more than 35 years to be held without spectators
@@ -1146,384 +1888,32 @@
 https://t.co/lf0j5oysro</t>
   </si>
   <si>
-    <t>rt @tankschottle: dear twitter friends 
-my nickname is tank 
-am a special olympics athletes 
-19 years of playing special olympics  
-i p…</t>
-  </si>
-  <si>
-    <t>@nhkworld_news they have to happen. i bought tickets and booked a flight and a hotel. and that hotel is very overpriced because of the olympics.</t>
-  </si>
-  <si>
-    <t>athletes aiming for gold medals or sports businesses after the pot of gold, @lboroffs is for you! #olympics #tokyo2020 #businessperformance #sport https://t.co/gr5xtkewvw</t>
-  </si>
-  <si>
-    <t>boxing: tsukimi namiki, sena irie become 1st japanese women to qualify for olympics 
- https://t.co/aflhtd4dkz</t>
-  </si>
-  <si>
-    <t>proceeds will go to the special olympics pennsylvania. https://t.co/depzl1hydn</t>
-  </si>
-  <si>
-    <t>@stevie2012sm crying out loud, tyson fury will not fight again after his bout with anthony joshua. i wished you could have been at the olympics boxing tournament for you to be given a gold medal for fun. get a job and get a life.</t>
-  </si>
-  <si>
-    <t>rt @nbc4sports: the #mystics and #wizards teamed up with special olympics of d.c. and virginia for a unified basketball game at dunbar high…</t>
-  </si>
-  <si>
-    <t>rt @thepslt20: olympics swimmer kiran khan represented pakistan at just 13 in the commonwealth games 2002 in 🏴󠁧󠁢󠁥󠁮󠁧󠁿.  
-over the course of…</t>
-  </si>
-  <si>
-    <t>@realdonaldtrump @stevenpalazzo the olympics have been once every two years. i want you to return to once every four years.</t>
-  </si>
-  <si>
-    <t>@matthewjdonovan @faisalislam @delong the olympics can be run without spectators, with only athletes and technical officials!</t>
-  </si>
-  <si>
-    <t>rt @truthabtchina: the 2022 winter olympics should not be held in china. the world should not support the ccp with their terrible human rig…</t>
-  </si>
-  <si>
-    <t>olympic flame lighting ceremony closed to public due to covid-19 outbreak | the japan times https://t.co/hkhxbpebar</t>
-  </si>
-  <si>
-    <t>world figure skating championships in montreal face cancellation over virus concerns #covid19 https://t.co/eiopnnq9kg</t>
-  </si>
-  <si>
-    <t>@ngamlahrockster and i wonder why these masais can not compete in the olympics to bring medals for our country</t>
-  </si>
-  <si>
-    <t>rt @gaa__joe: "he doesn't strike me as a guy that's going to win the 100mts in the olympics... 💨
-"but he's got a really interesting way of…</t>
-  </si>
-  <si>
-    <t>the only way to see it in the olympics year! the monument to tennis comics is back in 47 years! quotes that hit the hearts of hiromi oka, mrs. butterfly and coach munekata are “aiming for ace! ] a total of three volumes will be pu… https://t.co/nhf5elmq4k https://t.co/9hr6fqmczi</t>
-  </si>
-  <si>
-    <t>rt @traffictechmag: exclusive: uk could benefit from olympics-style momentum if itswc bid accepted
-.
-cc @transportgovuk |@its_uk_org |@tran…</t>
-  </si>
-  <si>
-    <t>@paymentsnet @teamgb @olympics hi there 👋 thanks a lot for sharing the news 👍</t>
-  </si>
-  <si>
-    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia that makes sense. that must be why flu season is typically in the winter. tokyo should be hot by june. summer olympics in september should be interesting. that means they may change the apple event since all eyes will be on the olympics.</t>
-  </si>
-  <si>
-    <t>rt @kishakishi: what recovery?
-i love this beautiful, elegiac story by @saitomri, but it’s hard to read. 
-nine years after the 3.11 quake…</t>
-  </si>
-  <si>
-    <t>rt @hdichter: just a reminder as sporting events are being impacted by #coronavirus #olympics https://t.co/53d6w4ugd2</t>
-  </si>
-  <si>
-    <t>‘that’s why i hang out with white people, so i’m the least privileged there. i lose the privilege olympics every time’</t>
-  </si>
-  <si>
-    <t>rt @rrexpress: it's #womenshistorymonth and we're tipping our cap to @catosterman! she is our next bobblehead, and first female, in the tex…</t>
-  </si>
-  <si>
-    <t>rt @alexolayacastro: in preparation for the 2020 olympics, japan imports ebola and other high-risk viruses so that their country is ready i…</t>
-  </si>
-  <si>
-    <t>fukushima dreams: a baseball star, a father and their shattered town | article [amp] | reuters https://t.co/rlmh1gpn9k</t>
-  </si>
-  <si>
-    <t>@abscbnnewssport cancelled na daw po olympics</t>
-  </si>
-  <si>
-    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics https://t.co/hrc4hv4ix7</t>
-  </si>
-  <si>
-    <t>rt @folarinis: a monarch was just deposed for being too outspoken and how do we react? oba olympics. fantastic</t>
-  </si>
-  <si>
-    <t>rt @olympics: an olympic question to #chanyeol @weareoneexo. #lausanne2020 #gangwon2024 @youtholympics https://t.co/udrbo8fppy</t>
-  </si>
-  <si>
-    <t>rt @oldfootball11: indian footballers training barefoot at the olympic training centre at uxbridge, middlesex, during the london olympics (…</t>
-  </si>
-  <si>
-    <t>it's not about whose doctors are better. this is not the olympics. it's that italy has a far better heath care system than the uk and they can barely cope. https://t.co/f5umlxflln</t>
-  </si>
-  <si>
-    <t>olympics:aren't the olympic games the terrorist activity itself any longer? https://t.co/p441pobvcr</t>
-  </si>
-  <si>
-    <t>then he snapped on me and was hunting me down bc i didnt know the lyrics to the doja cat song “olympics” which doesnt exist. he was 6’3</t>
-  </si>
-  <si>
-    <t>rt @donnantwich: daddy, i want to be in the olympics.
-then you'll have to be faster and stronger than men my daughter.
-but daddy, that's…</t>
-  </si>
-  <si>
-    <t>rt @itsjiayis: super nova games 2020 collaborating with tokyo olympics 2020 will also invite japanese artists and professional athletes to…</t>
-  </si>
-  <si>
-    <t>@subparbutinhd @ronakyrl who you teaming up for the olympic denmark team and do you even think their will be an olympics event?</t>
-  </si>
-  <si>
-    <t>#coronavirus #covid19 not sure when decision needs to be made, but if i was ioc i would keep low profile at moment &amp;amp; try protect your brand from comments being made that show disregard for the pandemic.
-fate of olympics may have impacts around the globe https://t.co/bttrnvwf79</t>
-  </si>
-  <si>
-    <t>@heartsofoakgh @accragtolympics agyare should be bench against olympics,i don't see the reason why u should play him ahead of sowah,who does dah ,pls hearts of oak isn't a divisional one team https://t.co/iehfz3qyor mohammed alhasan and sowah as 4&amp;amp;5</t>
-  </si>
-  <si>
-    <t>rt @gablooie: @mattbakerfans @bbccountryfile @bbcone @olympics @nestle @rspca_official @missalexjones @cbbc can you help?!??</t>
-  </si>
-  <si>
-    <t>rt @lisacullen: in #japan, the following are closed due to #coronavirus:
-✘ all schools
-✘ many offices
-✘ disneyland
-✘ baseball, sumo, al…</t>
-  </si>
-  <si>
-    <t>rt @shirai_iii: the last time a filipino gymnast competed in the olympics was in 1968. 
-what carlos yulo has done for philippine sport - a…</t>
-  </si>
-  <si>
-    <t>rt @onefatman: the entire olympics about to go to pound town</t>
-  </si>
-  <si>
-    <t>rt @media_sai: mary back in olympics!
-#topsathlete @mangtec has qualified for #tokyo2020 following a 5-0 win over irish magno in the quarte…</t>
-  </si>
-  <si>
-    <t>rt @nbcolympics: changing the game. literally.
-today, @nbcnewslearn launched a 10-part series spotlighting amazing women in stem careers w…</t>
-  </si>
-  <si>
-    <t>@clairlemon not japan. they have an olympics to host in a few months so everyone relax its all totally ok here 🙃</t>
-  </si>
-  <si>
-    <t>rt @julesboykoff: olympic spectacle is a powerful drug. japan lets ppl trickle back into futaba (town hit by fukushima nuclear disaster). t…</t>
-  </si>
-  <si>
-    <t>@fancypirate8 i love the olympics.  cool to see these incredible athletes</t>
-  </si>
-  <si>
-    <t>rt @harasige200: @kimjungil1984 @who @mazda_pr @ford @keidanren @abeshinzo @npa_koho @toyota_pr @honda @drtedros @davmicrot @draxelrod_who…</t>
-  </si>
-  <si>
-    <t>rt @ndidi_amakaa: @solaadio olu leave your mother police is coming soon=olympics 😂😂😂😂</t>
-  </si>
-  <si>
-    <t>@tatendermusic if we ever went to the olympics for song association, i would win everytime.. https://t.co/ijxkadn51f</t>
-  </si>
-  <si>
-    <t>rt @imranirampal: congratulation @simranjitboxer on qualifying for the tokyo olympics . all the best for the semi final .</t>
-  </si>
-  <si>
-    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/q4c8yd7hmf</t>
-  </si>
-  <si>
-    <t>new post (sky olympics- gymnastics) has been published on make money online - https://t.co/bv9rbs7lg3 https://t.co/jry3gvlygf</t>
-  </si>
-  <si>
-    <t>the evil hindutva #fascists dehumanized others (religious minorities), called dalits 'low caste' &amp;amp; 'untouchables'.
- #standwithkashmir
-@emiratescricket @cricketmonthly @olympics 
-#quitkashmir #kashmirreferendum 
-https://t.co/sbb1ul604b</t>
-  </si>
-  <si>
-    <t>and my cereal tbh. i can make coco pops for olympics 👨‍🍳</t>
-  </si>
-  <si>
-    <t>@gbadamosiadeku6 @olushola_shola first, i thought it was haram to own hotels? secondly is fasting a competitive sport? thirdly what is the point of taking first in the fasting olympics and them resuming your sinful ways right afterwards? bro make we dey sharp abeg.</t>
-  </si>
-  <si>
-    <t>rt @marktaffetmedia: make sure to watch 2x gold medal winner ⁦@claressashields⁩ as a broadcaster today 4:30pmet on the ⁦@olympicchannel⁩ #o…</t>
-  </si>
-  <si>
-    <t>@taylan_gul but that can be said about wilshere and pepe. one broke through the academy at 16 and the other is a representation of the minorities. but do you support them??? that's because football is football. i'm a panafricanist during the world cup and olympics.</t>
-  </si>
-  <si>
-    <t>@wintersdancer they don’t want to lose the olympics is what most people are saying.</t>
-  </si>
-  <si>
-    <t>@tlc27 just to clarify, i could see if the schools had confirmed cases but it was because one girl had it in special olympics and went to a basketball game. instead of even just making those people quarantine. they shut down three schools.</t>
-  </si>
-  <si>
-    <t>i have 4 tickets for todays women olympics 2020 qualifier football match..our copper queens are playing cameroon!! lets go show them support! dm if you want a ticket😘</t>
-  </si>
-  <si>
-    <t>rt @imrahultrehan: from practicing muay thai in her village in baro mukhia in assam to qualifying for tokyo olympics in the 69 kg category,…</t>
-  </si>
-  <si>
-    <t>@goalscorerc can see the euros and olympics both not taking place as planned. the format of the euros being in several countries is also a factor in its likely cancellation.</t>
-  </si>
-  <si>
-    <t>rt @nadjdaniela: it's not about whose doctors are better. this is not the olympics. it's that italy has a far better heath care system than…</t>
-  </si>
-  <si>
-    <t>tokyo olympics 2020: mandeep singh says indian hockey team wants to win medal at games - firstpost https://t.co/tf55qwnu2v via @skinnergj</t>
-  </si>
-  <si>
-    <t>@jimodonnell2 it's certainly a supportable opinion. my guess is the olympics will soon die a natural death unless they're completely reinvented. i still like the idea of the olympics, but hate that they've been co-opted by capitalism.</t>
-  </si>
-  <si>
-    <t>rt @voastevenson: "there is this strange sort of blind obstinacy that is driving the whole thing forward regardless," said noriko hama, an…</t>
-  </si>
-  <si>
-    <t>"there is this strange sort of blind obstinacy that is driving the whole thing forward regardless," said noriko hama, an economist at doshisha university in kyoto https://t.co/pxtd2tnmal @inkstonenews</t>
-  </si>
-  <si>
-    <t>why am i not at the olympics? https://t.co/8qchq2keki ผ่าน @youtube</t>
-  </si>
-  <si>
-    <t>@kagutamuseveni this is a joke and total waste in history of olympics . this is damaging a “olympic”@berraf_mustapha amedal of killing and torture yes for him @kagutamuseveni .</t>
-  </si>
-  <si>
-    <t>@heartsofoakgh @accragtolympics you guys have to win against great olympics or else, i will quit support @heartsofoakgh.</t>
-  </si>
-  <si>
-    <t>rt @khalistanisajo1: proud moment for india and sikhs 🇮🇳❤️
-simranjit kaur pugilist from village chakkar has qualified for tokyo olympics.…</t>
-  </si>
-  <si>
-    <t>rt @abscbnnewssport: olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/cfs4kffabr</t>
-  </si>
-  <si>
-    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/6jo60hflws</t>
-  </si>
-  <si>
-    <t>rt @ctvnews: fate of olympics may have impacts around the globe https://t.co/tqsk67unbw https://t.co/yxk9j0bzog</t>
-  </si>
-  <si>
-    <t>rt @cbcolympics: figure skating worlds is the latest major sporting event to be hit with coronavirus concerns https://t.co/gf1mkq5ndb</t>
-  </si>
-  <si>
-    <t>rt @rexchapman: homeboy created his very own olympics and i’m dead...🤣😭💀 https://t.co/jzrncpsp4w</t>
-  </si>
-  <si>
-    <t>rt @thatcarr: @dotkohlhaas i am waiting for the picture that comes from these puzzle pieces: john lee + dwp union campaign support + ratepa…</t>
-  </si>
-  <si>
-    <t>@roordedonk mine too.. this is so sad. i don’t want this for her 😢 and i really hope she can play at the olympics still. especially for her, for hs too ofc! but even more for daan ❤️</t>
-  </si>
-  <si>
-    <t>@sim_heard1 i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
-  </si>
-  <si>
-    <t>rt @rdubenalvarez: @xhhlale6wwfvp3j @donnamariewil18 hi yoko, thank you very much, a big hug and have a great day. every day closer to the…</t>
-  </si>
-  <si>
-    <t>rt @benjaminbland: perhaps they should focus on building the new capital city first before they try to host the olympics there? sounds like…</t>
-  </si>
-  <si>
-    <t>rt @rick_eichhornr: 3rd islamic wave -- september 11, 2001, eu migrant invasion continues
-just prior: airline hijackings, munich olympics m…</t>
-  </si>
-  <si>
-    <t>#135daystogo 
-the countdown to the tokyo 2020 olympics is underway. 
-how well do you know the history surrounding the multi-sport event?
-#olympics #olympics2020 #tokyoインパール2020 #tokyo2020 https://t.co/ryeetlrxwm</t>
-  </si>
-  <si>
-    <t>much praise from @mairigougeon for @scottishchefs &amp;amp; its culinary team’s success at the recent culinary olympics in stuttgart #cogclovehospitality https://t.co/w4fib0b8o1</t>
-  </si>
-  <si>
-    <t>@merlinface agreed, tell people who think they have it to quarantine. no test = no case. all about the olympics imo.</t>
-  </si>
-  <si>
-    <t>rt @nbcnews: the ioc will wait until after the tokyo olympics to publish new guidelines on transgender athletes that are meant to protect i…</t>
-  </si>
-  <si>
-    <t>#music
-follow 🔛 @ciulinaru49 🔚
-#metoo #competition #ff #alcohol #bitcoin #gold #movies
-#running #thankful #birthday #cryptocurrencies #java #blockchain #influencer #olympics #influencers #datascience #fintech #womenintech #deeplearning #robotics #songs
-https://t.co/ljy09ij6bp</t>
-  </si>
-  <si>
-    <t>indonesian president joko widodo is weighing an audacious 2032 olympics bid centered on the country’s not-yet-built new capital and is in early talks with softbank's masayoshi son and other investors for support.</t>
-  </si>
-  <si>
-    <t>rt @insidethegames: former #boa and #worldsailing chief executive #andyhunt to lead new sport safety group https://t.co/dgtv0e0xvn @teamgb…</t>
-  </si>
-  <si>
-    <t>indian #hockey team striker mandeep singh says they are looking forward to winning a medal at the upcoming tokyo olympic games https://t.co/pqlh2vyfpc</t>
-  </si>
-  <si>
-    <t>they should make old western gun fighting part of the summer olympics (they don’t use live ammo till the gold metal round)</t>
-  </si>
-  <si>
-    <t>lovlina borgohain loses by 5-0 ud  to 2018 world silver medalist gong hu of china in the women's 69 kg sf of the asia-oceania olympic qualifiers.both boxers had already qualified for the olympics though.</t>
-  </si>
-  <si>
-    <t>rt @cqrcmp: great weekend at the vancouver polar plunge in support of @sobcsociety!  our safety bear (2nd from left) is so happy when he ge…</t>
-  </si>
-  <si>
-    <t>@richardwellings but the bbc will continue to fly lots of staff on a tax payers jolly to watch the olympics and euro championships, staying in very nice expensive hotels and eating red meat! 😂</t>
-  </si>
-  <si>
-    <t>@realdonaldtrump the tokyo olympics are unlikely to be the second.</t>
-  </si>
-  <si>
-    <t>if only snowy had fortified himself at the 1908 london olympics when boxing against (then future) english cricket captain jwht douglas he might have secured a gold medal, instead of the silver... https://t.co/urlcxpcnrz https://t.co/mk5nn1n13o</t>
-  </si>
-  <si>
-    <t>rt @amandafama12: i know i can’t control others but come on stupid people . let’s just do a world wide lock down 2 weeks everyone chill wit…</t>
-  </si>
-  <si>
-    <t>mary kom qualified for tokyo olympics after reaching the semi-final at asian boxing
-#marykom #maryamthebravewoman #tokyoolympics #tokyo2020 
-https://t.co/bvw0pny1pf</t>
-  </si>
-  <si>
-    <t>great deep dive from @gdunbarap and @stephenwadeap on what it would mean to cancel the olympics for the first time since ww2 - sports, finance, politics, epidemiology
- https://t.co/nmugk0hkqd</t>
-  </si>
-  <si>
-    <t>rt @media_sai: amit in olympics!
-#topsathlete and world #1 @boxerpanghal advances to his 1st olympics after a hard-fought 4-1 win over carl…</t>
-  </si>
-  <si>
-    <t>"the world’s fourth-most-populous country unveiled in august plans to build a $34 billion 'smart and green' new capital on the forested island of borneo to replace the crowded, polluted megacity of jakarta". yeah, what could possibly go wrong here? https://t.co/qoscaw39rk</t>
-  </si>
-  <si>
-    <t>rt @thefield_in: #boxing 
-sunday: five olympic quotas
-monday: three olympic quotas 
-indian boxers have been in fine form in amman in the…</t>
-  </si>
-  <si>
-    <t>rt @preshorner: let's thank these students and coaches for their service to our community! we appreciate your volunteering at the special o…</t>
-  </si>
-  <si>
-    <t>@dvaugha49207961 and @lisanandy would be happy for mr usain bolt to compete in the womens 100m at the olympics if he decided to recognise as a woman under her leadership of woke @uklabour 
-god help us all.
-fair womens sport is suffering &amp;amp; being undermined by equal rights balony.</t>
-  </si>
-  <si>
-    <t>rt @jojjeols: "the world’s fourth-most-populous country unveiled in august plans to build a $34 billion 'smart and green' new capital on th…</t>
-  </si>
-  <si>
-    <t>rt @lionheart_trust: kevin seaward, assistant principal at @martinhighsch, has qualified for the 2020 olympics after running the second fas…</t>
-  </si>
-  <si>
-    <t>bryan phillips, always excellent, on cancelling sporting events for the virus.
-https://t.co/2k68xqx8jj https://t.co/ca5deuj0ox</t>
-  </si>
-  <si>
-    <t>@ibnabitareq @saajidlipham sorry, tareq. i won’t drink your liberal kool aid. let’s not play the liberal olympics. haram is haram. say it with your chest. homosexuality is forbidden in islam. are you afraid to lose followers?</t>
-  </si>
-  <si>
-    <t>nike lebron 17 readies for olympics with "red/white/blue" colorway https://t.co/o36wg8xsl9 https://t.co/u8pha6g9zc</t>
-  </si>
-  <si>
-    <t>italy cancelled their olympic trials! any solution already to chose their team for the #olympics (this considering the olympics do take place)? #swimming</t>
-  </si>
-  <si>
-    <t>@bigdaddybunce the year is 2060 and mary kom has just qualified for her 15th straight olympics....</t>
+    <t>@wretchardthecat the olympics are stupid.  if they never happened again i wouldn't miss it.</t>
+  </si>
+  <si>
+    <t>curling considers 'radical' new rules to preserve tradition and speed up games | cbc sports https://t.co/kyva2ygoue</t>
+  </si>
+  <si>
+    <t>#breaking: people in #japan are increasingly worried that this summer’s olympics and paralympics will not be held because of the #coronavirus outbreak https://t.co/2acp2lqhj9 https://t.co/1wmxy5feri</t>
+  </si>
+  <si>
+    <t>and the winner gets called up to the olympics. 😭 https://t.co/fikli8w9ot</t>
+  </si>
+  <si>
+    <t>the impact of olympic cancellation would reach around the globe https://t.co/xvarngw28q https://t.co/6fpvw6kiko</t>
+  </si>
+  <si>
+    <t>rt @12news: it won't just be the thousands of athletes who will miss what may be a once-in-a-lifetime opportunity. https://t.co/4g1wdo6qnn</t>
+  </si>
+  <si>
+    <t>rt @abscbnnews: olympics: no spectators at tokyo 2020 games torch lighting ceremony - organizers https://t.co/hrj4sdzxph</t>
+  </si>
+  <si>
+    <t>rt @crawling_nyarly: if the tokyo 2020 olympics gets cancelled due to coronavirus, we’ll have a mario &amp;amp; sonic game based on olympics that n…</t>
+  </si>
+  <si>
+    <t>@deedeelea @saveleamarshes yup. would appreciate pics for our records? 
+you can still see boggy areas from lorry compaction. wrecked the clay path at white house bridge, just built so people could walk/cycle to the olympics. the hedge on homerton rd ripped out &amp;amp; never replaced. promises made &amp;amp; forgotten.</t>
   </si>
   <si>
     <t>tokyo 2020 olympics qualifiers second leg.
@@ -1537,239 +1927,121 @@
 #zsu #copperqueens #roadtotokyo2020 https://t.co/g3orb77lle</t>
   </si>
   <si>
-    <t>a lot of people stand to lose if olympics are canceled by coronavirus https://t.co/rah47hjybj</t>
-  </si>
-  <si>
-    <t>rt @heroesuniform: fauji's rock! congrats and good luck for the olympics 🍀</t>
-  </si>
-  <si>
-    <t>in 1960 in rome, wilma rudolph became the first american woman to win 3️⃣ gold medals in track and field at a single olympics - gold medals🏅 and world records in the 🥇100, 🥇200 and 🥇4x100-meter relay.
-we honour her during this #womenshistorymonth #womenchampions  #inspiration https://t.co/si4agcemyu</t>
-  </si>
-  <si>
-    <t>i read somewhere that prefectures are offering daily wages to freelancers who are affected by the coronavirus but that should be the government’s responsibility. cancel the olympics right now and we’d have way more money to spend on dealing with this</t>
-  </si>
-  <si>
-    <t>rt @uncletimmensgym: dear @latimes - 
-y’all need to fact check this article. several american gymnasts won medals at the world championshi…</t>
-  </si>
-  <si>
-    <t>rally 4 respect!
-we talked about inclusion within our classroom, school, and communities while learning more about special olympics. can’t wait to celebrate our school olympiads later this week!
-#rally4respect… https://t.co/fxrp2fpcyh</t>
-  </si>
-  <si>
-    <t>@sumofollower it would be really sad for hakuho if the olympics would be cancelled since he wanted this to mark the end of his career :(</t>
-  </si>
-  <si>
-    <t>exclusive: as #tokyo2020 scrabbles to keep its #coronavirus hit games on track, indonesia's president weighs a 2032 #olympics 
-bid centered on the country’s not-yet-built new capital, and is in early talks with investors, sources have told reuters: https://t.co/mfliwkpuch https://t.co/lrbuhyirbj</t>
-  </si>
-  <si>
-    <t>wheelchair dancer sets sights on tokyo olympics https://t.co/qhgybumldn  via @skinnergj</t>
-  </si>
-  <si>
-    <t>the boxing is back on! 🥊
-watch the qualifiers live from amman right here: 
-https://t.co/jierrhrksq
-#boxing #roadtotokyo2020 @olympics</t>
-  </si>
-  <si>
-    <t>@japantimes what will happen with the olympics?</t>
-  </si>
-  <si>
-    <t>olympics japanese style: all 5000 medals will be made from 100% recycled metals, extracted from items donated by the public. by using personal items rather than industrial sources, every donation allows former owners to feel a sense of contribution to the medals and the event.</t>
-  </si>
-  <si>
-    <t>latest news from our live coverage of olympics confirms protests. more updates to follow.</t>
-  </si>
-  <si>
-    <t>study: tokyo 2020 cancellation could see japan’s gdp fall 1.4% - sportspro media https://t.co/vr8jb7cw3g</t>
-  </si>
-  <si>
-    <t>rt @fat___thin: exclusive: indonesia considers 2032 olympics bid for new capital... https://t.co/fqaiuecb0r</t>
-  </si>
-  <si>
-    <t>rt @powerbreatheuk: study finds evidence of performance enhancements in competitive cyclists after #powerbreathe inspiratory muscle trainin…</t>
-  </si>
-  <si>
-    <t>rt @dmurdoch17: 10yrs on from vancouver 2010 olympics with @evemuirhead in @vancurling 
-bringing back some good memories in this arena, alb…</t>
-  </si>
-  <si>
-    <t>rt @africancurators: greece’s olympic committee announced monday that no spectators will be allowed at the tokyo 2020 olympics torch lighti…</t>
-  </si>
-  <si>
-    <t>rt @ringer: the coronavirus has already caused more havoc to sports organizers than possibly any medical crisis in history
-https://t.co/bkk…</t>
-  </si>
-  <si>
-    <t>rt @nicolepannucci: mustangs rock funky 🧦’s &amp;amp; celebrate world down syndrome day, 3/19! prizes awarded &amp;amp; sponsored pals! need socks? c a pal…</t>
-  </si>
-  <si>
-    <t>@greg_jenner @bbcsounds @bbcradio4 just got 10/10 on the olympics quiz, so now raiding the herb cupboard for crown material. #champion</t>
-  </si>
-  <si>
-    <t>miko shozoku, shinto shrine maiden wear!
-let's all come to the tokyo 2020 olympics wearing miko shozoku!
-https://t.co/imsxgdlrme</t>
-  </si>
-  <si>
-    <t>the nsas must figure out how their athletes can participate in their respective #tokyo2020 olympics qualifiers https://t.co/6uvjo7yjae via @rapplerdotcom</t>
-  </si>
-  <si>
-    <t>tokyo olympics 2020: public barred from traditional flame lighting ceremony in greece due to coronavirus threat - firstpost https://t.co/gsxacqgmgc via @skinnergj</t>
-  </si>
-  <si>
-    <t>2d - new super mario bros wii
-3d - galaxy/odyssey
-rpg – ttyd
-kart – 7
-sports - 2012 olympics lmao
-party – never played
-other – what https://t.co/bw9u0m5cp9</t>
-  </si>
-  <si>
-    <t>rt @washmystics: it was an epic eighth annual special olympics unified game tonight 💯
-📸 &amp;gt;&amp;gt; https://t.co/jn2pnxfsuz https://t.co/zas3lxixjt</t>
-  </si>
-  <si>
-    <t>fans barred from tokyo 2020 torch ceremony - via @espn app https://t.co/8yjt5q75wl</t>
-  </si>
-  <si>
-    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/muyhvccmef by @skift #travel https://t.co/z3aenu3jsg</t>
-  </si>
-  <si>
-    <t>rt @billsimmons: unnerving state of play as the coronavirus interferes in everyday life - by brian phillips  https://t.co/otkwjrdr8j</t>
-  </si>
-  <si>
-    <t>@obynofranc sufferhead olympics for trash medal 😭 https://t.co/bsuacc6nxo</t>
-  </si>
-  <si>
-    <t>olympics: pinoy athletes continue to vie for slots despite possible postponement of tokyo games https://t.co/xidjghvnym</t>
-  </si>
-  <si>
-    <t>rt @benedictrogers: i agree totally. #notobeijing2022
-no 2022 olympics in china, say us senators https://t.co/hdrsvz59mz</t>
-  </si>
-  <si>
-    <t>nfa unified made a big splash sunday at the shoreline penguin plunge, raising $4,610 to help special olympics and earning the rockin’ school house award as the top high school fundraising team and the emperor club award as the top fundraising team overall! great job, nfa unified! https://t.co/yfroooozsr</t>
-  </si>
-  <si>
-    <t>rt @tokyo2020: 5️⃣ minutes 5️⃣5️⃣kinetic sport pictograms
-#rt and let us know which one is your favourite in the comments below! 👇
-anothe…</t>
-  </si>
-  <si>
-    <t>olympic flame lighting ceremony closed to public due to covid-19 outbreak | the japan times https://t.co/r649lke3fv</t>
-  </si>
-  <si>
-    <t>#coronavirus  olympics torch lighting ceremony will be closed to the public because of coronavirus
-https://t.co/pvv4lqr29z</t>
-  </si>
-  <si>
-    <t>rt @themainichi: boxing: tsukimi namiki, sena irie become 1st japanese women to qualify for olympics 
- https://t.co/aflhtd4dkz</t>
-  </si>
-  <si>
-    <t>rt @bfi_official: ticket to #tokyo2020- 6⃣
-no 1 seed, @boxerpanghal is through to his first olympics games as he won his quarter-final bou…</t>
-  </si>
-  <si>
-    <t>@cyanparade oppression olympics is the perfect word yes</t>
-  </si>
-  <si>
-    <t>will the olympics be postponed? back in the day wars were postponed for the olympics. during the second greco-persian war in 480 bc xerxes invasion could not be met because of the olympic truce.</t>
-  </si>
-  <si>
-    <t>@hingdog @pisceangun doesn't surprise me. australia sold its soul in 2000 after the olympics and became so materialistic. a society that actually cares for one another would not do this.
-also, letting in chinese students via loopholes already, so already we know money is paramount in this country.</t>
-  </si>
-  <si>
-    <t>rt @airnewsalerts: 6 indian boxers qualify for #tokyoolympics 
-https://t.co/lonblbdvvw</t>
-  </si>
-  <si>
-    <t>newsdeck: indonesia considers 2032 olympics bid for new capital city with softbank’s help https://t.co/ldtswck8oo by reuters</t>
-  </si>
-  <si>
-    <t>rt @sentandent: the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner…</t>
-  </si>
-  <si>
-    <t>rt @marshallbburke: for change in mortality rate, i use excellent paper by he et al 2016, who used quasi-experimental variation in air poll…</t>
-  </si>
-  <si>
-    <t>@shaanhaider @huaweimobile @huaweimobileksa @huaweiarabia if this keeps spreading here like it did in china i see everything being cancelled. there needs to be a cure to stop it. i have been planning to go to tokyo in summer as i have never been before. it's also the olympics.</t>
-  </si>
-  <si>
-    <t>this title needs to be in the united states. it’s like usa not winning basketball in the olympics. it’s just not right https://t.co/ccsibu1mw8</t>
-  </si>
-  <si>
-    <t>the paris 2024 summer olympics will hold the surfing event ... 10,000 miles away! in this lesson, students will learn about teahupo’o, home to some of the world’s most dangerous waves, and explore ethical questions related to surfing.
-https://t.co/8tig9dfjun</t>
-  </si>
-  <si>
-    <t>@yahoonewstopics the event is not good, but the olympics are ok😷</t>
-  </si>
-  <si>
-    <t>@nikkei the event is not good, but the olympics are ok😷</t>
-  </si>
-  <si>
-    <t>rt @himadas8: congratulations @lovlinaborgohai on qualifying for tokyo olympics. its a great moment for all of us. @cmofficeassam @sarbanan…</t>
-  </si>
-  <si>
-    <t>2019/20 ghana premier league: week 14 match preview- hearts of oak vs great olympics https://t.co/ijkrgung6v https://t.co/xthjddyyw5</t>
-  </si>
-  <si>
-    <t>rt @johnbranchnyt: "who's the guy with the long neck?" 
-thanks to everyone around the world for making this the most-read @nytsports story…</t>
-  </si>
-  <si>
-    <t>rt @bigdaddybunce: in 2002 i very nearly got a film with the bbc about mary kom - india’s greatest boxer - off the ground. she has just qua…</t>
-  </si>
-  <si>
-    <t>kevin durant-stephen a. smith feud reignited by olympics rant. https://t.co/sk3gmtw4sf</t>
-  </si>
-  <si>
-    <t>great olympics taunts hearts of oak ahead of 'accra derby' https://t.co/bqoyx8ze7z</t>
-  </si>
-  <si>
-    <t>rt @drjitendrasingh: eight indian boxers including london olympics bronze medalist mc #marykom qualify for upcoming #tokyoolympics . with t…</t>
-  </si>
-  <si>
-    <t>@msrena18 @flotus did you see trump mock the disabled reporter on national tv? at least president obama call the head of special olympics and apologized immediately. still waiting for trumps apology... https://t.co/tsa2zsbybx</t>
-  </si>
-  <si>
-    <t>rt @abscbnnews: olympics: pinoy athletes continue to vie for slots despite possible postponement of tokyo games https://t.co/xidjghvnym</t>
-  </si>
-  <si>
-    <t>proud moment for india and sikhs 🇮🇳❤️
-simranjit kaur pugilist from village chakkar has qualified for tokyo olympics. 
-she is 8th boxer the country and first punjabi female boxer to qualify for tokyo olympics. she defeated 2nd seed mongolian pugilist by unanimour verdict win 5.0 https://t.co/eemyvrr3ql</t>
-  </si>
-  <si>
-    <t>what recovery?
-i love this beautiful, elegiac story by @saitomri, but it’s hard to read. 
-nine years after the 3.11 quake, tsunami and nuclear accident, the idea that the region has “recovered” is hard for some to swallow.
-https://t.co/edrzz7vub3</t>
-  </si>
-  <si>
-    <t>@redbull can't have @johanssoemil resting on his laurels can we? we need to see slopestyle in the @olympics!!</t>
-  </si>
-  <si>
-    <t>meet the japanese wheelchair dancer who dreams of performing at olympics ceremony https://t.co/rfdnuv4tju https://t.co/3ixnkhbvfe</t>
-  </si>
-  <si>
-    <t>japanese doctors report sharp falls in cases of ordinary flu. given that 3,300 deaths were attributed to flu in japan in 2018, the good hygiene inculcated in recent months may well have saved far more lives than covid-19 has claimed https://t.co/czxvugeka5</t>
-  </si>
-  <si>
-    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/udcfbsnywq https://t.co/zmub83pz7y</t>
-  </si>
-  <si>
-    <t>it won't just be the thousands of athletes who will miss what may be a once-in-a-lifetime opportunity. https://t.co/hgm9ultxad</t>
-  </si>
-  <si>
-    <t>special olympics event in ic canceled https://t.co/vwytl7icis</t>
+    <t>rt @ittfworld: she's just 1️⃣1️⃣ years old‼️ 😱😱😱 
+meet the youngest athlete to qualify for #tokyo2020 and the youngest ever #tabletennis p…</t>
+  </si>
+  <si>
+    <t>#music
+follow 🔛 @ciulinaru49 🔚
+#metoo #competition #ff #alcohol #bitcoin #gold #movies
+#running #thankful #birthday #cryptocurrencies #java #blockchain #influencer #olympics #influencers #datascience #fintech #womenintech #deeplearning #robotics #songs
+https://t.co/ljy09ij6bp</t>
+  </si>
+  <si>
+    <t>quest for gold: olympics planning continues despite coronavirus concerns
+ https://t.co/lefd6pzcho</t>
+  </si>
+  <si>
+    <t>tokyo 2020 has been dealt its first significant blow
+https://t.co/d2zkqkmg2x</t>
+  </si>
+  <si>
+    <t>olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/e2oqelrfxb https://t.co/qnxkd0dqfe</t>
+  </si>
+  <si>
+    <t>@niroshthambar it sure is! olympics here i come!</t>
+  </si>
+  <si>
+    <t>rt @hdichter: just a reminder as sporting events are being impacted by #coronavirus #olympics https://t.co/53d6w4ugd2</t>
+  </si>
+  <si>
+    <t>@subparbutinhd @ronakyrl who you teaming up for the olympic denmark team and do you even think their will be an olympics event?</t>
+  </si>
+  <si>
+    <t>rt @iosindiaoff: #tokyo2020
+and the streak continues as another boxer from ios family @simranjitboxer qualifies for tokyo olympics.
+a good…</t>
+  </si>
+  <si>
+    <t>in an assessment that further bodes ill for the tokyo #olympics, a panel of experts predicts the #coronavirus saga could drag on and possibly last until next yr, as the virus, unlike influenza, doesn’t seem to be the kind to disappear in tandem with rising temperature https://t.co/9ne8wapvlg</t>
+  </si>
+  <si>
+    <t>@rachelinla_ @huaweimobile @huaweimobileksa @huaweiarabia they are saying that this virus can't survive in heat and during summer or still be over. so let's hope for the best... i heard they ate planning to change the dates of olympics and move out to around september</t>
+  </si>
+  <si>
+    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help
+https://t.co/he1r7dpqnx  https://t.co/he1r7dpqnx</t>
+  </si>
+  <si>
+    <t>rt @wretchardthecat: will the olympics be postponed? back in the day wars were postponed for the olympics. during the second greco-persian…</t>
+  </si>
+  <si>
+    <t>@redbullgaming redbull olympics simulator 2069</t>
+  </si>
+  <si>
+    <t>rt @alexrochonva: pictured: the barcelona summer olympics, 1992</t>
+  </si>
+  <si>
+    <t>contaminated water at nuclear plant still an issue ahead of tokyo olympics - https://t.co/okrg43wj6f https://t.co/uqevf8ulyv</t>
+  </si>
+  <si>
+    <t>rt @chasingiamb: this is so hilariously prurient-fantasy-masquerading-as-science. gent should win an olympics gold medal for pole vaulting…</t>
+  </si>
+  <si>
+    <t>i would go across countries for olympics if they include these fighters. https://t.co/6q9og9p2j1</t>
+  </si>
+  <si>
+    <t>rt @jellingworth: great deep dive from @gdunbarap and @stephenwadeap on what it would mean to cancel the olympics for the first time since…</t>
+  </si>
+  <si>
+    <t>rt @263chat: tokyo 2020 has been dealt its first significant blow
+https://t.co/tjtoj5h0m7</t>
+  </si>
+  <si>
+    <t>the tentacles of canceling the tokyo olympics would reach into every corner of the globe. https://t.co/9v2gnb4bjy https://t.co/jgqbuh23lo</t>
+  </si>
+  <si>
+    <t>just stop it, #indonesia. this place doesn’t even exist yet. just stop. https://t.co/nqhyf5za6a</t>
+  </si>
+  <si>
+    <t>rt @rapplerdotcom: chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athle…</t>
+  </si>
+  <si>
+    <t>nesthy petecio rues failed first shot at tokyo olympics https://t.co/wigcpim44q https://t.co/dgh1acsblt</t>
+  </si>
+  <si>
+    <t>@l_a_dunn @israelanderson @clairlemon word on the street is parliament is pushing through a bill that will allow abe to announce a national emergency (usually not in a pms power). ouch...they had a lot riding on the olympics</t>
+  </si>
+  <si>
+    <t>rt @bwfmedia: .@momota_kento 🇯🇵 addressed media for the first time since his accident earlier this year. find out what he had to say 👇
+#ro…</t>
+  </si>
+  <si>
+    <t>rt @hk_london: listen to our md of @hksports jamie corr speak on @prweekuknews latest podcast about how brands can score gold at the olympi…</t>
+  </si>
+  <si>
+    <t>@bigdaddybunce the year is 2060 and mary kom has just qualified for her 15th straight olympics....</t>
+  </si>
+  <si>
+    <t>sport is kind of silly in and of itself, and often corrupt and harmful in the way it’s organized and sold. underneath all the clichés about “bringing us together” or “bridging our differences,” though, there’s an element of fragile truth.  https://t.co/ikufxbbsqv</t>
+  </si>
+  <si>
+    <t>#plateaunews top stories: al-hassan yakmut: why nigeria won't dowell at tokyo olympics - https://t.co/ddfo1e64j8 #googlealerts</t>
+  </si>
+  <si>
+    <t>rt @cinnaminsonhs: chs physics olympics team finished in third place overall for the year in southeastern pennsylvania physics olympics lea…</t>
+  </si>
+  <si>
+    <t>rt @el_migiurtini: the reer miyi high-jump olympics. the winner gets 55 head of camel. https://t.co/pipirj92mz</t>
+  </si>
+  <si>
+    <t>rt @wbir: a lot of people stand to lose if olympics are canceled by coronavirus https://t.co/q9twd3rkmu</t>
+  </si>
+  <si>
+    <t>nike lebron 17 readies for olympics with "red/white/blue" colorway https://t.co/lb3k1lrdts #sneakers https://t.co/iy67uquhqm</t>
+  </si>
+  <si>
+    <t>@bosnerdley @fiveohindahouse is she trying to do for the olympics what ""taking a knee" is doing for the nfl?</t>
   </si>
   <si>
     <t>#justin #olympicqualifiers #tokyo2020 #boxing
@@ -1777,24 +2049,146 @@
 amit had already qualified for tokyo olympics https://t.co/4nficldijj</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>rt @kevinoconnornba: how is brian phillips so freaking good with words? https://t.co/vrq4hopkch</t>
-  </si>
-  <si>
-    <t>even top athletes love carbs! @johnsonthompson tells @stylistmagazine that she dreams of the #bernerstavern mac and cheese - we don't blame her!
-https://t.co/rnaelagbiv https://t.co/xxcafogfgy</t>
+    <t>@japantimes what will happen with the olympics?</t>
+  </si>
+  <si>
+    <t>meet the japanese wheelchair dancer who dreams of performing at olympics ceremony https://t.co/rfdnuv4tju https://t.co/3ixnkhbvfe</t>
+  </si>
+  <si>
+    <t>rt @airnewsalerts: 6 indian boxers qualify for #tokyoolympics 
+https://t.co/lonblbdvvw</t>
+  </si>
+  <si>
+    <t>olympics or not, japan wheelchair dancer has message: diversity is cool https://t.co/9ofwrjqbzw https://t.co/2jy0aoyv1a</t>
+  </si>
+  <si>
+    <t>rt @nadjdaniela: it's not about whose doctors are better. this is not the olympics. it's that italy has a far better heath care system than…</t>
+  </si>
+  <si>
+    <t>special olympics event in ic canceled https://t.co/vwytl7icis</t>
+  </si>
+  <si>
+    <t>rt @rapplersports: chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athle…</t>
+  </si>
+  <si>
+    <t>the corona virus on the verge of totally messing up the activities on the 2020 calendar, many of the pre-olympic tournaments are being cancelled or postponed but the ioc are hellbent on going ahead with the olympics.</t>
+  </si>
+  <si>
+    <t>rt @cmr_lionesses: ⚽stats:
+zambia🇿🇲 are the opponents against which @onguenegabri  has scored the highest number of goals.
+the indomitable…</t>
+  </si>
+  <si>
+    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/apkmpddizo https://t.co/sfz1j8vd7c</t>
+  </si>
+  <si>
+    <t>rt @nihonidolkassei: daily delivery, day 70🔥
+advertise aichi prefecture today✌️
+a project to support the tokyo olympics
+①tokyo olympic venu…</t>
+  </si>
+  <si>
+    <t>rt @tankschottle: dear twitter friends 
+my nickname is tank 
+am a special olympics athletes 
+19 years of playing special olympics  
+i p…</t>
+  </si>
+  <si>
+    <t>#coronavirus  olympics torch lighting ceremony will be closed to the public because of coronavirus
+https://t.co/pvv4lqr29z</t>
+  </si>
+  <si>
+    <t>olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/cfs4kffabr</t>
+  </si>
+  <si>
+    <t>study: tokyo 2020 cancellation could see japan’s gdp fall 1.4% - sportspro media https://t.co/vr8jb7cw3g</t>
+  </si>
+  <si>
+    <t>japanese doctors report sharp falls in cases of ordinary flu. given that 3,300 deaths were attributed to flu in japan in 2018, the good hygiene inculcated in recent months may well have saved far more lives than covid-19 has claimed https://t.co/czxvugeka5</t>
+  </si>
+  <si>
+    <t>rt @jimmfelton: “virus is bad, might have to cancel the olympics. we should send out someone with a normal name so we don’t distract from t…</t>
+  </si>
+  <si>
+    <t>rt @drjitendrasingh: eight indian boxers including london olympics bronze medalist mc #marykom qualify for upcoming #tokyoolympics . with t…</t>
+  </si>
+  <si>
+    <t>the international olympic committee and local organizers say the games are on, but the clock is ticking!
+#tokyoolympics 
+#tokyo2020
+#coronavirus
+https://t.co/ophzzqf6ng</t>
+  </si>
+  <si>
+    <t>rt @toisports: #breaking #olympicqualifiers #tokyo2020
+@lovlinaborgohai loses 0-5 to hong gu of china in women's 69kg semifinals
+she had…</t>
+  </si>
+  <si>
+    <t>rt @rick_eichhornr: 3rd islamic wave -- september 11, 2001, eu migrant invasion continues
+just prior: airline hijackings, munich olympics m…</t>
+  </si>
+  <si>
+    <t>going to be really interesting to see how they restructure after this. also, if the olympics were to be rescheduled (more likely to be cancelled) they’d probably take place in october, which is where they moved the g1. https://t.co/bf8bk8akci</t>
+  </si>
+  <si>
+    <t>greece’s olympic committee announced monday that no spectators will be allowed at the tokyo 2020 olympics torch lighting ceremony in ancient olympia on thursday due to the coronavirus outbreak.
+#coronavirus</t>
+  </si>
+  <si>
+    <t>@jamiec1979 @pe_mme @lisanandy also trans people have been allowed to compete in the olympics since 2004, none have ever won a gold medal. in fact not one has even made it to the the olympics. you are making an issue of something that hardly exists .</t>
+  </si>
+  <si>
+    <t>kill the olympics. https://t.co/pjwoqeqxxc</t>
+  </si>
+  <si>
+    <t>@clairlemon not japan. they have an olympics to host in a few months so everyone relax its all totally ok here 🙃</t>
+  </si>
+  <si>
+    <t>rt @sherni02: #اسلام_کی_شہزادياں 
+minhal sohail the 21-year-old became pakistan’s first female shooter to compete at olympics 2016. althoug…</t>
+  </si>
+  <si>
+    <t>rt @billsimmons: unnerving state of play as the coronavirus interferes in everyday life - by brian phillips  https://t.co/otkwjrdr8j</t>
+  </si>
+  <si>
+    <t>@fancypirate8 i love the olympics.  cool to see these incredible athletes</t>
+  </si>
+  <si>
+    <t>rt @reuters: japan's 2011 fukushima nuclear disaster marked a turning point for this father and son: for one it was the end of the life he…</t>
+  </si>
+  <si>
+    <t>with all the sickness fears, will tokyo run the olympics this year? https://t.co/11kcuqttqs https://t.co/4kabgsgcte</t>
+  </si>
+  <si>
+    <t>rt @lisacullen: in #japan, the following are closed due to #coronavirus:
+✘ all schools
+✘ many offices
+✘ disneyland
+✘ baseball, sumo, al…</t>
+  </si>
+  <si>
+    <t>rt @abscbnnews: olympics: pinoy athletes continue to vie for slots despite possible postponement of tokyo games https://t.co/xidjghvnym</t>
+  </si>
+  <si>
+    <t>with the format of the olympics this year i have no issue with team selection being too 4 aa at trials!</t>
+  </si>
+  <si>
+    <t>@lisanandy what a wet fish you were on tv this morning. no leadership credentials for you. men running in emailing olympics needs a committee to decide if it's right? not common sensecprevailing your side</t>
+  </si>
+  <si>
+    <t>@sacrasmnazi @clelyly yes first round is tricky, but i am only worried about first round . because my gut says she'll swallow okuhara and ratchanok , although it'll be tough to swallow ratchanok a good potenial quarterfianals seems to bring saina close towards her fourth consecutive olympics</t>
+  </si>
+  <si>
+    <t>rt @newday: japan’s infection rate is under scrutiny as coronavirus casts a shadow over the upcoming summer olympics.
+“japanese epidemiolog…</t>
   </si>
   <si>
     <t>@pgtitour @tokyo2020 @olympics @chikkarangappa @naam5 @gangjeer @virajmadappa @tatasteelltd tee-off is 11th or 12th? thx.</t>
   </si>
   <si>
-    <t>@ukreloaded this shits just got real ......... no crisis to write about in the papers. 
-brexit done, harry gone, olympics cancelled.
-no stories
-they will be devoid of print
-even better to wipe our arses on</t>
+    <t>rt @sportsdeskph: the tokyo 2020 olympic torch lighting ceremony at the site of ancient olympia will be staged without spectators on thursd…</t>
   </si>
   <si>
     <t>sometimes the real subject of a story isn't the one you expected. 
@@ -1803,72 +2197,90 @@
 https://t.co/urzsy6nkyt https://t.co/adtkx5ixx4</t>
   </si>
   <si>
-    <t>rt @reuters: japan's 2011 fukushima nuclear disaster marked a turning point for this father and son: for one it was the end of the life he…</t>
-  </si>
-  <si>
-    <t>leading up to #tokyo2020, here is a wonderful historical journey through the summer olympics with @ap_images. so worth a browse, amazing pictures and incredible moments.
-#olympics #sportsphotos
-https://t.co/vjchfab2vn</t>
-  </si>
-  <si>
-    <t>rt @kathrynresister: should the tokyo 2020 summer olympics go on? for an athlete to lose their dream has got to be heartbreaking. on the ot…</t>
-  </si>
-  <si>
-    <t>fwit olympics https://t.co/72go6l7pkx</t>
-  </si>
-  <si>
-    <t>rt @rapplerdotcom: chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athle…</t>
-  </si>
-  <si>
-    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/iu3cca60cj https://t.co/ooaa0srm1x</t>
-  </si>
-  <si>
-    <t>olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/yxxnv4uesl</t>
-  </si>
-  <si>
-    <t>rt @india_allsports: just in: 
-lovlina borgohain, who had already qualified for tokyo olympics, goes down to reigning asian champion by una…</t>
-  </si>
-  <si>
-    <t>11-year-old syrian table tennis player hend zaza qualifies for olympics https://t.co/wlzi0qnukd https://t.co/kdj9zij35t</t>
-  </si>
-  <si>
-    <t>coronavirus outbreak will scupper japan’s dream of hosting the tokyo olympics https://t.co/0pe8ippwr5</t>
-  </si>
-  <si>
-    <t>rt @jakpost: indonesia considers 2032 olympics bid for new capital city with softbank's help #jakpost https://t.co/p9x3k4ryga</t>
-  </si>
-  <si>
-    <t>the olympics are irreplaceable. 😬#olympics #media https://t.co/ptqwjjvczi</t>
-  </si>
-  <si>
-    <t>rt @claudieeyes: can't wait!!</t>
-  </si>
-  <si>
-    <t>rt @sarahsmendez: hatch reading olympics 2020! so proud of our readers!#hatchtigers #weared97 https://t.co/ohgnyjucuz</t>
-  </si>
-  <si>
-    <t>rt @onesportsphl: eumir marcial has punched his way to tokyo! 🥊 
-he becomes the third pinoy athlete to qualify for the 2020 olympics, join…</t>
-  </si>
-  <si>
-    <t>via @perilofafrica tentacles of olympic cancellation would reach around globe: 2020-03-10t07:38:32z tokyo (ap) — the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner of the globe,… https://t.co/72gexzikrn https://t.co/kr6frdszxh</t>
-  </si>
-  <si>
-    <t>@12news how is it the food that’s least likely to help a person make it to the olympics sponsors the olympics? https://t.co/prcfkgl1ds</t>
-  </si>
-  <si>
-    <t>@markmahdavi @franckw11 @bbcstever @bbcworld georgia did this while the beijing olympics were going on. it was a surprise to russia as it was to everybody else. georgia had intended to reclaim south ossetia, which became independent in 1992. georgia tried to use the olympics as a distraction and cover for their invasion.</t>
-  </si>
-  <si>
-    <t>for now, the international olympic committee says the games are on, but  that could change. https://t.co/rfcsw8nluq</t>
+    <t>rt @truthabtchina: the 2022 winter olympics should not be held in china. the world should not support the ccp with their terrible human rig…</t>
+  </si>
+  <si>
+    <t>rt @bbcsportwales: 🚣‍♀️ @vickythornleygb is aiming to make her third olympics this year. 
+after a silver in the double sculls at rio she's…</t>
+  </si>
+  <si>
+    <t>rt @itgdsports: having sealed tokyo olympics berths, amit panghal and lovlina borgohain finished the asian qualifiers with bronze medals |…</t>
+  </si>
+  <si>
+    <t>rt @tokyo2020: the boxing is back on! 🥊
+watch the qualifiers live from amman right here: 
+https://t.co/jierrhrksq
+#boxing #roadtotokyo20…</t>
+  </si>
+  <si>
+    <t>@mattbakerfans @bbccountryfile @bbcone @olympics @nestle @rspca_official @missalexjones @cbbc can you help?!??</t>
+  </si>
+  <si>
+    <t>nesthy petecio rues failed first shot at tokyo olympics - https://t.co/jonrdawmbu https://t.co/qbig9xiseh</t>
+  </si>
+  <si>
+    <t>rt @kevin10tv: fans barred from tokyo 2020 torch ceremony - via @espn app https://t.co/8yjt5q75wl</t>
+  </si>
+  <si>
+    <t>rt @sentandent: the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner…</t>
+  </si>
+  <si>
+    <t>rt @joebrentmando: if you wanted to time a global pandemic for maximum effect, you’d put it in the middle of an olympics and an american el…</t>
+  </si>
+  <si>
+    <t>@ibnabitareq @saajidlipham sorry, tareq. i won’t drink your liberal kool aid. let’s not play the liberal olympics. haram is haram. say it with your chest. homosexuality is forbidden in islam. are you afraid to lose followers?</t>
+  </si>
+  <si>
+    <t>the impact of olympic cancellation would reach around the globe https://t.co/kkl5azmpof https://t.co/tf63wqnbh5</t>
+  </si>
+  <si>
+    <t>rt @staronline: indonesia considers 2032 olympics bid for new capital city with softbank's help
+https://t.co/he1r7dpqnx  https://t.co/he1r7…</t>
+  </si>
+  <si>
+    <t>the nsas must figure out how their athletes can participate in their respective #tokyo2020 olympics qualifiers https://t.co/6uvjo7yjae via @rapplerdotcom</t>
+  </si>
+  <si>
+    <t>@thefifth_wave forgot about the olympics 😂</t>
+  </si>
+  <si>
+    <t>rt @reuters: #tokyo2020 baseball and softball games will be held in fukushima, which suffered nuclear meltdowns in 2011. organizers hope th…</t>
+  </si>
+  <si>
+    <t>rt @alexshibutani: last night was a dream that became a reality. @maiashibutani and i have worked so hard for this! proud to be the first i…</t>
+  </si>
+  <si>
+    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/q4c8yd7hmf</t>
+  </si>
+  <si>
+    <t>ambitious! #indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country's not-yet-built new capital and is in early talks with #softbank and other investors for support(reuters) https://t.co/zhgmdia3gn</t>
+  </si>
+  <si>
+    <t>rt @cityofpomo: congratulations to reid and fiona who brought home a total of 7 medals from the 2020 special olympics canadian winter games…</t>
+  </si>
+  <si>
+    <t>the future is uncertain and impossible to forecast. we do not try, preferring to follow a process with c.150yrs of data that shows that buying businesses for less than their intrinsic value will, on average and over time, yield above-average returns.
+https://t.co/ncljojzdxj</t>
   </si>
   <si>
     <t>there isn't one insurer that holds all the risk for the cancellation of a major event like the olympics or a world cup. the main counterparty would typically parcel out its own risk to several other so the pain can be shared.</t>
   </si>
   <si>
-    <t>with coronavirus spreading as fast as it is and officials calling for even small gatherings to be canceled, i just don't see any hope that the olympics can go on this year.
-i hope that instead of canceling it outright, it will just be postponed a year. https://t.co/aedmvbsh8v</t>
+    <t>from the special issue: japan’s olympic summer games - past &amp;amp; present. this article comes from the section of branding and identity.  
+opening a storyline in the 2020 olympics
+by @david_leheny
+https://t.co/wrl1jxdeh2 
+#tokyoolympics @japan_olympic https://t.co/9veswjb4sz</t>
+  </si>
+  <si>
+    <t>@lincolnfresno gender determination in athletics, a century old question/problem has worked its way down to middle school events and daily life.  1936 olympics to '68 to 2020.
+https://t.co/rmkretdwqi https://t.co/a1ussyvi80</t>
+  </si>
+  <si>
+    <t>if only snowy had fortified himself at the 1908 london olympics when boxing against (then future) english cricket captain jwht douglas he might have secured a gold medal, instead of the silver... https://t.co/urlcxpcnrz https://t.co/mk5nn1n13o</t>
+  </si>
+  <si>
+    <t>rt @clintoncity_ccs: check out wbir’s coverage of our blaze special olympics!   https://t.co/73psqjjjc9</t>
   </si>
   <si>
     <t>rt @toisports: #justin #olympicqualifiers #tokyo2020 #boxing
@@ -1876,336 +2288,7 @@
 amit had already q…</t>
   </si>
   <si>
-    <t>mandeep singh was presented with the forward of the year 2019 award by hockey india in their annual ceremony.
-https://t.co/kwhya4vrry</t>
-  </si>
-  <si>
-    <t>@realdonaldtrump @vp ha ... jacksss ... olympics gonna be cancelled? china's gonna hire pence to handle the virus there too?</t>
-  </si>
-  <si>
-    <t>outstanding. completely stuck the landing. send him to the olympics. https://t.co/rjofell2u4</t>
-  </si>
-  <si>
-    <t>exclusive: indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country’s not-yet-built new capital and is in early talks with softbank's masayoshi son and other investors for support https://t.co/ibisy1nobk via @f_potkin @uda_maikel https://t.co/xj85ao6qra</t>
-  </si>
-  <si>
-    <t>'you just don’t postpone something on the size and scale of the olympics' https://t.co/pjimuzknoi</t>
-  </si>
-  <si>
-    <t>@mike_vecchio @karen_vecchio way to represent @karen_vecchio, mike! however, i know you and you know you want to do this! enjoy! thanks for supporting the special olympics, captain canada! 🇨🇦😁</t>
-  </si>
-  <si>
-    <t>rt @kawowosports: grace kathleen noble became the first ugandan ever to qualify for the 2020 tokyo olympics. she also participated in the w…</t>
-  </si>
-  <si>
-    <t>rt @gitson_shiggles: sorry, can't. still training for a gold medal in the overthinking olympics.</t>
-  </si>
-  <si>
-    <t>sports fans, check your knowledge quotient!!
-#sports #sportsinap #saap #awards #athlete #squash #boxing #tabletennis  #chess #archery #quiz #olympics #olympics2020 #testyourknowledge https://t.co/ho4k4zhyyj</t>
-  </si>
-  <si>
-    <t>rt @johnbranchnyt: “he’s got a plan. and his plan is basically to be the greatest climber of all time.” among the cool things about reporti…</t>
-  </si>
-  <si>
-    <t>rt @gymcastic: arizona gymnast jade carey, swimmer ryan hoffer among sullivan award semifinalists https://t.co/eomockqjn1</t>
-  </si>
-  <si>
-    <t>rt @bright_klenam: @heartsofoakgh @accragtolympics you guys have to win against great olympics or else, i will quit support @heartsofoakgh.</t>
-  </si>
-  <si>
-    <t>@diraclikesmath @hcactual @2doesnotequal5 @cleokitty @fjbserrano @kyunglahcnn @jamilsmith hypocrisy olympics https://t.co/v5ajsuwizz</t>
-  </si>
-  <si>
-    <t>it’s stressful enough not knowing if the @marathon_mcr will go ahead on 5 april, so can only imagine what athletes training for the olympics are going through.</t>
-  </si>
-  <si>
-    <t>rt @fitbharat: incredible &amp;amp; super talented !
-this boy did 30 somersaults in one go💪🤗there is abundance of natural talent in our country.we…</t>
-  </si>
-  <si>
-    <t>@shawdo3 i salute you you're my hero bro you truly inspire me as a special olympics athlete and i can't thank you enough for that bro i'm very proud of you my hero and champion you're the wind beneath my wings and i'm very proud of you</t>
-  </si>
-  <si>
-    <t>can’t wait for the wbc i love this shit...and baseball is back in the olympics this summer... 2ninternational tournaments in back to back years !!! https://t.co/jchc9keq4k</t>
-  </si>
-  <si>
-    <t>rt @socialistonmain: @serafinavitia @kingcozi @benjaminpdixon are people trying to pretend dime store hillary
-is "blacker than the clintons…</t>
-  </si>
-  <si>
-    <t>rt @olympics: andy murray on the important role of the @olympics in promoting gender equality. https://t.co/8sqdsurfle  @andy_murray #women…</t>
-  </si>
-  <si>
-    <t>rt @amymek: warning california
-terror-tied socialist, ammar campa-najjar, wins democrat primary election for ca’s 50th district 
-ammar is…</t>
-  </si>
-  <si>
-    <t>rt @olympics: inspiring generations of female athletes and the rest of the world. #womensday #iwd2020  #generationequality @simone_biles @n…</t>
-  </si>
-  <si>
-    <t>rt @kazerjoshuaa: #nspc2017-pagadian, zamboanga del sur
-#nspc2018-dumaguete, negros oriental
-#nspc2019-lingayen, pangasinan
-#nspc2020-tugue…</t>
-  </si>
-  <si>
-    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/apkmpddizo https://t.co/sfz1j8vd7c</t>
-  </si>
-  <si>
-    <t>special olympics practice tonight at 5pm in the @louisburghsfcs gym! see you there!!</t>
-  </si>
-  <si>
-    <t>the future is uncertain and impossible to forecast. we do not try, preferring to follow a process with c.150yrs of data that shows that buying businesses for less than their intrinsic value will, on average and over time, yield above-average returns.
-https://t.co/ncljojzdxj</t>
-  </si>
-  <si>
-    <t>@bonaneh cancel the olympics forever tbh all they ever do is cause boatloads of problems for the people who live in and around the hosting area</t>
-  </si>
-  <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help
-https://t.co/he1r7dpqnx  https://t.co/he1r7dpqnx</t>
-  </si>
-  <si>
-    <t>rt @afp: nine years after a devastating tsunami sparked disaster at japan's fukushima nuclear plant, the clean-up continues.
-@afp was gran…</t>
-  </si>
-  <si>
-    <t>@thesquaredcirc3 i was shit hot on kelly from the olympics but his been a little disappointed, really struggled against ray robinson. buatsi is my tip now and will reach world title level</t>
-  </si>
-  <si>
-    <t>rt @jimmfelton: “virus is bad, might have to cancel the olympics. we should send out someone with a normal name so we don’t distract from t…</t>
-  </si>
-  <si>
-    <t>@justinscotsnead @mccache33 i think fear of flooding hospitals is one reason. the government has said that they (the central government) can administer 3,000 tests per day. the cynic in me thinks that they want to keep the reported number low to protect the olympics.</t>
-  </si>
-  <si>
-    <t>rt @rijijuoffice: mary makes her mark, as  @mangtec qualifies for #tokyo2020 following a 5-0 win over irish magno in the quarterfinal of th…</t>
-  </si>
-  <si>
-    <t>great olympics captain gladson awako tips club to beat relegation https://t.co/klobdjatfj https://t.co/filunmsnl4</t>
-  </si>
-  <si>
-    <t>rt @playerstribune: @nnemkadi30 @ibtihajmuhammad @katelyn_ohashi @arigs33 @ecambage @billiejeanking @ufc @pr3pe at the 2018 winter olympics…</t>
-  </si>
-  <si>
-    <t>rt @fifacom: @fifaworldcup @setoo9 @fecafootofficie and when cameroon won @olympics gold in 2000, no prizes for guessing who fired them to…</t>
-  </si>
-  <si>
-    <t>@pinkhedonist 4. women will always “win” a male vs female oppression olympics if your standards are base and biological because men are physically more power and own more resources, rape and violence are real, women are vulnerable. it’s a losing argument.</t>
-  </si>
-  <si>
-    <t>@lincolnfresno gender determination in athletics, a century old question/problem has worked its way down to middle school events and daily life.  1936 olympics to '68 to 2020.
-https://t.co/rmkretdwqi https://t.co/a1ussyvi80</t>
-  </si>
-  <si>
-    <t>indonesia plotting 2032 olympics bid with plans to host the games in city that doesn't exist yet https://t.co/1yyfc3otna https://t.co/yzi9atjrp3</t>
-  </si>
-  <si>
-    <t>curling considers 'radical' new rules to preserve tradition and speed up games https://t.co/eju0zg2eok</t>
-  </si>
-  <si>
-    <t>rt @tomthunkitsmind: if the #coronavirus cancels the 2020 olympics in japan, athletes can do this:
-homeboy created his very own olympics an…</t>
-  </si>
-  <si>
-    <t>rt @cnnsport: tokyo 2020 has been dealt its first significant blow
-https://t.co/d2zkqkmg2x</t>
-  </si>
-  <si>
-    <t>2020 tokyo olympics-bound amit panghal, lovlina borgohain settle for bronze at asian boxing qualifiers https://t.co/71qe1njghl https://t.co/uo6lzryoeg</t>
-  </si>
-  <si>
-    <t>rt @jgarciarn_: i feel like i’m in a real life game of plague inc.☣️
-news headlines reading things like: ▪️“japan considering cancelling o…</t>
-  </si>
-  <si>
-    <t>olympics cancellation would spell heavy losses for many in tourism sector https://t.co/p2rjynglrq https://t.co/xuzyyvcahc</t>
-  </si>
-  <si>
-    <t>if the #coronavirus cancels the 2020 olympics in japan, athletes can do this:
-homeboy created his very own olympics and i’m dead...
-https://t.co/9ui5hmzczw
-via rexchapman
-#votebluenomatterwho</t>
-  </si>
-  <si>
-    <t>think my boy @smiffjo is going to love school this week. tag rugby today and year 5 olympics tomorrow 💪 #schoolsports #tagrugby #plymouth #plymouthalbion</t>
-  </si>
-  <si>
-    <t>aerin is destined for the olympics, but she's quit winning. it costs too much. her dad left and her mom's in jail. where was she? underwater. https://t.co/hj6zoqg5uc #ya #cleanteenreads https://t.co/dlkyfy5fxq</t>
-  </si>
-  <si>
-    <t>day 2: diary of a sleepy kid. after a great night's rest we're already off on the first of the day's activities- hillwalking, camping crafts, zipline, high ropes, manor olympics and abseiling! #lockerbie2020</t>
-  </si>
-  <si>
-    <t>all events in the spring of 2020 - totally canceled. including space olympics
-https://t.co/lqes7tkdzd</t>
-  </si>
-  <si>
-    <t>rt @valaafshar: “what is investment?
-usain bolt won 8 gold medals in 3 olympics, and he only ran for less than 115 seconds on the track, e…</t>
-  </si>
-  <si>
-    <t>rt @doncorleann: when i was young i loved to cook. i grew up watching the food channel so i was always experimenting. then the patriarchy t…</t>
-  </si>
-  <si>
-    <t>@pamchenkova @dutchgymnerd @moominwhisky i need miyachi and gonzalez or we might as well just cancel the whole olympics what’s the point</t>
-  </si>
-  <si>
-    <t>filming for #itvcentral preparations for the #badminton championship . players looking toward the olympics and perhaps selection for #tokyo @yonex_badminton @badmintonenglnd @badmintonindia https://t.co/xtw7uuytwr</t>
-  </si>
-  <si>
-    <t>chef de mission to the 2020 summer olympiad nonong araneta says that the first priority is to be able to bring the athletes to their olympic qualifiers. #coronavirus #ncov https://t.co/rkeaue7wdq</t>
-  </si>
-  <si>
-    <t>@nbcnews we should have separate transgender league. kind of like the special olympics or wnba.</t>
-  </si>
-  <si>
-    <t>rt @abscbnnews: olympics: no spectators at tokyo 2020 games torch lighting ceremony - organizers https://t.co/hrj4sdzxph</t>
-  </si>
-  <si>
-    <t>@miedemastuff i also read it. this is do sad 😢 i really want her to be playing at the olympics. especially for herself bc she wants it so badly. and for us, ofc, but even more for her ❤️</t>
-  </si>
-  <si>
-    <t>two more taiwanese boxers have qualified for the tokyo olympics this summer.</t>
-  </si>
-  <si>
-    <t>@toyotasa @pieterb_sa this is awesome! congrats. not sure about the olympics though... 🙈 #covid2019 #coronamustfall</t>
-  </si>
-  <si>
-    <t>nesthy petecio rues failed first shot at tokyo olympics https://t.co/o43ydzdedm</t>
-  </si>
-  <si>
-    <t>olympics: ph athletes might fly earlier to tokyo to meet quarantine requirement https://t.co/cfs4kffabr</t>
-  </si>
-  <si>
-    <t>rt @cbcolympics: our #christmas present to you all: relive all 41 @teamcanada gold-medal moments of the past decade... just 'cause 🥇🇨🇦 http…</t>
-  </si>
-  <si>
-    <t>@washtimes i think it would be a huge tragedy is the tokyo games were canceled. the olympics is a time when all countries come together and show the pride of their own countries. america especially needs this now…</t>
-  </si>
-  <si>
-    <t>mustangs rock funky 🧦’s &amp;amp; celebrate world down syndrome day, 3/19! prizes awarded &amp;amp; sponsored pals! need socks? c a pal 2 purchase a ticket 2 win a 🧺 of 🧦’s! all profit donated 2 special olympics! @bmhswrestling @brickmemcheer @memorialsga @brickmemnhs @bmhsguidance1</t>
-  </si>
-  <si>
-    <t>signing up for the winter olympics! https://t.co/grxxfdmujk</t>
-  </si>
-  <si>
-    <t>@stkyleb1 @gnev2 well i read the olympics will wait until may before making their decision. 
-so i reckon it'll be similar for the euros. 
-i don't know if that helps, but its ridiculous that we are having games go ahead while the rest are stopping. 
-something isn't right.</t>
-  </si>
-  <si>
-    <t>rt @cjsmonline: great interview with usoc and @theamssm physician @finnoffjonathan  an olympic doctor discusses the effect of the coronavir…</t>
-  </si>
-  <si>
-    <t>@realjameswoods i was told i had the russian flu in hs...right before the 80’ winter olympics started and the miracle on ice!</t>
-  </si>
-  <si>
-    <t>i really hope the olympics won’t be canceled  😔 @olympics @tokyo2020</t>
-  </si>
-  <si>
-    <t>@chellelambourn @taylorlorenz ‘i didn’t know the disrespect me olympics started today’ 🤣🤣🤣🤣 oh yeah i’m here for this thread</t>
-  </si>
-  <si>
-    <t>#plateaunews top stories: al-hassan yakmut: why nigeria won't dowell at tokyo olympics - https://t.co/ddfo1e64j8 #googlealerts</t>
-  </si>
-  <si>
-    <t>nesthy petecio rues failed first shot at tokyo olympics - https://t.co/jonrdawmbu https://t.co/qbig9xiseh</t>
-  </si>
-  <si>
-    <t>@clairlemon @adelaidemoore they’re not canceling the olympics</t>
-  </si>
-  <si>
-    <t>rt @jellingworth: great deep dive from @gdunbarap and @stephenwadeap on what it would mean to cancel the olympics for the first time since…</t>
-  </si>
-  <si>
-    <t>rt @joebrentmando: if you wanted to time a global pandemic for maximum effect, you’d put it in the middle of an olympics and an american el…</t>
-  </si>
-  <si>
-    <t>us presidential election, tokyo olympics cancelled? engineered pandemic ushers in world government
-march 9, 2020
-https://t.co/ngf5kidjuo</t>
-  </si>
-  <si>
-    <t>rt @bbcpankajp: breaking news: six-time world champion mc mary kom (51kg) secures tokyo olympics berth.</t>
-  </si>
-  <si>
-    <t>#breaking #olympicqualifiers #tokyo2020
-@lovlinaborgohai loses 0-5 to hong gu of china in women's 69kg semifinals
-she had already booked her berth for tokyo olympics https://t.co/heqc5zs4v3</t>
-  </si>
-  <si>
-    <t>indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/5trrkghwsj via @satankmkr</t>
-  </si>
-  <si>
-    <t>rt @bykellycohen: hi all - i’m still monitoring all pro + college sports / olympics related news as it pertains to coronavirus. both domest…</t>
-  </si>
-  <si>
-    <t>rt @saitomri: i wrote about baseball. really. https://t.co/kpirnosnpa</t>
-  </si>
-  <si>
-    <t>with the format of the olympics this year i have no issue with team selection being too 4 aa at trials!</t>
-  </si>
-  <si>
-    <t>rt @stopthatgirl7: no don’t do that no. 
-japan’s numbers are low because they’re not actively testing folks like they need to. japan is li…</t>
-  </si>
-  <si>
-    <t>sport is kind of silly in and of itself, and often corrupt and harmful in the way it’s organized and sold. underneath all the clichés about “bringing us together” or “bridging our differences,” though, there’s an element of fragile truth.  https://t.co/ikufxbbsqv</t>
-  </si>
-  <si>
-    <t>@casperbryson @andywigmore @lisanandy @uklabour @piersmorgan @gmb tell that to the female weightlifters being beaten to the olympics by a man. or the cyclists losing world championships to a man. or the mma fighter who had their skull fractured by a man. or to women cricketers in kent who awarded their “cricketer of the year award” to a man.</t>
-  </si>
-  <si>
-    <t>rt @cmr_lionesses: ⚽stats:
-zambia🇿🇲 are the opponents against which @onguenegabri  has scored the highest number of goals.
-the indomitable…</t>
-  </si>
-  <si>
-    <t>rt @sportsdeskph: the tokyo 2020 olympic torch lighting ceremony at the site of ancient olympia will be staged without spectators on thursd…</t>
-  </si>
-  <si>
-    <t>world champion nesthy petecio apologized tuesday for failing to meet the expectations of an entire nation hoping to see her qualify to the 2020 tokyo olympics. https://t.co/ndrle3na9r</t>
-  </si>
-  <si>
-    <t>rt @itgdsports: having sealed tokyo olympics berths, amit panghal and lovlina borgohain finished the asian qualifiers with bronze medals |…</t>
-  </si>
-  <si>
-    <t>rt @sportstarweb: 🌟#internationalwomensday | she might just bring 🇮🇳 its first olympic 🥇 in weightlifting. such is the legacy of
-@mirabai_c…</t>
-  </si>
-  <si>
-    <t>the olympics about to be cancelled. nutsssss.</t>
-  </si>
-  <si>
-    <t>rt @hakoconneman: the japanese government avoids stopping the tokyo olympics, dwarfing coronavirus pcr test targets, testing in densely pop…</t>
-  </si>
-  <si>
-    <t>rt @katyperry: the olympics may be over but dad hats will never die 😎 : https://t.co/8mwcypzab7 https://t.co/oemc7cmdba</t>
-  </si>
-  <si>
-    <t>rt @f_potkin: what could beat softbank chief masayoshi son helping indonesia's building its new capital of the future? son possibly assisti…</t>
-  </si>
-  <si>
-    <t>cancellation of tokyo olympics will affect every corner of the globe much like the coronavirus https://t.co/pg6ysnlzsd</t>
-  </si>
-  <si>
-    <t>prof gerry thomas remarks in @japantimes on the risk posed by radiation hot spots near fukushima's olympic sites "is this a significant health concern? absolutely not... you would be mad to turn down the chance of representing your country at the olympics” https://t.co/74fhj1abpr https://t.co/wyfks5ybzt</t>
-  </si>
-  <si>
-    <t>rt @skatingpooh: i looked through all the sports events in this article (updated 4 hours ago), ~65 postponed, ~71 cancelled, ~64 special ar…</t>
-  </si>
-  <si>
-    <t>rt @chasingiamb: this is so hilariously prurient-fantasy-masquerading-as-science. gent should win an olympics gold medal for pole vaulting…</t>
-  </si>
-  <si>
-    <t>just in: 
-top seed amit panghal, who had already qualified for tokyo olympics, goes down to reigning olympic medalist 2-3 in semis (52kg) of asia/oceania boxing qualifier. 
-ps: amit had defeated the same boxer last year on his way to gold medal in asian championships https://t.co/qxd0d1q68z</t>
+    <t>rt @eggiebabie: making fun of someone’s height is still body shaming and it doesn’t matter which one is inherently “worst” because it isn’t…</t>
   </si>
 </sst>
 </file>
@@ -5081,7 +5164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5722,6 +5805,116 @@
         <v>627</v>
       </c>
     </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\C. Dados\cdados_proj1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70C8785-0100-4818-8C23-01E85A424071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2211,8 +2217,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2222,6 +2228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2264,22 +2278,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2321,7 +2353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2353,9 +2385,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2387,6 +2437,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2562,3162 +2630,3919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="123" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+      <c r="B320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+      <c r="B329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+      <c r="B358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+      <c r="B364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+      <c r="B365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
+      <c r="B383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
+      <c r="B400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
+      <c r="B431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
+      <c r="B434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
+      <c r="B437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+      <c r="B438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
+      <c r="B439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+      <c r="B443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+      <c r="B444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
+      <c r="B445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
+      <c r="B450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
+      <c r="B451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
+      <c r="B452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
+      <c r="B454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
+      <c r="B455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
+      <c r="B457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
+      <c r="B461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
+      <c r="B464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
+      <c r="B465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
+      <c r="B469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
+      <c r="B470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
+      <c r="B473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
+      <c r="B475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
+      <c r="B477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
+      <c r="B479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
+      <c r="B483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
+      <c r="B484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
+      <c r="B490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
+      <c r="B491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
+      <c r="B492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
+      <c r="B493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
+      <c r="B494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
+      <c r="B496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
+      <c r="B497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
+      <c r="B500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="B501" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A121" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>627</v>
       </c>

--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B39A975-87D7-403C-9AA6-B0B190DCDD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Classification</t>
   </si>
   <si>
     <t>rt @saitomri: i wrote about baseball. really. https://t.co/kpirnosnpa</t>
@@ -2294,7 +2308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -2358,6 +2372,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2404,7 +2426,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2436,9 +2458,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2470,6 +2510,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2645,2516 +2703,3272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5163,756 +5977,759 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A149"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/olympics.xlsx
+++ b/olympics.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22704"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B39A975-87D7-403C-9AA6-B0B190DCDD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B2DE313-2A06-4F98-8C8C-5C3F8603BDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="603">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2133,176 +2133,6 @@
 #tokyo2020
 #coronavirus
 https://t.co/ophzzqf6ng</t>
-  </si>
-  <si>
-    <t>rt @toisports: #breaking #olympicqualifiers #tokyo2020
-@lovlinaborgohai loses 0-5 to hong gu of china in women's 69kg semifinals
-she had…</t>
-  </si>
-  <si>
-    <t>rt @rick_eichhornr: 3rd islamic wave -- september 11, 2001, eu migrant invasion continues
-just prior: airline hijackings, munich olympics m…</t>
-  </si>
-  <si>
-    <t>going to be really interesting to see how they restructure after this. also, if the olympics were to be rescheduled (more likely to be cancelled) they’d probably take place in october, which is where they moved the g1. https://t.co/bf8bk8akci</t>
-  </si>
-  <si>
-    <t>greece’s olympic committee announced monday that no spectators will be allowed at the tokyo 2020 olympics torch lighting ceremony in ancient olympia on thursday due to the coronavirus outbreak.
-#coronavirus</t>
-  </si>
-  <si>
-    <t>@jamiec1979 @pe_mme @lisanandy also trans people have been allowed to compete in the olympics since 2004, none have ever won a gold medal. in fact not one has even made it to the the olympics. you are making an issue of something that hardly exists .</t>
-  </si>
-  <si>
-    <t>kill the olympics. https://t.co/pjwoqeqxxc</t>
-  </si>
-  <si>
-    <t>@clairlemon not japan. they have an olympics to host in a few months so everyone relax its all totally ok here 🙃</t>
-  </si>
-  <si>
-    <t>rt @sherni02: #اسلام_کی_شہزادياں 
-minhal sohail the 21-year-old became pakistan’s first female shooter to compete at olympics 2016. althoug…</t>
-  </si>
-  <si>
-    <t>rt @billsimmons: unnerving state of play as the coronavirus interferes in everyday life - by brian phillips  https://t.co/otkwjrdr8j</t>
-  </si>
-  <si>
-    <t>@fancypirate8 i love the olympics.  cool to see these incredible athletes</t>
-  </si>
-  <si>
-    <t>rt @reuters: japan's 2011 fukushima nuclear disaster marked a turning point for this father and son: for one it was the end of the life he…</t>
-  </si>
-  <si>
-    <t>with all the sickness fears, will tokyo run the olympics this year? https://t.co/11kcuqttqs https://t.co/4kabgsgcte</t>
-  </si>
-  <si>
-    <t>rt @lisacullen: in #japan, the following are closed due to #coronavirus:
-✘ all schools
-✘ many offices
-✘ disneyland
-✘ baseball, sumo, al…</t>
-  </si>
-  <si>
-    <t>rt @abscbnnews: olympics: pinoy athletes continue to vie for slots despite possible postponement of tokyo games https://t.co/xidjghvnym</t>
-  </si>
-  <si>
-    <t>with the format of the olympics this year i have no issue with team selection being too 4 aa at trials!</t>
-  </si>
-  <si>
-    <t>@lisanandy what a wet fish you were on tv this morning. no leadership credentials for you. men running in emailing olympics needs a committee to decide if it's right? not common sensecprevailing your side</t>
-  </si>
-  <si>
-    <t>@sacrasmnazi @clelyly yes first round is tricky, but i am only worried about first round . because my gut says she'll swallow okuhara and ratchanok , although it'll be tough to swallow ratchanok a good potenial quarterfianals seems to bring saina close towards her fourth consecutive olympics</t>
-  </si>
-  <si>
-    <t>rt @newday: japan’s infection rate is under scrutiny as coronavirus casts a shadow over the upcoming summer olympics.
-“japanese epidemiolog…</t>
-  </si>
-  <si>
-    <t>@pgtitour @tokyo2020 @olympics @chikkarangappa @naam5 @gangjeer @virajmadappa @tatasteelltd tee-off is 11th or 12th? thx.</t>
-  </si>
-  <si>
-    <t>rt @sportsdeskph: the tokyo 2020 olympic torch lighting ceremony at the site of ancient olympia will be staged without spectators on thursd…</t>
-  </si>
-  <si>
-    <t>sometimes the real subject of a story isn't the one you expected. 
-after fukushima, a young baseball star triumphed. but the one i cared most about in this story was the father, who lost everything he knew.
-as always, loved working with @saitomri on this.
-https://t.co/urzsy6nkyt https://t.co/adtkx5ixx4</t>
-  </si>
-  <si>
-    <t>rt @truthabtchina: the 2022 winter olympics should not be held in china. the world should not support the ccp with their terrible human rig…</t>
-  </si>
-  <si>
-    <t>rt @bbcsportwales: 🚣‍♀️ @vickythornleygb is aiming to make her third olympics this year. 
-after a silver in the double sculls at rio she's…</t>
-  </si>
-  <si>
-    <t>rt @itgdsports: having sealed tokyo olympics berths, amit panghal and lovlina borgohain finished the asian qualifiers with bronze medals |…</t>
-  </si>
-  <si>
-    <t>rt @tokyo2020: the boxing is back on! 🥊
-watch the qualifiers live from amman right here: 
-https://t.co/jierrhrksq
-#boxing #roadtotokyo20…</t>
-  </si>
-  <si>
-    <t>@mattbakerfans @bbccountryfile @bbcone @olympics @nestle @rspca_official @missalexjones @cbbc can you help?!??</t>
-  </si>
-  <si>
-    <t>nesthy petecio rues failed first shot at tokyo olympics - https://t.co/jonrdawmbu https://t.co/qbig9xiseh</t>
-  </si>
-  <si>
-    <t>rt @kevin10tv: fans barred from tokyo 2020 torch ceremony - via @espn app https://t.co/8yjt5q75wl</t>
-  </si>
-  <si>
-    <t>rt @sentandent: the tentacles of canceling the tokyo olympics — or postponing or staging it in empty venues — would reach into every corner…</t>
-  </si>
-  <si>
-    <t>rt @joebrentmando: if you wanted to time a global pandemic for maximum effect, you’d put it in the middle of an olympics and an american el…</t>
-  </si>
-  <si>
-    <t>@ibnabitareq @saajidlipham sorry, tareq. i won’t drink your liberal kool aid. let’s not play the liberal olympics. haram is haram. say it with your chest. homosexuality is forbidden in islam. are you afraid to lose followers?</t>
-  </si>
-  <si>
-    <t>the impact of olympic cancellation would reach around the globe https://t.co/kkl5azmpof https://t.co/tf63wqnbh5</t>
-  </si>
-  <si>
-    <t>rt @staronline: indonesia considers 2032 olympics bid for new capital city with softbank's help
-https://t.co/he1r7dpqnx  https://t.co/he1r7…</t>
-  </si>
-  <si>
-    <t>the nsas must figure out how their athletes can participate in their respective #tokyo2020 olympics qualifiers https://t.co/6uvjo7yjae via @rapplerdotcom</t>
-  </si>
-  <si>
-    <t>@thefifth_wave forgot about the olympics 😂</t>
-  </si>
-  <si>
-    <t>rt @reuters: #tokyo2020 baseball and softball games will be held in fukushima, which suffered nuclear meltdowns in 2011. organizers hope th…</t>
-  </si>
-  <si>
-    <t>rt @alexshibutani: last night was a dream that became a reality. @maiashibutani and i have worked so hard for this! proud to be the first i…</t>
-  </si>
-  <si>
-    <t>exclusive: indonesia considers 2032 olympics bid for new capital city with softbank's help https://t.co/q4c8yd7hmf</t>
-  </si>
-  <si>
-    <t>ambitious! #indonesian president joko widodo is weighing an audacious 2032 #olympics bid centered on the country's not-yet-built new capital and is in early talks with #softbank and other investors for support(reuters) https://t.co/zhgmdia3gn</t>
-  </si>
-  <si>
-    <t>rt @cityofpomo: congratulations to reid and fiona who brought home a total of 7 medals from the 2020 special olympics canadian winter games…</t>
-  </si>
-  <si>
-    <t>the future is uncertain and impossible to forecast. we do not try, preferring to follow a process with c.150yrs of data that shows that buying businesses for less than their intrinsic value will, on average and over time, yield above-average returns.
-https://t.co/ncljojzdxj</t>
-  </si>
-  <si>
-    <t>there isn't one insurer that holds all the risk for the cancellation of a major event like the olympics or a world cup. the main counterparty would typically parcel out its own risk to several other so the pain can be shared.</t>
-  </si>
-  <si>
-    <t>from the special issue: japan’s olympic summer games - past &amp;amp; present. this article comes from the section of branding and identity.  
-opening a storyline in the 2020 olympics
-by @david_leheny
-https://t.co/wrl1jxdeh2 
-#tokyoolympics @japan_olympic https://t.co/9veswjb4sz</t>
-  </si>
-  <si>
-    <t>@lincolnfresno gender determination in athletics, a century old question/problem has worked its way down to middle school events and daily life.  1936 olympics to '68 to 2020.
-https://t.co/rmkretdwqi https://t.co/a1ussyvi80</t>
-  </si>
-  <si>
-    <t>if only snowy had fortified himself at the 1908 london olympics when boxing against (then future) english cricket captain jwht douglas he might have secured a gold medal, instead of the silver... https://t.co/urlcxpcnrz https://t.co/mk5nn1n13o</t>
-  </si>
-  <si>
-    <t>rt @clintoncity_ccs: check out wbir’s coverage of our blaze special olympics!   https://t.co/73psqjjjc9</t>
-  </si>
-  <si>
-    <t>rt @toisports: #justin #olympicqualifiers #tokyo2020 #boxing
-@boxerpanghal loses to jianguan hu of china in 52kg semis
-amit had already q…</t>
-  </si>
-  <si>
-    <t>rt @eggiebabie: making fun of someone’s height is still body shaming and it doesn’t matter which one is inherently “worst” because it isn’t…</t>
   </si>
 </sst>
 </file>
@@ -2706,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4720,1255 +4550,2008 @@
       <c r="A251" t="s">
         <v>251</v>
       </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
       <c r="A329" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
       <c r="A344" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
       <c r="A347" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
       <c r="A348" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
       <c r="A349" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
       <c r="A350" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
       <c r="A351" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
       <c r="A352" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
       <c r="A353" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
       <c r="A354" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
       <c r="A355" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
       <c r="A356" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
       <c r="A357" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
       <c r="A358" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
       <c r="A359" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
       <c r="A362" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
       <c r="A363" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
       <c r="A364" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
       <c r="A365" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
       <c r="A366" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
       <c r="A367" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
       <c r="A368" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
       <c r="A369" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
       <c r="A370" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
       <c r="A371" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
       <c r="A372" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
       <c r="A373" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
       <c r="A374" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
       <c r="A375" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
       <c r="A377" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
       <c r="A378" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
       <c r="A379" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
       <c r="A380" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
       <c r="A381" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
       <c r="A382" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
       <c r="A383" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
       <c r="A384" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
       <c r="A385" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
       <c r="A386" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
       <c r="A387" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
       <c r="A388" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
       <c r="A389" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
       <c r="A390" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
       <c r="A391" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
       <c r="A393" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
       <c r="A394" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
       <c r="A395" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
       <c r="A396" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
       <c r="A397" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
       <c r="A398" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
       <c r="A399" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
       <c r="A400" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
       <c r="A401" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
       <c r="A402" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
       <c r="A403" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
       <c r="A404" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
       <c r="A407" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
       <c r="A408" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
       <c r="A409" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
       <c r="A410" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
       <c r="A411" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
       <c r="A412" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
       <c r="A413" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
       <c r="A414" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
       <c r="A415" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
       <c r="A416" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
       <c r="A417" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
       <c r="A418" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
       <c r="A419" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
       <c r="A422" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
       <c r="A423" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
       <c r="A424" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
       <c r="A425" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
       <c r="A426" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
       <c r="A427" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
       <c r="A428" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
       <c r="A429" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
       <c r="A430" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
       <c r="A431" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
       <c r="A432" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
       <c r="A433" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
       <c r="A434" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
       <c r="A437" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
       <c r="A438" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
       <c r="A439" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
       <c r="A440" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
       <c r="A441" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
       <c r="A442" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
       <c r="A443" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
       <c r="A444" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
       <c r="A445" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
       <c r="A446" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
       <c r="A447" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
       <c r="A448" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
       <c r="A449" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
       <c r="A452" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
       <c r="A453" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
       <c r="A454" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
       <c r="A455" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
       <c r="A456" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="B456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
       <c r="A457" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
       <c r="A458" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
       <c r="A459" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="B459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
       <c r="A460" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
       <c r="A461" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
       <c r="A462" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
       <c r="A463" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
       <c r="A464" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="B476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="B480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="B482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
       <c r="A487" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="B487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
       <c r="A488" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
       <c r="A489" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="B489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
       <c r="A490" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
       <c r="A491" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
       <c r="A492" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
       <c r="A493" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
       <c r="A494" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
       <c r="A497" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
       <c r="A498" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
       <c r="A499" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
       <c r="A500" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
       <c r="A501" t="s">
         <v>501</v>
+      </c>
+      <c r="B501">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5978,758 +6561,824 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A149"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>650</v>
+      <c r="B101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
